--- a/画面設計書.xlsx
+++ b/画面設計書.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
   <si>
     <t>改訂日</t>
     <rPh sb="0" eb="2">
@@ -296,44 +296,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>他のカテゴリーと同じ</t>
-    <rPh sb="0" eb="1">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品ボタン</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画像を押して個数入力できる、画像の数と種類はカテゴリーによる</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コスウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュルイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -349,16 +314,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カテゴリー画面まで戻る</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>履歴ボタン</t>
     <rPh sb="0" eb="2">
       <t>リレキ</t>
@@ -366,38 +321,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>履歴画面に遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>確定ボタン</t>
     <rPh sb="0" eb="2">
       <t>カクテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>注文確定画面に遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -434,7 +360,83 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>○○ボタン[クリック]処理</t>
+    <t>他のカテゴリーと表示の仕方は同じ。カテゴリー名の部分のみ違い</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シカタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3：：カテゴリー画面まで戻る</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7：：個数を選択すると、ボタンの四角が太くなる。</t>
+    <rPh sb="3" eb="5">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8：：戻るボタンを押すとメニュー画面に戻る。たとえ、ボタンで個数を選択していても、その注文は送信されず、キャンセルということになる。</t>
+    <rPh sb="30" eb="32">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9：：確定ボタンを押すと、注文確定画面にデータが送られ、そこの画面に今、注文されたものが表示される。注文されたということになる。</t>
+    <rPh sb="50" eb="52">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2：：画像を押して個数入力できる、画像の数と種類はカテゴリーによる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4：：履歴画面に遷移する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5：：注文確定画面に遷移する</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1310,37 +1312,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1348,17 +1326,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1380,6 +1349,39 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15427,8 +15429,8 @@
   </sheetPr>
   <dimension ref="A1:CQ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT9" sqref="AT9"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BF85" sqref="BF85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
@@ -15616,7 +15618,7 @@
       <c r="AY4" s="4"/>
       <c r="AZ4" s="5"/>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:95" ht="9.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -15713,7 +15715,7 @@
       <c r="CP5" s="84"/>
       <c r="CQ5" s="84"/>
     </row>
-    <row r="6" spans="1:95" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:95" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -15791,7 +15793,7 @@
       <c r="CP6" s="84"/>
       <c r="CQ6" s="84"/>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:95" ht="9.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -15808,21 +15810,21 @@
       <c r="R7" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="87"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="103"/>
+      <c r="AG7" s="104"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
       <c r="AK7" s="10"/>
@@ -15844,23 +15846,23 @@
       <c r="BA7" s="84"/>
       <c r="BB7" s="84"/>
       <c r="BC7" s="84"/>
-      <c r="BD7" s="88" t="s">
+      <c r="BD7" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="BE7" s="89"/>
-      <c r="BF7" s="89"/>
-      <c r="BG7" s="89"/>
-      <c r="BH7" s="89"/>
-      <c r="BI7" s="89"/>
-      <c r="BJ7" s="89"/>
-      <c r="BK7" s="89"/>
-      <c r="BL7" s="89"/>
-      <c r="BM7" s="89"/>
-      <c r="BN7" s="89"/>
-      <c r="BO7" s="89"/>
-      <c r="BP7" s="89"/>
-      <c r="BQ7" s="89"/>
-      <c r="BR7" s="89"/>
+      <c r="BE7" s="87"/>
+      <c r="BF7" s="87"/>
+      <c r="BG7" s="87"/>
+      <c r="BH7" s="87"/>
+      <c r="BI7" s="87"/>
+      <c r="BJ7" s="87"/>
+      <c r="BK7" s="87"/>
+      <c r="BL7" s="87"/>
+      <c r="BM7" s="87"/>
+      <c r="BN7" s="87"/>
+      <c r="BO7" s="87"/>
+      <c r="BP7" s="87"/>
+      <c r="BQ7" s="87"/>
+      <c r="BR7" s="87"/>
       <c r="BS7" s="84"/>
       <c r="BT7" s="84"/>
       <c r="BU7" s="84"/>
@@ -15887,7 +15889,7 @@
       <c r="CP7" s="84"/>
       <c r="CQ7" s="84"/>
     </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:95" ht="9.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -15901,22 +15903,22 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="91"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="92"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="106"/>
+      <c r="AF8" s="106"/>
+      <c r="AG8" s="107"/>
       <c r="AH8" s="10"/>
       <c r="AI8" s="10"/>
       <c r="AK8" s="10"/>
@@ -15938,21 +15940,21 @@
       <c r="BA8" s="84"/>
       <c r="BB8" s="84"/>
       <c r="BC8" s="84"/>
-      <c r="BD8" s="88"/>
-      <c r="BE8" s="89"/>
-      <c r="BF8" s="89"/>
-      <c r="BG8" s="89"/>
-      <c r="BH8" s="89"/>
-      <c r="BI8" s="89"/>
-      <c r="BJ8" s="89"/>
-      <c r="BK8" s="89"/>
-      <c r="BL8" s="89"/>
-      <c r="BM8" s="89"/>
-      <c r="BN8" s="89"/>
-      <c r="BO8" s="89"/>
-      <c r="BP8" s="89"/>
-      <c r="BQ8" s="89"/>
-      <c r="BR8" s="89"/>
+      <c r="BD8" s="86"/>
+      <c r="BE8" s="87"/>
+      <c r="BF8" s="87"/>
+      <c r="BG8" s="87"/>
+      <c r="BH8" s="87"/>
+      <c r="BI8" s="87"/>
+      <c r="BJ8" s="87"/>
+      <c r="BK8" s="87"/>
+      <c r="BL8" s="87"/>
+      <c r="BM8" s="87"/>
+      <c r="BN8" s="87"/>
+      <c r="BO8" s="87"/>
+      <c r="BP8" s="87"/>
+      <c r="BQ8" s="87"/>
+      <c r="BR8" s="87"/>
       <c r="BS8" s="84"/>
       <c r="BT8" s="84"/>
       <c r="BU8" s="84"/>
@@ -15993,22 +15995,22 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="92"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="106"/>
+      <c r="AE9" s="106"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="107"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
       <c r="AK9" s="10"/>
@@ -16029,47 +16031,47 @@
       <c r="AZ9" s="11"/>
       <c r="BA9" s="84"/>
       <c r="BB9" s="84"/>
-      <c r="BC9" s="93"/>
-      <c r="BD9" s="93"/>
-      <c r="BE9" s="93"/>
-      <c r="BF9" s="93"/>
-      <c r="BG9" s="93"/>
-      <c r="BH9" s="93"/>
-      <c r="BI9" s="93"/>
-      <c r="BJ9" s="93"/>
-      <c r="BK9" s="93"/>
-      <c r="BL9" s="93"/>
-      <c r="BM9" s="93"/>
-      <c r="BN9" s="93"/>
-      <c r="BO9" s="93"/>
-      <c r="BP9" s="93"/>
-      <c r="BQ9" s="93"/>
-      <c r="BR9" s="93"/>
-      <c r="BS9" s="93"/>
-      <c r="BT9" s="93"/>
-      <c r="BU9" s="93"/>
-      <c r="BV9" s="93"/>
-      <c r="BW9" s="93"/>
-      <c r="BX9" s="93"/>
-      <c r="BY9" s="93"/>
-      <c r="BZ9" s="93"/>
-      <c r="CA9" s="93"/>
-      <c r="CB9" s="93"/>
-      <c r="CC9" s="93"/>
-      <c r="CD9" s="93"/>
-      <c r="CE9" s="93"/>
-      <c r="CF9" s="93"/>
-      <c r="CG9" s="93"/>
-      <c r="CH9" s="93"/>
-      <c r="CI9" s="93"/>
-      <c r="CJ9" s="93"/>
-      <c r="CK9" s="93"/>
-      <c r="CL9" s="93"/>
-      <c r="CM9" s="93"/>
-      <c r="CN9" s="93"/>
-      <c r="CO9" s="93"/>
-      <c r="CP9" s="93"/>
-      <c r="CQ9" s="93"/>
+      <c r="BC9" s="88"/>
+      <c r="BD9" s="88"/>
+      <c r="BE9" s="88"/>
+      <c r="BF9" s="88"/>
+      <c r="BG9" s="88"/>
+      <c r="BH9" s="88"/>
+      <c r="BI9" s="88"/>
+      <c r="BJ9" s="88"/>
+      <c r="BK9" s="88"/>
+      <c r="BL9" s="88"/>
+      <c r="BM9" s="88"/>
+      <c r="BN9" s="88"/>
+      <c r="BO9" s="88"/>
+      <c r="BP9" s="88"/>
+      <c r="BQ9" s="88"/>
+      <c r="BR9" s="88"/>
+      <c r="BS9" s="88"/>
+      <c r="BT9" s="88"/>
+      <c r="BU9" s="88"/>
+      <c r="BV9" s="88"/>
+      <c r="BW9" s="88"/>
+      <c r="BX9" s="88"/>
+      <c r="BY9" s="88"/>
+      <c r="BZ9" s="88"/>
+      <c r="CA9" s="88"/>
+      <c r="CB9" s="88"/>
+      <c r="CC9" s="88"/>
+      <c r="CD9" s="88"/>
+      <c r="CE9" s="88"/>
+      <c r="CF9" s="88"/>
+      <c r="CG9" s="88"/>
+      <c r="CH9" s="88"/>
+      <c r="CI9" s="88"/>
+      <c r="CJ9" s="88"/>
+      <c r="CK9" s="88"/>
+      <c r="CL9" s="88"/>
+      <c r="CM9" s="88"/>
+      <c r="CN9" s="88"/>
+      <c r="CO9" s="88"/>
+      <c r="CP9" s="88"/>
+      <c r="CQ9" s="88"/>
     </row>
     <row r="10" spans="1:95" ht="10.199999999999999" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
@@ -16087,22 +16089,22 @@
       <c r="M10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="95"/>
-      <c r="AF10" s="95"/>
-      <c r="AG10" s="96"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="109"/>
+      <c r="AD10" s="109"/>
+      <c r="AE10" s="109"/>
+      <c r="AF10" s="109"/>
+      <c r="AG10" s="110"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
       <c r="AK10" s="10"/>
@@ -16123,47 +16125,47 @@
       <c r="AZ10" s="11"/>
       <c r="BA10" s="84"/>
       <c r="BB10" s="84"/>
-      <c r="BC10" s="93"/>
-      <c r="BD10" s="93"/>
-      <c r="BE10" s="93"/>
-      <c r="BF10" s="93"/>
-      <c r="BG10" s="93"/>
-      <c r="BH10" s="93"/>
-      <c r="BI10" s="93"/>
-      <c r="BJ10" s="93"/>
-      <c r="BK10" s="93"/>
-      <c r="BL10" s="93"/>
-      <c r="BM10" s="93"/>
-      <c r="BN10" s="93"/>
-      <c r="BO10" s="93"/>
-      <c r="BP10" s="93"/>
-      <c r="BQ10" s="93"/>
-      <c r="BR10" s="93"/>
-      <c r="BS10" s="93"/>
-      <c r="BT10" s="93"/>
-      <c r="BU10" s="93"/>
-      <c r="BV10" s="93"/>
-      <c r="BW10" s="93"/>
-      <c r="BX10" s="93"/>
-      <c r="BY10" s="93"/>
-      <c r="BZ10" s="93"/>
-      <c r="CA10" s="93"/>
-      <c r="CB10" s="93"/>
-      <c r="CC10" s="93"/>
-      <c r="CD10" s="93"/>
-      <c r="CE10" s="93"/>
-      <c r="CF10" s="93"/>
-      <c r="CG10" s="93"/>
-      <c r="CH10" s="93"/>
-      <c r="CI10" s="93"/>
-      <c r="CJ10" s="93"/>
-      <c r="CK10" s="93"/>
-      <c r="CL10" s="93"/>
-      <c r="CM10" s="93"/>
-      <c r="CN10" s="93"/>
-      <c r="CO10" s="93"/>
-      <c r="CP10" s="93"/>
-      <c r="CQ10" s="93"/>
+      <c r="BC10" s="88"/>
+      <c r="BD10" s="88"/>
+      <c r="BE10" s="88"/>
+      <c r="BF10" s="88"/>
+      <c r="BG10" s="88"/>
+      <c r="BH10" s="88"/>
+      <c r="BI10" s="88"/>
+      <c r="BJ10" s="88"/>
+      <c r="BK10" s="88"/>
+      <c r="BL10" s="88"/>
+      <c r="BM10" s="88"/>
+      <c r="BN10" s="88"/>
+      <c r="BO10" s="88"/>
+      <c r="BP10" s="88"/>
+      <c r="BQ10" s="88"/>
+      <c r="BR10" s="88"/>
+      <c r="BS10" s="88"/>
+      <c r="BT10" s="88"/>
+      <c r="BU10" s="88"/>
+      <c r="BV10" s="88"/>
+      <c r="BW10" s="88"/>
+      <c r="BX10" s="88"/>
+      <c r="BY10" s="88"/>
+      <c r="BZ10" s="88"/>
+      <c r="CA10" s="88"/>
+      <c r="CB10" s="88"/>
+      <c r="CC10" s="88"/>
+      <c r="CD10" s="88"/>
+      <c r="CE10" s="88"/>
+      <c r="CF10" s="88"/>
+      <c r="CG10" s="88"/>
+      <c r="CH10" s="88"/>
+      <c r="CI10" s="88"/>
+      <c r="CJ10" s="88"/>
+      <c r="CK10" s="88"/>
+      <c r="CL10" s="88"/>
+      <c r="CM10" s="88"/>
+      <c r="CN10" s="88"/>
+      <c r="CO10" s="88"/>
+      <c r="CP10" s="88"/>
+      <c r="CQ10" s="88"/>
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
@@ -16197,47 +16199,47 @@
       <c r="AZ11" s="11"/>
       <c r="BA11" s="84"/>
       <c r="BB11" s="84"/>
-      <c r="BC11" s="93"/>
-      <c r="BD11" s="93"/>
-      <c r="BE11" s="93"/>
-      <c r="BF11" s="93"/>
-      <c r="BG11" s="93"/>
-      <c r="BH11" s="93"/>
-      <c r="BI11" s="93"/>
-      <c r="BJ11" s="93"/>
-      <c r="BK11" s="93"/>
-      <c r="BL11" s="93"/>
-      <c r="BM11" s="93"/>
-      <c r="BN11" s="93"/>
-      <c r="BO11" s="93"/>
-      <c r="BP11" s="93"/>
-      <c r="BQ11" s="93"/>
-      <c r="BR11" s="93"/>
-      <c r="BS11" s="93"/>
-      <c r="BT11" s="93"/>
-      <c r="BU11" s="93"/>
-      <c r="BV11" s="93"/>
-      <c r="BW11" s="93"/>
-      <c r="BX11" s="93"/>
-      <c r="BY11" s="93"/>
-      <c r="BZ11" s="93"/>
-      <c r="CA11" s="93"/>
-      <c r="CB11" s="93"/>
-      <c r="CC11" s="93"/>
-      <c r="CD11" s="93"/>
-      <c r="CE11" s="93"/>
-      <c r="CF11" s="93"/>
-      <c r="CG11" s="93"/>
-      <c r="CH11" s="93"/>
-      <c r="CI11" s="93"/>
-      <c r="CJ11" s="93"/>
-      <c r="CK11" s="93"/>
-      <c r="CL11" s="93"/>
-      <c r="CM11" s="93"/>
-      <c r="CN11" s="93"/>
-      <c r="CO11" s="93"/>
-      <c r="CP11" s="93"/>
-      <c r="CQ11" s="93"/>
+      <c r="BC11" s="88"/>
+      <c r="BD11" s="88"/>
+      <c r="BE11" s="88"/>
+      <c r="BF11" s="88"/>
+      <c r="BG11" s="88"/>
+      <c r="BH11" s="88"/>
+      <c r="BI11" s="88"/>
+      <c r="BJ11" s="88"/>
+      <c r="BK11" s="88"/>
+      <c r="BL11" s="88"/>
+      <c r="BM11" s="88"/>
+      <c r="BN11" s="88"/>
+      <c r="BO11" s="88"/>
+      <c r="BP11" s="88"/>
+      <c r="BQ11" s="88"/>
+      <c r="BR11" s="88"/>
+      <c r="BS11" s="88"/>
+      <c r="BT11" s="88"/>
+      <c r="BU11" s="88"/>
+      <c r="BV11" s="88"/>
+      <c r="BW11" s="88"/>
+      <c r="BX11" s="88"/>
+      <c r="BY11" s="88"/>
+      <c r="BZ11" s="88"/>
+      <c r="CA11" s="88"/>
+      <c r="CB11" s="88"/>
+      <c r="CC11" s="88"/>
+      <c r="CD11" s="88"/>
+      <c r="CE11" s="88"/>
+      <c r="CF11" s="88"/>
+      <c r="CG11" s="88"/>
+      <c r="CH11" s="88"/>
+      <c r="CI11" s="88"/>
+      <c r="CJ11" s="88"/>
+      <c r="CK11" s="88"/>
+      <c r="CL11" s="88"/>
+      <c r="CM11" s="88"/>
+      <c r="CN11" s="88"/>
+      <c r="CO11" s="88"/>
+      <c r="CP11" s="88"/>
+      <c r="CQ11" s="88"/>
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
@@ -16294,47 +16296,47 @@
       <c r="AZ12" s="11"/>
       <c r="BA12" s="84"/>
       <c r="BB12" s="84"/>
-      <c r="BC12" s="93"/>
-      <c r="BD12" s="93"/>
-      <c r="BE12" s="93"/>
-      <c r="BF12" s="93"/>
-      <c r="BG12" s="93"/>
-      <c r="BH12" s="93"/>
-      <c r="BI12" s="93"/>
-      <c r="BJ12" s="93"/>
-      <c r="BK12" s="93"/>
-      <c r="BL12" s="93"/>
-      <c r="BM12" s="93"/>
-      <c r="BN12" s="93"/>
-      <c r="BO12" s="93"/>
-      <c r="BP12" s="93"/>
-      <c r="BQ12" s="93"/>
-      <c r="BR12" s="93"/>
-      <c r="BS12" s="93"/>
-      <c r="BT12" s="93"/>
-      <c r="BU12" s="93"/>
-      <c r="BV12" s="93"/>
-      <c r="BW12" s="93"/>
-      <c r="BX12" s="93"/>
-      <c r="BY12" s="93"/>
-      <c r="BZ12" s="93"/>
-      <c r="CA12" s="93"/>
-      <c r="CB12" s="93"/>
-      <c r="CC12" s="93"/>
-      <c r="CD12" s="93"/>
-      <c r="CE12" s="93"/>
-      <c r="CF12" s="93"/>
-      <c r="CG12" s="93"/>
-      <c r="CH12" s="93"/>
-      <c r="CI12" s="93"/>
-      <c r="CJ12" s="93"/>
-      <c r="CK12" s="93"/>
-      <c r="CL12" s="93"/>
-      <c r="CM12" s="93"/>
-      <c r="CN12" s="93"/>
-      <c r="CO12" s="93"/>
-      <c r="CP12" s="93"/>
-      <c r="CQ12" s="93"/>
+      <c r="BC12" s="88"/>
+      <c r="BD12" s="88"/>
+      <c r="BE12" s="88"/>
+      <c r="BF12" s="88"/>
+      <c r="BG12" s="88"/>
+      <c r="BH12" s="88"/>
+      <c r="BI12" s="88"/>
+      <c r="BJ12" s="88"/>
+      <c r="BK12" s="88"/>
+      <c r="BL12" s="88"/>
+      <c r="BM12" s="88"/>
+      <c r="BN12" s="88"/>
+      <c r="BO12" s="88"/>
+      <c r="BP12" s="88"/>
+      <c r="BQ12" s="88"/>
+      <c r="BR12" s="88"/>
+      <c r="BS12" s="88"/>
+      <c r="BT12" s="88"/>
+      <c r="BU12" s="88"/>
+      <c r="BV12" s="88"/>
+      <c r="BW12" s="88"/>
+      <c r="BX12" s="88"/>
+      <c r="BY12" s="88"/>
+      <c r="BZ12" s="88"/>
+      <c r="CA12" s="88"/>
+      <c r="CB12" s="88"/>
+      <c r="CC12" s="88"/>
+      <c r="CD12" s="88"/>
+      <c r="CE12" s="88"/>
+      <c r="CF12" s="88"/>
+      <c r="CG12" s="88"/>
+      <c r="CH12" s="88"/>
+      <c r="CI12" s="88"/>
+      <c r="CJ12" s="88"/>
+      <c r="CK12" s="88"/>
+      <c r="CL12" s="88"/>
+      <c r="CM12" s="88"/>
+      <c r="CN12" s="88"/>
+      <c r="CO12" s="88"/>
+      <c r="CP12" s="88"/>
+      <c r="CQ12" s="88"/>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
@@ -16391,47 +16393,47 @@
       <c r="AZ13" s="11"/>
       <c r="BA13" s="84"/>
       <c r="BB13" s="84"/>
-      <c r="BC13" s="93"/>
-      <c r="BD13" s="93"/>
-      <c r="BE13" s="93"/>
-      <c r="BF13" s="93"/>
-      <c r="BG13" s="93"/>
-      <c r="BH13" s="93"/>
-      <c r="BI13" s="93"/>
-      <c r="BJ13" s="93"/>
-      <c r="BK13" s="93"/>
-      <c r="BL13" s="93"/>
-      <c r="BM13" s="93"/>
-      <c r="BN13" s="93"/>
-      <c r="BO13" s="93"/>
-      <c r="BP13" s="93"/>
-      <c r="BQ13" s="93"/>
-      <c r="BR13" s="93"/>
-      <c r="BS13" s="93"/>
-      <c r="BT13" s="93"/>
-      <c r="BU13" s="93"/>
-      <c r="BV13" s="93"/>
-      <c r="BW13" s="93"/>
-      <c r="BX13" s="93"/>
-      <c r="BY13" s="93"/>
-      <c r="BZ13" s="93"/>
-      <c r="CA13" s="93"/>
-      <c r="CB13" s="93"/>
-      <c r="CC13" s="93"/>
-      <c r="CD13" s="93"/>
-      <c r="CE13" s="93"/>
-      <c r="CF13" s="93"/>
-      <c r="CG13" s="93"/>
-      <c r="CH13" s="93"/>
-      <c r="CI13" s="93"/>
-      <c r="CJ13" s="93"/>
-      <c r="CK13" s="93"/>
-      <c r="CL13" s="93"/>
-      <c r="CM13" s="93"/>
-      <c r="CN13" s="93"/>
-      <c r="CO13" s="93"/>
-      <c r="CP13" s="93"/>
-      <c r="CQ13" s="93"/>
+      <c r="BC13" s="88"/>
+      <c r="BD13" s="88"/>
+      <c r="BE13" s="88"/>
+      <c r="BF13" s="88"/>
+      <c r="BG13" s="88"/>
+      <c r="BH13" s="88"/>
+      <c r="BI13" s="88"/>
+      <c r="BJ13" s="88"/>
+      <c r="BK13" s="88"/>
+      <c r="BL13" s="88"/>
+      <c r="BM13" s="88"/>
+      <c r="BN13" s="88"/>
+      <c r="BO13" s="88"/>
+      <c r="BP13" s="88"/>
+      <c r="BQ13" s="88"/>
+      <c r="BR13" s="88"/>
+      <c r="BS13" s="88"/>
+      <c r="BT13" s="88"/>
+      <c r="BU13" s="88"/>
+      <c r="BV13" s="88"/>
+      <c r="BW13" s="88"/>
+      <c r="BX13" s="88"/>
+      <c r="BY13" s="88"/>
+      <c r="BZ13" s="88"/>
+      <c r="CA13" s="88"/>
+      <c r="CB13" s="88"/>
+      <c r="CC13" s="88"/>
+      <c r="CD13" s="88"/>
+      <c r="CE13" s="88"/>
+      <c r="CF13" s="88"/>
+      <c r="CG13" s="88"/>
+      <c r="CH13" s="88"/>
+      <c r="CI13" s="88"/>
+      <c r="CJ13" s="88"/>
+      <c r="CK13" s="88"/>
+      <c r="CL13" s="88"/>
+      <c r="CM13" s="88"/>
+      <c r="CN13" s="88"/>
+      <c r="CO13" s="88"/>
+      <c r="CP13" s="88"/>
+      <c r="CQ13" s="88"/>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
@@ -16488,47 +16490,47 @@
       <c r="AZ14" s="11"/>
       <c r="BA14" s="84"/>
       <c r="BB14" s="84"/>
-      <c r="BC14" s="93"/>
-      <c r="BD14" s="93"/>
-      <c r="BE14" s="93"/>
-      <c r="BF14" s="93"/>
-      <c r="BG14" s="93"/>
-      <c r="BH14" s="93"/>
-      <c r="BI14" s="93"/>
-      <c r="BJ14" s="93"/>
-      <c r="BK14" s="93"/>
-      <c r="BL14" s="93"/>
-      <c r="BM14" s="93"/>
-      <c r="BN14" s="93"/>
-      <c r="BO14" s="93"/>
-      <c r="BP14" s="93"/>
-      <c r="BQ14" s="93"/>
-      <c r="BR14" s="93"/>
-      <c r="BS14" s="93"/>
-      <c r="BT14" s="93"/>
-      <c r="BU14" s="93"/>
-      <c r="BV14" s="93"/>
-      <c r="BW14" s="93"/>
-      <c r="BX14" s="93"/>
-      <c r="BY14" s="93"/>
-      <c r="BZ14" s="93"/>
-      <c r="CA14" s="93"/>
-      <c r="CB14" s="93"/>
-      <c r="CC14" s="93"/>
-      <c r="CD14" s="93"/>
-      <c r="CE14" s="93"/>
-      <c r="CF14" s="93"/>
-      <c r="CG14" s="93"/>
-      <c r="CH14" s="93"/>
-      <c r="CI14" s="93"/>
-      <c r="CJ14" s="93"/>
-      <c r="CK14" s="93"/>
-      <c r="CL14" s="93"/>
-      <c r="CM14" s="93"/>
-      <c r="CN14" s="93"/>
-      <c r="CO14" s="93"/>
-      <c r="CP14" s="93"/>
-      <c r="CQ14" s="93"/>
+      <c r="BC14" s="88"/>
+      <c r="BD14" s="88"/>
+      <c r="BE14" s="88"/>
+      <c r="BF14" s="88"/>
+      <c r="BG14" s="88"/>
+      <c r="BH14" s="88"/>
+      <c r="BI14" s="88"/>
+      <c r="BJ14" s="88"/>
+      <c r="BK14" s="88"/>
+      <c r="BL14" s="88"/>
+      <c r="BM14" s="88"/>
+      <c r="BN14" s="88"/>
+      <c r="BO14" s="88"/>
+      <c r="BP14" s="88"/>
+      <c r="BQ14" s="88"/>
+      <c r="BR14" s="88"/>
+      <c r="BS14" s="88"/>
+      <c r="BT14" s="88"/>
+      <c r="BU14" s="88"/>
+      <c r="BV14" s="88"/>
+      <c r="BW14" s="88"/>
+      <c r="BX14" s="88"/>
+      <c r="BY14" s="88"/>
+      <c r="BZ14" s="88"/>
+      <c r="CA14" s="88"/>
+      <c r="CB14" s="88"/>
+      <c r="CC14" s="88"/>
+      <c r="CD14" s="88"/>
+      <c r="CE14" s="88"/>
+      <c r="CF14" s="88"/>
+      <c r="CG14" s="88"/>
+      <c r="CH14" s="88"/>
+      <c r="CI14" s="88"/>
+      <c r="CJ14" s="88"/>
+      <c r="CK14" s="88"/>
+      <c r="CL14" s="88"/>
+      <c r="CM14" s="88"/>
+      <c r="CN14" s="88"/>
+      <c r="CO14" s="88"/>
+      <c r="CP14" s="88"/>
+      <c r="CQ14" s="88"/>
     </row>
     <row r="15" spans="1:95" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -16585,47 +16587,47 @@
       <c r="AZ15" s="11"/>
       <c r="BA15" s="84"/>
       <c r="BB15" s="84"/>
-      <c r="BC15" s="93"/>
-      <c r="BD15" s="93"/>
-      <c r="BE15" s="93"/>
-      <c r="BF15" s="93"/>
-      <c r="BG15" s="93"/>
-      <c r="BH15" s="93"/>
-      <c r="BI15" s="93"/>
-      <c r="BJ15" s="93"/>
-      <c r="BK15" s="93"/>
-      <c r="BL15" s="93"/>
-      <c r="BM15" s="93"/>
-      <c r="BN15" s="93"/>
-      <c r="BO15" s="93"/>
-      <c r="BP15" s="93"/>
-      <c r="BQ15" s="93"/>
-      <c r="BR15" s="93"/>
-      <c r="BS15" s="93"/>
-      <c r="BT15" s="93"/>
-      <c r="BU15" s="97"/>
-      <c r="BV15" s="93"/>
-      <c r="BW15" s="98"/>
-      <c r="BX15" s="98"/>
-      <c r="BY15" s="93"/>
-      <c r="BZ15" s="97"/>
-      <c r="CA15" s="97"/>
-      <c r="CB15" s="93"/>
-      <c r="CC15" s="97"/>
-      <c r="CD15" s="97"/>
-      <c r="CE15" s="93"/>
-      <c r="CF15" s="97"/>
-      <c r="CG15" s="97"/>
-      <c r="CH15" s="93"/>
-      <c r="CI15" s="93"/>
-      <c r="CJ15" s="93"/>
-      <c r="CK15" s="93"/>
-      <c r="CL15" s="93"/>
-      <c r="CM15" s="93"/>
-      <c r="CN15" s="93"/>
-      <c r="CO15" s="93"/>
-      <c r="CP15" s="93"/>
-      <c r="CQ15" s="93"/>
+      <c r="BC15" s="88"/>
+      <c r="BD15" s="88"/>
+      <c r="BE15" s="88"/>
+      <c r="BF15" s="88"/>
+      <c r="BG15" s="88"/>
+      <c r="BH15" s="88"/>
+      <c r="BI15" s="88"/>
+      <c r="BJ15" s="88"/>
+      <c r="BK15" s="88"/>
+      <c r="BL15" s="88"/>
+      <c r="BM15" s="88"/>
+      <c r="BN15" s="88"/>
+      <c r="BO15" s="88"/>
+      <c r="BP15" s="88"/>
+      <c r="BQ15" s="88"/>
+      <c r="BR15" s="88"/>
+      <c r="BS15" s="88"/>
+      <c r="BT15" s="88"/>
+      <c r="BU15" s="89"/>
+      <c r="BV15" s="88"/>
+      <c r="BW15" s="90"/>
+      <c r="BX15" s="90"/>
+      <c r="BY15" s="88"/>
+      <c r="BZ15" s="89"/>
+      <c r="CA15" s="89"/>
+      <c r="CB15" s="88"/>
+      <c r="CC15" s="89"/>
+      <c r="CD15" s="89"/>
+      <c r="CE15" s="88"/>
+      <c r="CF15" s="89"/>
+      <c r="CG15" s="89"/>
+      <c r="CH15" s="88"/>
+      <c r="CI15" s="88"/>
+      <c r="CJ15" s="88"/>
+      <c r="CK15" s="88"/>
+      <c r="CL15" s="88"/>
+      <c r="CM15" s="88"/>
+      <c r="CN15" s="88"/>
+      <c r="CO15" s="88"/>
+      <c r="CP15" s="88"/>
+      <c r="CQ15" s="88"/>
     </row>
     <row r="16" spans="1:95" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -16682,47 +16684,47 @@
       <c r="AZ16" s="11"/>
       <c r="BA16" s="84"/>
       <c r="BB16" s="84"/>
-      <c r="BC16" s="93"/>
-      <c r="BD16" s="93"/>
-      <c r="BE16" s="93"/>
-      <c r="BF16" s="93"/>
-      <c r="BG16" s="93"/>
-      <c r="BH16" s="93"/>
-      <c r="BI16" s="93"/>
-      <c r="BJ16" s="93"/>
-      <c r="BK16" s="93"/>
-      <c r="BL16" s="93"/>
-      <c r="BM16" s="93"/>
-      <c r="BN16" s="93"/>
-      <c r="BO16" s="93"/>
-      <c r="BP16" s="93"/>
-      <c r="BQ16" s="93"/>
-      <c r="BR16" s="93"/>
-      <c r="BS16" s="93"/>
-      <c r="BT16" s="97"/>
-      <c r="BU16" s="97"/>
-      <c r="BV16" s="93"/>
-      <c r="BW16" s="98"/>
-      <c r="BX16" s="98"/>
-      <c r="BY16" s="93"/>
-      <c r="BZ16" s="97"/>
-      <c r="CA16" s="97"/>
-      <c r="CB16" s="93"/>
-      <c r="CC16" s="97"/>
-      <c r="CD16" s="97"/>
-      <c r="CE16" s="93"/>
-      <c r="CF16" s="97"/>
-      <c r="CG16" s="97"/>
-      <c r="CH16" s="93"/>
-      <c r="CI16" s="93"/>
-      <c r="CJ16" s="93"/>
-      <c r="CK16" s="93"/>
-      <c r="CL16" s="93"/>
-      <c r="CM16" s="93"/>
-      <c r="CN16" s="93"/>
-      <c r="CO16" s="93"/>
-      <c r="CP16" s="93"/>
-      <c r="CQ16" s="93"/>
+      <c r="BC16" s="88"/>
+      <c r="BD16" s="88"/>
+      <c r="BE16" s="88"/>
+      <c r="BF16" s="88"/>
+      <c r="BG16" s="88"/>
+      <c r="BH16" s="88"/>
+      <c r="BI16" s="88"/>
+      <c r="BJ16" s="88"/>
+      <c r="BK16" s="88"/>
+      <c r="BL16" s="88"/>
+      <c r="BM16" s="88"/>
+      <c r="BN16" s="88"/>
+      <c r="BO16" s="88"/>
+      <c r="BP16" s="88"/>
+      <c r="BQ16" s="88"/>
+      <c r="BR16" s="88"/>
+      <c r="BS16" s="88"/>
+      <c r="BT16" s="89"/>
+      <c r="BU16" s="89"/>
+      <c r="BV16" s="88"/>
+      <c r="BW16" s="90"/>
+      <c r="BX16" s="90"/>
+      <c r="BY16" s="88"/>
+      <c r="BZ16" s="89"/>
+      <c r="CA16" s="89"/>
+      <c r="CB16" s="88"/>
+      <c r="CC16" s="89"/>
+      <c r="CD16" s="89"/>
+      <c r="CE16" s="88"/>
+      <c r="CF16" s="89"/>
+      <c r="CG16" s="89"/>
+      <c r="CH16" s="88"/>
+      <c r="CI16" s="88"/>
+      <c r="CJ16" s="88"/>
+      <c r="CK16" s="88"/>
+      <c r="CL16" s="88"/>
+      <c r="CM16" s="88"/>
+      <c r="CN16" s="88"/>
+      <c r="CO16" s="88"/>
+      <c r="CP16" s="88"/>
+      <c r="CQ16" s="88"/>
     </row>
     <row r="17" spans="1:95" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -16779,47 +16781,47 @@
       <c r="AZ17" s="11"/>
       <c r="BA17" s="84"/>
       <c r="BB17" s="84"/>
-      <c r="BC17" s="93"/>
-      <c r="BD17" s="93"/>
-      <c r="BE17" s="93"/>
-      <c r="BF17" s="93"/>
-      <c r="BG17" s="93"/>
-      <c r="BH17" s="93"/>
-      <c r="BI17" s="93"/>
-      <c r="BJ17" s="93"/>
-      <c r="BK17" s="93"/>
-      <c r="BL17" s="93"/>
-      <c r="BM17" s="93"/>
-      <c r="BN17" s="93"/>
-      <c r="BO17" s="93"/>
-      <c r="BP17" s="93"/>
-      <c r="BQ17" s="93"/>
-      <c r="BR17" s="93"/>
-      <c r="BS17" s="93"/>
-      <c r="BT17" s="97"/>
-      <c r="BU17" s="97"/>
-      <c r="BV17" s="93"/>
-      <c r="BW17" s="98"/>
-      <c r="BX17" s="98"/>
-      <c r="BY17" s="93"/>
-      <c r="BZ17" s="97"/>
-      <c r="CA17" s="97"/>
-      <c r="CB17" s="93"/>
-      <c r="CC17" s="97"/>
-      <c r="CD17" s="97"/>
-      <c r="CE17" s="93"/>
-      <c r="CF17" s="97"/>
-      <c r="CG17" s="97"/>
-      <c r="CH17" s="93"/>
-      <c r="CI17" s="93"/>
-      <c r="CJ17" s="93"/>
-      <c r="CK17" s="93"/>
-      <c r="CL17" s="93"/>
-      <c r="CM17" s="93"/>
-      <c r="CN17" s="93"/>
-      <c r="CO17" s="93"/>
-      <c r="CP17" s="93"/>
-      <c r="CQ17" s="93"/>
+      <c r="BC17" s="88"/>
+      <c r="BD17" s="88"/>
+      <c r="BE17" s="88"/>
+      <c r="BF17" s="88"/>
+      <c r="BG17" s="88"/>
+      <c r="BH17" s="88"/>
+      <c r="BI17" s="88"/>
+      <c r="BJ17" s="88"/>
+      <c r="BK17" s="88"/>
+      <c r="BL17" s="88"/>
+      <c r="BM17" s="88"/>
+      <c r="BN17" s="88"/>
+      <c r="BO17" s="88"/>
+      <c r="BP17" s="88"/>
+      <c r="BQ17" s="88"/>
+      <c r="BR17" s="88"/>
+      <c r="BS17" s="88"/>
+      <c r="BT17" s="89"/>
+      <c r="BU17" s="89"/>
+      <c r="BV17" s="88"/>
+      <c r="BW17" s="90"/>
+      <c r="BX17" s="90"/>
+      <c r="BY17" s="88"/>
+      <c r="BZ17" s="89"/>
+      <c r="CA17" s="89"/>
+      <c r="CB17" s="88"/>
+      <c r="CC17" s="89"/>
+      <c r="CD17" s="89"/>
+      <c r="CE17" s="88"/>
+      <c r="CF17" s="89"/>
+      <c r="CG17" s="89"/>
+      <c r="CH17" s="88"/>
+      <c r="CI17" s="88"/>
+      <c r="CJ17" s="88"/>
+      <c r="CK17" s="88"/>
+      <c r="CL17" s="88"/>
+      <c r="CM17" s="88"/>
+      <c r="CN17" s="88"/>
+      <c r="CO17" s="88"/>
+      <c r="CP17" s="88"/>
+      <c r="CQ17" s="88"/>
     </row>
     <row r="18" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
@@ -16876,47 +16878,47 @@
       <c r="AZ18" s="11"/>
       <c r="BA18" s="84"/>
       <c r="BB18" s="84"/>
-      <c r="BC18" s="93"/>
-      <c r="BD18" s="93"/>
-      <c r="BE18" s="93"/>
-      <c r="BF18" s="93"/>
-      <c r="BG18" s="93"/>
-      <c r="BH18" s="93"/>
-      <c r="BI18" s="93"/>
-      <c r="BJ18" s="93"/>
-      <c r="BK18" s="93"/>
-      <c r="BL18" s="93"/>
-      <c r="BM18" s="93"/>
-      <c r="BN18" s="93"/>
-      <c r="BO18" s="93"/>
-      <c r="BP18" s="93"/>
-      <c r="BQ18" s="93"/>
-      <c r="BR18" s="93"/>
-      <c r="BS18" s="93"/>
-      <c r="BT18" s="93"/>
-      <c r="BU18" s="93"/>
-      <c r="BV18" s="93"/>
-      <c r="BW18" s="93"/>
-      <c r="BX18" s="93"/>
-      <c r="BY18" s="93"/>
-      <c r="BZ18" s="93"/>
-      <c r="CA18" s="93"/>
-      <c r="CB18" s="93"/>
-      <c r="CC18" s="93"/>
-      <c r="CD18" s="93"/>
-      <c r="CE18" s="93"/>
-      <c r="CF18" s="93"/>
-      <c r="CG18" s="93"/>
-      <c r="CH18" s="93"/>
-      <c r="CI18" s="93"/>
-      <c r="CJ18" s="93"/>
-      <c r="CK18" s="93"/>
-      <c r="CL18" s="93"/>
-      <c r="CM18" s="93"/>
-      <c r="CN18" s="93"/>
-      <c r="CO18" s="93"/>
-      <c r="CP18" s="93"/>
-      <c r="CQ18" s="93"/>
+      <c r="BC18" s="88"/>
+      <c r="BD18" s="88"/>
+      <c r="BE18" s="88"/>
+      <c r="BF18" s="88"/>
+      <c r="BG18" s="88"/>
+      <c r="BH18" s="88"/>
+      <c r="BI18" s="88"/>
+      <c r="BJ18" s="88"/>
+      <c r="BK18" s="88"/>
+      <c r="BL18" s="88"/>
+      <c r="BM18" s="88"/>
+      <c r="BN18" s="88"/>
+      <c r="BO18" s="88"/>
+      <c r="BP18" s="88"/>
+      <c r="BQ18" s="88"/>
+      <c r="BR18" s="88"/>
+      <c r="BS18" s="88"/>
+      <c r="BT18" s="88"/>
+      <c r="BU18" s="88"/>
+      <c r="BV18" s="88"/>
+      <c r="BW18" s="88"/>
+      <c r="BX18" s="88"/>
+      <c r="BY18" s="88"/>
+      <c r="BZ18" s="88"/>
+      <c r="CA18" s="88"/>
+      <c r="CB18" s="88"/>
+      <c r="CC18" s="88"/>
+      <c r="CD18" s="88"/>
+      <c r="CE18" s="88"/>
+      <c r="CF18" s="88"/>
+      <c r="CG18" s="88"/>
+      <c r="CH18" s="88"/>
+      <c r="CI18" s="88"/>
+      <c r="CJ18" s="88"/>
+      <c r="CK18" s="88"/>
+      <c r="CL18" s="88"/>
+      <c r="CM18" s="88"/>
+      <c r="CN18" s="88"/>
+      <c r="CO18" s="88"/>
+      <c r="CP18" s="88"/>
+      <c r="CQ18" s="88"/>
     </row>
     <row r="19" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
@@ -16973,47 +16975,47 @@
       <c r="AZ19" s="11"/>
       <c r="BA19" s="84"/>
       <c r="BB19" s="84"/>
-      <c r="BC19" s="93"/>
-      <c r="BD19" s="93"/>
-      <c r="BE19" s="93"/>
-      <c r="BF19" s="93"/>
-      <c r="BG19" s="93"/>
-      <c r="BH19" s="93"/>
-      <c r="BI19" s="93"/>
-      <c r="BJ19" s="93"/>
-      <c r="BK19" s="93"/>
-      <c r="BL19" s="93"/>
-      <c r="BM19" s="93"/>
-      <c r="BN19" s="93"/>
-      <c r="BO19" s="93"/>
-      <c r="BP19" s="93"/>
-      <c r="BQ19" s="93"/>
-      <c r="BR19" s="93"/>
-      <c r="BS19" s="93"/>
-      <c r="BT19" s="93"/>
-      <c r="BU19" s="93"/>
-      <c r="BV19" s="93"/>
-      <c r="BW19" s="93"/>
-      <c r="BX19" s="93"/>
-      <c r="BY19" s="93"/>
-      <c r="BZ19" s="93"/>
-      <c r="CA19" s="93"/>
-      <c r="CB19" s="93"/>
-      <c r="CC19" s="93"/>
-      <c r="CD19" s="93"/>
-      <c r="CE19" s="93"/>
-      <c r="CF19" s="93"/>
-      <c r="CG19" s="93"/>
-      <c r="CH19" s="93"/>
-      <c r="CI19" s="93"/>
-      <c r="CJ19" s="93"/>
-      <c r="CK19" s="93"/>
-      <c r="CL19" s="93"/>
-      <c r="CM19" s="93"/>
-      <c r="CN19" s="93"/>
-      <c r="CO19" s="93"/>
-      <c r="CP19" s="93"/>
-      <c r="CQ19" s="93"/>
+      <c r="BC19" s="88"/>
+      <c r="BD19" s="88"/>
+      <c r="BE19" s="88"/>
+      <c r="BF19" s="88"/>
+      <c r="BG19" s="88"/>
+      <c r="BH19" s="88"/>
+      <c r="BI19" s="88"/>
+      <c r="BJ19" s="88"/>
+      <c r="BK19" s="88"/>
+      <c r="BL19" s="88"/>
+      <c r="BM19" s="88"/>
+      <c r="BN19" s="88"/>
+      <c r="BO19" s="88"/>
+      <c r="BP19" s="88"/>
+      <c r="BQ19" s="88"/>
+      <c r="BR19" s="88"/>
+      <c r="BS19" s="88"/>
+      <c r="BT19" s="88"/>
+      <c r="BU19" s="88"/>
+      <c r="BV19" s="88"/>
+      <c r="BW19" s="88"/>
+      <c r="BX19" s="88"/>
+      <c r="BY19" s="88"/>
+      <c r="BZ19" s="88"/>
+      <c r="CA19" s="88"/>
+      <c r="CB19" s="88"/>
+      <c r="CC19" s="88"/>
+      <c r="CD19" s="88"/>
+      <c r="CE19" s="88"/>
+      <c r="CF19" s="88"/>
+      <c r="CG19" s="88"/>
+      <c r="CH19" s="88"/>
+      <c r="CI19" s="88"/>
+      <c r="CJ19" s="88"/>
+      <c r="CK19" s="88"/>
+      <c r="CL19" s="88"/>
+      <c r="CM19" s="88"/>
+      <c r="CN19" s="88"/>
+      <c r="CO19" s="88"/>
+      <c r="CP19" s="88"/>
+      <c r="CQ19" s="88"/>
     </row>
     <row r="20" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
@@ -17070,47 +17072,47 @@
       <c r="AZ20" s="11"/>
       <c r="BA20" s="84"/>
       <c r="BB20" s="84"/>
-      <c r="BC20" s="93"/>
-      <c r="BD20" s="93"/>
-      <c r="BE20" s="93"/>
-      <c r="BF20" s="93"/>
-      <c r="BG20" s="93"/>
-      <c r="BH20" s="93"/>
-      <c r="BI20" s="93"/>
-      <c r="BJ20" s="93"/>
-      <c r="BK20" s="93"/>
-      <c r="BL20" s="93"/>
-      <c r="BM20" s="93"/>
-      <c r="BN20" s="93"/>
-      <c r="BO20" s="93"/>
-      <c r="BP20" s="93"/>
-      <c r="BQ20" s="93"/>
-      <c r="BR20" s="93"/>
-      <c r="BS20" s="93"/>
-      <c r="BT20" s="93"/>
-      <c r="BU20" s="93"/>
-      <c r="BV20" s="93"/>
-      <c r="BW20" s="93"/>
-      <c r="BX20" s="93"/>
-      <c r="BY20" s="93"/>
-      <c r="BZ20" s="93"/>
-      <c r="CA20" s="93"/>
-      <c r="CB20" s="93"/>
-      <c r="CC20" s="93"/>
-      <c r="CD20" s="93"/>
-      <c r="CE20" s="93"/>
-      <c r="CF20" s="93"/>
-      <c r="CG20" s="93"/>
-      <c r="CH20" s="93"/>
-      <c r="CI20" s="93"/>
-      <c r="CJ20" s="93"/>
-      <c r="CK20" s="93"/>
-      <c r="CL20" s="93"/>
-      <c r="CM20" s="93"/>
-      <c r="CN20" s="93"/>
-      <c r="CO20" s="93"/>
-      <c r="CP20" s="93"/>
-      <c r="CQ20" s="93"/>
+      <c r="BC20" s="88"/>
+      <c r="BD20" s="88"/>
+      <c r="BE20" s="88"/>
+      <c r="BF20" s="88"/>
+      <c r="BG20" s="88"/>
+      <c r="BH20" s="88"/>
+      <c r="BI20" s="88"/>
+      <c r="BJ20" s="88"/>
+      <c r="BK20" s="88"/>
+      <c r="BL20" s="88"/>
+      <c r="BM20" s="88"/>
+      <c r="BN20" s="88"/>
+      <c r="BO20" s="88"/>
+      <c r="BP20" s="88"/>
+      <c r="BQ20" s="88"/>
+      <c r="BR20" s="88"/>
+      <c r="BS20" s="88"/>
+      <c r="BT20" s="88"/>
+      <c r="BU20" s="88"/>
+      <c r="BV20" s="88"/>
+      <c r="BW20" s="88"/>
+      <c r="BX20" s="88"/>
+      <c r="BY20" s="88"/>
+      <c r="BZ20" s="88"/>
+      <c r="CA20" s="88"/>
+      <c r="CB20" s="88"/>
+      <c r="CC20" s="88"/>
+      <c r="CD20" s="88"/>
+      <c r="CE20" s="88"/>
+      <c r="CF20" s="88"/>
+      <c r="CG20" s="88"/>
+      <c r="CH20" s="88"/>
+      <c r="CI20" s="88"/>
+      <c r="CJ20" s="88"/>
+      <c r="CK20" s="88"/>
+      <c r="CL20" s="88"/>
+      <c r="CM20" s="88"/>
+      <c r="CN20" s="88"/>
+      <c r="CO20" s="88"/>
+      <c r="CP20" s="88"/>
+      <c r="CQ20" s="88"/>
     </row>
     <row r="21" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
@@ -17167,47 +17169,47 @@
       <c r="AZ21" s="11"/>
       <c r="BA21" s="84"/>
       <c r="BB21" s="84"/>
-      <c r="BC21" s="93"/>
-      <c r="BD21" s="93"/>
-      <c r="BE21" s="93"/>
-      <c r="BF21" s="93"/>
-      <c r="BG21" s="93"/>
-      <c r="BH21" s="93"/>
-      <c r="BI21" s="93"/>
-      <c r="BJ21" s="93"/>
-      <c r="BK21" s="93"/>
-      <c r="BL21" s="93"/>
-      <c r="BM21" s="93"/>
-      <c r="BN21" s="93"/>
-      <c r="BO21" s="93"/>
-      <c r="BP21" s="93"/>
-      <c r="BQ21" s="93"/>
-      <c r="BR21" s="93"/>
-      <c r="BS21" s="93"/>
-      <c r="BT21" s="93"/>
-      <c r="BU21" s="93"/>
-      <c r="BV21" s="93"/>
-      <c r="BW21" s="93"/>
-      <c r="BX21" s="93"/>
-      <c r="BY21" s="93"/>
-      <c r="BZ21" s="93"/>
-      <c r="CA21" s="93"/>
-      <c r="CB21" s="93"/>
-      <c r="CC21" s="93"/>
-      <c r="CD21" s="93"/>
-      <c r="CE21" s="93"/>
-      <c r="CF21" s="93"/>
-      <c r="CG21" s="93"/>
-      <c r="CH21" s="93"/>
-      <c r="CI21" s="93"/>
-      <c r="CJ21" s="93"/>
-      <c r="CK21" s="93"/>
-      <c r="CL21" s="93"/>
-      <c r="CM21" s="93"/>
-      <c r="CN21" s="93"/>
-      <c r="CO21" s="93"/>
-      <c r="CP21" s="93"/>
-      <c r="CQ21" s="93"/>
+      <c r="BC21" s="88"/>
+      <c r="BD21" s="88"/>
+      <c r="BE21" s="88"/>
+      <c r="BF21" s="88"/>
+      <c r="BG21" s="88"/>
+      <c r="BH21" s="88"/>
+      <c r="BI21" s="88"/>
+      <c r="BJ21" s="88"/>
+      <c r="BK21" s="88"/>
+      <c r="BL21" s="88"/>
+      <c r="BM21" s="88"/>
+      <c r="BN21" s="88"/>
+      <c r="BO21" s="88"/>
+      <c r="BP21" s="88"/>
+      <c r="BQ21" s="88"/>
+      <c r="BR21" s="88"/>
+      <c r="BS21" s="88"/>
+      <c r="BT21" s="88"/>
+      <c r="BU21" s="88"/>
+      <c r="BV21" s="88"/>
+      <c r="BW21" s="88"/>
+      <c r="BX21" s="88"/>
+      <c r="BY21" s="88"/>
+      <c r="BZ21" s="88"/>
+      <c r="CA21" s="88"/>
+      <c r="CB21" s="88"/>
+      <c r="CC21" s="88"/>
+      <c r="CD21" s="88"/>
+      <c r="CE21" s="88"/>
+      <c r="CF21" s="88"/>
+      <c r="CG21" s="88"/>
+      <c r="CH21" s="88"/>
+      <c r="CI21" s="88"/>
+      <c r="CJ21" s="88"/>
+      <c r="CK21" s="88"/>
+      <c r="CL21" s="88"/>
+      <c r="CM21" s="88"/>
+      <c r="CN21" s="88"/>
+      <c r="CO21" s="88"/>
+      <c r="CP21" s="88"/>
+      <c r="CQ21" s="88"/>
     </row>
     <row r="22" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
@@ -17264,47 +17266,47 @@
       <c r="AZ22" s="11"/>
       <c r="BA22" s="84"/>
       <c r="BB22" s="84"/>
-      <c r="BC22" s="93"/>
-      <c r="BD22" s="93"/>
-      <c r="BE22" s="93"/>
-      <c r="BF22" s="93"/>
-      <c r="BG22" s="93"/>
-      <c r="BH22" s="93"/>
-      <c r="BI22" s="93"/>
-      <c r="BJ22" s="93"/>
-      <c r="BK22" s="93"/>
-      <c r="BL22" s="93"/>
-      <c r="BM22" s="93"/>
-      <c r="BN22" s="93"/>
-      <c r="BO22" s="93"/>
-      <c r="BP22" s="93"/>
-      <c r="BQ22" s="93"/>
-      <c r="BR22" s="93"/>
-      <c r="BS22" s="93"/>
-      <c r="BT22" s="93"/>
-      <c r="BU22" s="93"/>
-      <c r="BV22" s="93"/>
-      <c r="BW22" s="93"/>
-      <c r="BX22" s="93"/>
-      <c r="BY22" s="93"/>
-      <c r="BZ22" s="93"/>
-      <c r="CA22" s="93"/>
-      <c r="CB22" s="93"/>
-      <c r="CC22" s="93"/>
-      <c r="CD22" s="93"/>
-      <c r="CE22" s="93"/>
-      <c r="CF22" s="93"/>
-      <c r="CG22" s="93"/>
-      <c r="CH22" s="93"/>
-      <c r="CI22" s="93"/>
-      <c r="CJ22" s="93"/>
-      <c r="CK22" s="93"/>
-      <c r="CL22" s="93"/>
-      <c r="CM22" s="93"/>
-      <c r="CN22" s="93"/>
-      <c r="CO22" s="93"/>
-      <c r="CP22" s="93"/>
-      <c r="CQ22" s="93"/>
+      <c r="BC22" s="88"/>
+      <c r="BD22" s="88"/>
+      <c r="BE22" s="88"/>
+      <c r="BF22" s="88"/>
+      <c r="BG22" s="88"/>
+      <c r="BH22" s="88"/>
+      <c r="BI22" s="88"/>
+      <c r="BJ22" s="88"/>
+      <c r="BK22" s="88"/>
+      <c r="BL22" s="88"/>
+      <c r="BM22" s="88"/>
+      <c r="BN22" s="88"/>
+      <c r="BO22" s="88"/>
+      <c r="BP22" s="88"/>
+      <c r="BQ22" s="88"/>
+      <c r="BR22" s="88"/>
+      <c r="BS22" s="88"/>
+      <c r="BT22" s="88"/>
+      <c r="BU22" s="88"/>
+      <c r="BV22" s="88"/>
+      <c r="BW22" s="88"/>
+      <c r="BX22" s="88"/>
+      <c r="BY22" s="88"/>
+      <c r="BZ22" s="88"/>
+      <c r="CA22" s="88"/>
+      <c r="CB22" s="88"/>
+      <c r="CC22" s="88"/>
+      <c r="CD22" s="88"/>
+      <c r="CE22" s="88"/>
+      <c r="CF22" s="88"/>
+      <c r="CG22" s="88"/>
+      <c r="CH22" s="88"/>
+      <c r="CI22" s="88"/>
+      <c r="CJ22" s="88"/>
+      <c r="CK22" s="88"/>
+      <c r="CL22" s="88"/>
+      <c r="CM22" s="88"/>
+      <c r="CN22" s="88"/>
+      <c r="CO22" s="88"/>
+      <c r="CP22" s="88"/>
+      <c r="CQ22" s="88"/>
     </row>
     <row r="23" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
@@ -17361,47 +17363,47 @@
       <c r="AZ23" s="11"/>
       <c r="BA23" s="84"/>
       <c r="BB23" s="84"/>
-      <c r="BC23" s="93"/>
-      <c r="BD23" s="93"/>
-      <c r="BE23" s="93"/>
-      <c r="BF23" s="93"/>
-      <c r="BG23" s="93"/>
-      <c r="BH23" s="93"/>
-      <c r="BI23" s="93"/>
-      <c r="BJ23" s="93"/>
-      <c r="BK23" s="93"/>
-      <c r="BL23" s="93"/>
-      <c r="BM23" s="93"/>
-      <c r="BN23" s="93"/>
-      <c r="BO23" s="93"/>
-      <c r="BP23" s="93"/>
-      <c r="BQ23" s="93"/>
-      <c r="BR23" s="93"/>
-      <c r="BS23" s="93"/>
-      <c r="BT23" s="93"/>
-      <c r="BU23" s="93"/>
-      <c r="BV23" s="93"/>
-      <c r="BW23" s="93"/>
-      <c r="BX23" s="93"/>
-      <c r="BY23" s="93"/>
-      <c r="BZ23" s="93"/>
-      <c r="CA23" s="93"/>
-      <c r="CB23" s="93"/>
-      <c r="CC23" s="93"/>
-      <c r="CD23" s="93"/>
-      <c r="CE23" s="93"/>
-      <c r="CF23" s="93"/>
-      <c r="CG23" s="93"/>
-      <c r="CH23" s="93"/>
-      <c r="CI23" s="93"/>
-      <c r="CJ23" s="93"/>
-      <c r="CK23" s="93"/>
-      <c r="CL23" s="93"/>
-      <c r="CM23" s="93"/>
-      <c r="CN23" s="93"/>
-      <c r="CO23" s="93"/>
-      <c r="CP23" s="93"/>
-      <c r="CQ23" s="93"/>
+      <c r="BC23" s="88"/>
+      <c r="BD23" s="88"/>
+      <c r="BE23" s="88"/>
+      <c r="BF23" s="88"/>
+      <c r="BG23" s="88"/>
+      <c r="BH23" s="88"/>
+      <c r="BI23" s="88"/>
+      <c r="BJ23" s="88"/>
+      <c r="BK23" s="88"/>
+      <c r="BL23" s="88"/>
+      <c r="BM23" s="88"/>
+      <c r="BN23" s="88"/>
+      <c r="BO23" s="88"/>
+      <c r="BP23" s="88"/>
+      <c r="BQ23" s="88"/>
+      <c r="BR23" s="88"/>
+      <c r="BS23" s="88"/>
+      <c r="BT23" s="88"/>
+      <c r="BU23" s="88"/>
+      <c r="BV23" s="88"/>
+      <c r="BW23" s="88"/>
+      <c r="BX23" s="88"/>
+      <c r="BY23" s="88"/>
+      <c r="BZ23" s="88"/>
+      <c r="CA23" s="88"/>
+      <c r="CB23" s="88"/>
+      <c r="CC23" s="88"/>
+      <c r="CD23" s="88"/>
+      <c r="CE23" s="88"/>
+      <c r="CF23" s="88"/>
+      <c r="CG23" s="88"/>
+      <c r="CH23" s="88"/>
+      <c r="CI23" s="88"/>
+      <c r="CJ23" s="88"/>
+      <c r="CK23" s="88"/>
+      <c r="CL23" s="88"/>
+      <c r="CM23" s="88"/>
+      <c r="CN23" s="88"/>
+      <c r="CO23" s="88"/>
+      <c r="CP23" s="88"/>
+      <c r="CQ23" s="88"/>
     </row>
     <row r="24" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
@@ -17458,47 +17460,47 @@
       <c r="AZ24" s="11"/>
       <c r="BA24" s="84"/>
       <c r="BB24" s="84"/>
-      <c r="BC24" s="93"/>
-      <c r="BD24" s="93"/>
-      <c r="BE24" s="93"/>
-      <c r="BF24" s="93"/>
-      <c r="BG24" s="93"/>
-      <c r="BH24" s="93"/>
-      <c r="BI24" s="93"/>
-      <c r="BJ24" s="93"/>
-      <c r="BK24" s="93"/>
-      <c r="BL24" s="93"/>
-      <c r="BM24" s="93"/>
-      <c r="BN24" s="93"/>
-      <c r="BO24" s="93"/>
-      <c r="BP24" s="93"/>
-      <c r="BQ24" s="93"/>
-      <c r="BR24" s="93"/>
-      <c r="BS24" s="93"/>
-      <c r="BT24" s="93"/>
-      <c r="BU24" s="93"/>
-      <c r="BV24" s="93"/>
-      <c r="BW24" s="93"/>
-      <c r="BX24" s="93"/>
-      <c r="BY24" s="93"/>
-      <c r="BZ24" s="93"/>
-      <c r="CA24" s="93"/>
-      <c r="CB24" s="93"/>
-      <c r="CC24" s="93"/>
-      <c r="CD24" s="93"/>
-      <c r="CE24" s="93"/>
-      <c r="CF24" s="93"/>
-      <c r="CG24" s="93"/>
-      <c r="CH24" s="93"/>
-      <c r="CI24" s="93"/>
-      <c r="CJ24" s="93"/>
-      <c r="CK24" s="93"/>
-      <c r="CL24" s="93"/>
-      <c r="CM24" s="93"/>
-      <c r="CN24" s="93"/>
-      <c r="CO24" s="93"/>
-      <c r="CP24" s="93"/>
-      <c r="CQ24" s="93"/>
+      <c r="BC24" s="88"/>
+      <c r="BD24" s="88"/>
+      <c r="BE24" s="88"/>
+      <c r="BF24" s="88"/>
+      <c r="BG24" s="88"/>
+      <c r="BH24" s="88"/>
+      <c r="BI24" s="88"/>
+      <c r="BJ24" s="88"/>
+      <c r="BK24" s="88"/>
+      <c r="BL24" s="88"/>
+      <c r="BM24" s="88"/>
+      <c r="BN24" s="88"/>
+      <c r="BO24" s="88"/>
+      <c r="BP24" s="88"/>
+      <c r="BQ24" s="88"/>
+      <c r="BR24" s="88"/>
+      <c r="BS24" s="88"/>
+      <c r="BT24" s="88"/>
+      <c r="BU24" s="88"/>
+      <c r="BV24" s="88"/>
+      <c r="BW24" s="88"/>
+      <c r="BX24" s="88"/>
+      <c r="BY24" s="88"/>
+      <c r="BZ24" s="88"/>
+      <c r="CA24" s="88"/>
+      <c r="CB24" s="88"/>
+      <c r="CC24" s="88"/>
+      <c r="CD24" s="88"/>
+      <c r="CE24" s="88"/>
+      <c r="CF24" s="88"/>
+      <c r="CG24" s="88"/>
+      <c r="CH24" s="88"/>
+      <c r="CI24" s="88"/>
+      <c r="CJ24" s="88"/>
+      <c r="CK24" s="88"/>
+      <c r="CL24" s="88"/>
+      <c r="CM24" s="88"/>
+      <c r="CN24" s="88"/>
+      <c r="CO24" s="88"/>
+      <c r="CP24" s="88"/>
+      <c r="CQ24" s="88"/>
     </row>
     <row r="25" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
@@ -17555,47 +17557,47 @@
       <c r="AZ25" s="11"/>
       <c r="BA25" s="84"/>
       <c r="BB25" s="84"/>
-      <c r="BC25" s="93"/>
-      <c r="BD25" s="93"/>
-      <c r="BE25" s="93"/>
-      <c r="BF25" s="93"/>
-      <c r="BG25" s="93"/>
-      <c r="BH25" s="93"/>
-      <c r="BI25" s="93"/>
-      <c r="BJ25" s="93"/>
-      <c r="BK25" s="93"/>
-      <c r="BL25" s="93"/>
-      <c r="BM25" s="93"/>
-      <c r="BN25" s="93"/>
-      <c r="BO25" s="93"/>
-      <c r="BP25" s="93"/>
-      <c r="BQ25" s="93"/>
-      <c r="BR25" s="93"/>
-      <c r="BS25" s="93"/>
-      <c r="BT25" s="93"/>
-      <c r="BU25" s="93"/>
-      <c r="BV25" s="93"/>
-      <c r="BW25" s="93"/>
-      <c r="BX25" s="93"/>
-      <c r="BY25" s="93"/>
-      <c r="BZ25" s="93"/>
-      <c r="CA25" s="93"/>
-      <c r="CB25" s="93"/>
-      <c r="CC25" s="93"/>
-      <c r="CD25" s="93"/>
-      <c r="CE25" s="93"/>
-      <c r="CF25" s="93"/>
-      <c r="CG25" s="93"/>
-      <c r="CH25" s="93"/>
-      <c r="CI25" s="93"/>
-      <c r="CJ25" s="93"/>
-      <c r="CK25" s="93"/>
-      <c r="CL25" s="93"/>
-      <c r="CM25" s="93"/>
-      <c r="CN25" s="93"/>
-      <c r="CO25" s="93"/>
-      <c r="CP25" s="93"/>
-      <c r="CQ25" s="93"/>
+      <c r="BC25" s="88"/>
+      <c r="BD25" s="88"/>
+      <c r="BE25" s="88"/>
+      <c r="BF25" s="88"/>
+      <c r="BG25" s="88"/>
+      <c r="BH25" s="88"/>
+      <c r="BI25" s="88"/>
+      <c r="BJ25" s="88"/>
+      <c r="BK25" s="88"/>
+      <c r="BL25" s="88"/>
+      <c r="BM25" s="88"/>
+      <c r="BN25" s="88"/>
+      <c r="BO25" s="88"/>
+      <c r="BP25" s="88"/>
+      <c r="BQ25" s="88"/>
+      <c r="BR25" s="88"/>
+      <c r="BS25" s="88"/>
+      <c r="BT25" s="88"/>
+      <c r="BU25" s="88"/>
+      <c r="BV25" s="88"/>
+      <c r="BW25" s="88"/>
+      <c r="BX25" s="88"/>
+      <c r="BY25" s="88"/>
+      <c r="BZ25" s="88"/>
+      <c r="CA25" s="88"/>
+      <c r="CB25" s="88"/>
+      <c r="CC25" s="88"/>
+      <c r="CD25" s="88"/>
+      <c r="CE25" s="88"/>
+      <c r="CF25" s="88"/>
+      <c r="CG25" s="88"/>
+      <c r="CH25" s="88"/>
+      <c r="CI25" s="88"/>
+      <c r="CJ25" s="88"/>
+      <c r="CK25" s="88"/>
+      <c r="CL25" s="88"/>
+      <c r="CM25" s="88"/>
+      <c r="CN25" s="88"/>
+      <c r="CO25" s="88"/>
+      <c r="CP25" s="88"/>
+      <c r="CQ25" s="88"/>
     </row>
     <row r="26" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
@@ -17652,47 +17654,47 @@
       <c r="AZ26" s="11"/>
       <c r="BA26" s="84"/>
       <c r="BB26" s="84"/>
-      <c r="BC26" s="93"/>
-      <c r="BD26" s="93"/>
-      <c r="BE26" s="93"/>
-      <c r="BF26" s="93"/>
-      <c r="BG26" s="93"/>
-      <c r="BH26" s="93"/>
-      <c r="BI26" s="93"/>
-      <c r="BJ26" s="93"/>
-      <c r="BK26" s="93"/>
-      <c r="BL26" s="93"/>
-      <c r="BM26" s="93"/>
-      <c r="BN26" s="93"/>
-      <c r="BO26" s="93"/>
-      <c r="BP26" s="93"/>
-      <c r="BQ26" s="93"/>
-      <c r="BR26" s="93"/>
-      <c r="BS26" s="93"/>
-      <c r="BT26" s="93"/>
-      <c r="BU26" s="93"/>
-      <c r="BV26" s="93"/>
-      <c r="BW26" s="93"/>
-      <c r="BX26" s="93"/>
-      <c r="BY26" s="93"/>
-      <c r="BZ26" s="93"/>
-      <c r="CA26" s="93"/>
-      <c r="CB26" s="93"/>
-      <c r="CC26" s="93"/>
-      <c r="CD26" s="93"/>
-      <c r="CE26" s="93"/>
-      <c r="CF26" s="93"/>
-      <c r="CG26" s="93"/>
-      <c r="CH26" s="93"/>
-      <c r="CI26" s="93"/>
-      <c r="CJ26" s="93"/>
-      <c r="CK26" s="93"/>
-      <c r="CL26" s="93"/>
-      <c r="CM26" s="93"/>
-      <c r="CN26" s="93"/>
-      <c r="CO26" s="93"/>
-      <c r="CP26" s="93"/>
-      <c r="CQ26" s="93"/>
+      <c r="BC26" s="88"/>
+      <c r="BD26" s="88"/>
+      <c r="BE26" s="88"/>
+      <c r="BF26" s="88"/>
+      <c r="BG26" s="88"/>
+      <c r="BH26" s="88"/>
+      <c r="BI26" s="88"/>
+      <c r="BJ26" s="88"/>
+      <c r="BK26" s="88"/>
+      <c r="BL26" s="88"/>
+      <c r="BM26" s="88"/>
+      <c r="BN26" s="88"/>
+      <c r="BO26" s="88"/>
+      <c r="BP26" s="88"/>
+      <c r="BQ26" s="88"/>
+      <c r="BR26" s="88"/>
+      <c r="BS26" s="88"/>
+      <c r="BT26" s="88"/>
+      <c r="BU26" s="88"/>
+      <c r="BV26" s="88"/>
+      <c r="BW26" s="88"/>
+      <c r="BX26" s="88"/>
+      <c r="BY26" s="88"/>
+      <c r="BZ26" s="88"/>
+      <c r="CA26" s="88"/>
+      <c r="CB26" s="88"/>
+      <c r="CC26" s="88"/>
+      <c r="CD26" s="88"/>
+      <c r="CE26" s="88"/>
+      <c r="CF26" s="88"/>
+      <c r="CG26" s="88"/>
+      <c r="CH26" s="88"/>
+      <c r="CI26" s="88"/>
+      <c r="CJ26" s="88"/>
+      <c r="CK26" s="88"/>
+      <c r="CL26" s="88"/>
+      <c r="CM26" s="88"/>
+      <c r="CN26" s="88"/>
+      <c r="CO26" s="88"/>
+      <c r="CP26" s="88"/>
+      <c r="CQ26" s="88"/>
     </row>
     <row r="27" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
@@ -17749,47 +17751,47 @@
       <c r="AZ27" s="11"/>
       <c r="BA27" s="84"/>
       <c r="BB27" s="84"/>
-      <c r="BC27" s="93"/>
-      <c r="BD27" s="93"/>
-      <c r="BE27" s="93"/>
-      <c r="BF27" s="93"/>
-      <c r="BG27" s="93"/>
-      <c r="BH27" s="93"/>
-      <c r="BI27" s="93"/>
-      <c r="BJ27" s="93"/>
-      <c r="BK27" s="93"/>
-      <c r="BL27" s="93"/>
-      <c r="BM27" s="93"/>
-      <c r="BN27" s="93"/>
-      <c r="BO27" s="93"/>
-      <c r="BP27" s="93"/>
-      <c r="BQ27" s="93"/>
-      <c r="BR27" s="93"/>
-      <c r="BS27" s="93"/>
-      <c r="BT27" s="93"/>
-      <c r="BU27" s="93"/>
-      <c r="BV27" s="93"/>
-      <c r="BW27" s="93"/>
-      <c r="BX27" s="93"/>
-      <c r="BY27" s="93"/>
-      <c r="BZ27" s="93"/>
-      <c r="CA27" s="93"/>
-      <c r="CB27" s="93"/>
-      <c r="CC27" s="93"/>
-      <c r="CD27" s="93"/>
-      <c r="CE27" s="93"/>
-      <c r="CF27" s="93"/>
-      <c r="CG27" s="93"/>
-      <c r="CH27" s="93"/>
-      <c r="CI27" s="93"/>
-      <c r="CJ27" s="93"/>
-      <c r="CK27" s="93"/>
-      <c r="CL27" s="93"/>
-      <c r="CM27" s="93"/>
-      <c r="CN27" s="93"/>
-      <c r="CO27" s="93"/>
-      <c r="CP27" s="93"/>
-      <c r="CQ27" s="93"/>
+      <c r="BC27" s="88"/>
+      <c r="BD27" s="88"/>
+      <c r="BE27" s="88"/>
+      <c r="BF27" s="88"/>
+      <c r="BG27" s="88"/>
+      <c r="BH27" s="88"/>
+      <c r="BI27" s="88"/>
+      <c r="BJ27" s="88"/>
+      <c r="BK27" s="88"/>
+      <c r="BL27" s="88"/>
+      <c r="BM27" s="88"/>
+      <c r="BN27" s="88"/>
+      <c r="BO27" s="88"/>
+      <c r="BP27" s="88"/>
+      <c r="BQ27" s="88"/>
+      <c r="BR27" s="88"/>
+      <c r="BS27" s="88"/>
+      <c r="BT27" s="88"/>
+      <c r="BU27" s="88"/>
+      <c r="BV27" s="88"/>
+      <c r="BW27" s="88"/>
+      <c r="BX27" s="88"/>
+      <c r="BY27" s="88"/>
+      <c r="BZ27" s="88"/>
+      <c r="CA27" s="88"/>
+      <c r="CB27" s="88"/>
+      <c r="CC27" s="88"/>
+      <c r="CD27" s="88"/>
+      <c r="CE27" s="88"/>
+      <c r="CF27" s="88"/>
+      <c r="CG27" s="88"/>
+      <c r="CH27" s="88"/>
+      <c r="CI27" s="88"/>
+      <c r="CJ27" s="88"/>
+      <c r="CK27" s="88"/>
+      <c r="CL27" s="88"/>
+      <c r="CM27" s="88"/>
+      <c r="CN27" s="88"/>
+      <c r="CO27" s="88"/>
+      <c r="CP27" s="88"/>
+      <c r="CQ27" s="88"/>
     </row>
     <row r="28" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
@@ -17846,47 +17848,47 @@
       <c r="AZ28" s="11"/>
       <c r="BA28" s="84"/>
       <c r="BB28" s="84"/>
-      <c r="BC28" s="93"/>
-      <c r="BD28" s="93"/>
-      <c r="BE28" s="93"/>
-      <c r="BF28" s="93"/>
-      <c r="BG28" s="93"/>
-      <c r="BH28" s="93"/>
-      <c r="BI28" s="93"/>
-      <c r="BJ28" s="93"/>
-      <c r="BK28" s="93"/>
-      <c r="BL28" s="93"/>
-      <c r="BM28" s="93"/>
-      <c r="BN28" s="93"/>
-      <c r="BO28" s="93"/>
-      <c r="BP28" s="93"/>
-      <c r="BQ28" s="93"/>
-      <c r="BR28" s="93"/>
-      <c r="BS28" s="93"/>
-      <c r="BT28" s="93"/>
-      <c r="BU28" s="93"/>
-      <c r="BV28" s="93"/>
-      <c r="BW28" s="93"/>
-      <c r="BX28" s="93"/>
-      <c r="BY28" s="93"/>
-      <c r="BZ28" s="93"/>
-      <c r="CA28" s="93"/>
-      <c r="CB28" s="93"/>
-      <c r="CC28" s="93"/>
-      <c r="CD28" s="93"/>
-      <c r="CE28" s="93"/>
-      <c r="CF28" s="93"/>
-      <c r="CG28" s="93"/>
-      <c r="CH28" s="93"/>
-      <c r="CI28" s="93"/>
-      <c r="CJ28" s="93"/>
-      <c r="CK28" s="93"/>
-      <c r="CL28" s="93"/>
-      <c r="CM28" s="93"/>
-      <c r="CN28" s="93"/>
-      <c r="CO28" s="93"/>
-      <c r="CP28" s="93"/>
-      <c r="CQ28" s="93"/>
+      <c r="BC28" s="88"/>
+      <c r="BD28" s="88"/>
+      <c r="BE28" s="88"/>
+      <c r="BF28" s="88"/>
+      <c r="BG28" s="88"/>
+      <c r="BH28" s="88"/>
+      <c r="BI28" s="88"/>
+      <c r="BJ28" s="88"/>
+      <c r="BK28" s="88"/>
+      <c r="BL28" s="88"/>
+      <c r="BM28" s="88"/>
+      <c r="BN28" s="88"/>
+      <c r="BO28" s="88"/>
+      <c r="BP28" s="88"/>
+      <c r="BQ28" s="88"/>
+      <c r="BR28" s="88"/>
+      <c r="BS28" s="88"/>
+      <c r="BT28" s="88"/>
+      <c r="BU28" s="88"/>
+      <c r="BV28" s="88"/>
+      <c r="BW28" s="88"/>
+      <c r="BX28" s="88"/>
+      <c r="BY28" s="88"/>
+      <c r="BZ28" s="88"/>
+      <c r="CA28" s="88"/>
+      <c r="CB28" s="88"/>
+      <c r="CC28" s="88"/>
+      <c r="CD28" s="88"/>
+      <c r="CE28" s="88"/>
+      <c r="CF28" s="88"/>
+      <c r="CG28" s="88"/>
+      <c r="CH28" s="88"/>
+      <c r="CI28" s="88"/>
+      <c r="CJ28" s="88"/>
+      <c r="CK28" s="88"/>
+      <c r="CL28" s="88"/>
+      <c r="CM28" s="88"/>
+      <c r="CN28" s="88"/>
+      <c r="CO28" s="88"/>
+      <c r="CP28" s="88"/>
+      <c r="CQ28" s="88"/>
     </row>
     <row r="29" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
@@ -17943,47 +17945,47 @@
       <c r="AZ29" s="11"/>
       <c r="BA29" s="84"/>
       <c r="BB29" s="84"/>
-      <c r="BC29" s="93"/>
-      <c r="BD29" s="93"/>
-      <c r="BE29" s="93"/>
-      <c r="BF29" s="93"/>
-      <c r="BG29" s="93"/>
-      <c r="BH29" s="93"/>
-      <c r="BI29" s="93"/>
-      <c r="BJ29" s="93"/>
-      <c r="BK29" s="93"/>
-      <c r="BL29" s="93"/>
-      <c r="BM29" s="93"/>
-      <c r="BN29" s="93"/>
-      <c r="BO29" s="93"/>
-      <c r="BP29" s="93"/>
-      <c r="BQ29" s="93"/>
-      <c r="BR29" s="93"/>
-      <c r="BS29" s="93"/>
-      <c r="BT29" s="93"/>
-      <c r="BU29" s="93"/>
-      <c r="BV29" s="93"/>
-      <c r="BW29" s="93"/>
-      <c r="BX29" s="93"/>
-      <c r="BY29" s="93"/>
-      <c r="BZ29" s="93"/>
-      <c r="CA29" s="93"/>
-      <c r="CB29" s="93"/>
-      <c r="CC29" s="93"/>
-      <c r="CD29" s="93"/>
-      <c r="CE29" s="93"/>
-      <c r="CF29" s="93"/>
-      <c r="CG29" s="93"/>
-      <c r="CH29" s="93"/>
-      <c r="CI29" s="93"/>
-      <c r="CJ29" s="93"/>
-      <c r="CK29" s="93"/>
-      <c r="CL29" s="93"/>
-      <c r="CM29" s="93"/>
-      <c r="CN29" s="93"/>
-      <c r="CO29" s="93"/>
-      <c r="CP29" s="93"/>
-      <c r="CQ29" s="93"/>
+      <c r="BC29" s="88"/>
+      <c r="BD29" s="88"/>
+      <c r="BE29" s="88"/>
+      <c r="BF29" s="88"/>
+      <c r="BG29" s="88"/>
+      <c r="BH29" s="88"/>
+      <c r="BI29" s="88"/>
+      <c r="BJ29" s="88"/>
+      <c r="BK29" s="88"/>
+      <c r="BL29" s="88"/>
+      <c r="BM29" s="88"/>
+      <c r="BN29" s="88"/>
+      <c r="BO29" s="88"/>
+      <c r="BP29" s="88"/>
+      <c r="BQ29" s="88"/>
+      <c r="BR29" s="88"/>
+      <c r="BS29" s="88"/>
+      <c r="BT29" s="88"/>
+      <c r="BU29" s="88"/>
+      <c r="BV29" s="88"/>
+      <c r="BW29" s="88"/>
+      <c r="BX29" s="88"/>
+      <c r="BY29" s="88"/>
+      <c r="BZ29" s="88"/>
+      <c r="CA29" s="88"/>
+      <c r="CB29" s="88"/>
+      <c r="CC29" s="88"/>
+      <c r="CD29" s="88"/>
+      <c r="CE29" s="88"/>
+      <c r="CF29" s="88"/>
+      <c r="CG29" s="88"/>
+      <c r="CH29" s="88"/>
+      <c r="CI29" s="88"/>
+      <c r="CJ29" s="88"/>
+      <c r="CK29" s="88"/>
+      <c r="CL29" s="88"/>
+      <c r="CM29" s="88"/>
+      <c r="CN29" s="88"/>
+      <c r="CO29" s="88"/>
+      <c r="CP29" s="88"/>
+      <c r="CQ29" s="88"/>
     </row>
     <row r="30" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
@@ -18040,47 +18042,47 @@
       <c r="AZ30" s="11"/>
       <c r="BA30" s="84"/>
       <c r="BB30" s="84"/>
-      <c r="BC30" s="93"/>
-      <c r="BD30" s="93"/>
-      <c r="BE30" s="93"/>
-      <c r="BF30" s="93"/>
-      <c r="BG30" s="93"/>
-      <c r="BH30" s="93"/>
-      <c r="BI30" s="93"/>
-      <c r="BJ30" s="93"/>
-      <c r="BK30" s="93"/>
-      <c r="BL30" s="93"/>
-      <c r="BM30" s="93"/>
-      <c r="BN30" s="93"/>
-      <c r="BO30" s="93"/>
-      <c r="BP30" s="93"/>
-      <c r="BQ30" s="93"/>
-      <c r="BR30" s="93"/>
-      <c r="BS30" s="93"/>
-      <c r="BT30" s="93"/>
-      <c r="BU30" s="93"/>
-      <c r="BV30" s="93"/>
-      <c r="BW30" s="93"/>
-      <c r="BX30" s="93"/>
-      <c r="BY30" s="93"/>
-      <c r="BZ30" s="93"/>
-      <c r="CA30" s="93"/>
-      <c r="CB30" s="93"/>
-      <c r="CC30" s="93"/>
-      <c r="CD30" s="93"/>
-      <c r="CE30" s="93"/>
-      <c r="CF30" s="93"/>
-      <c r="CG30" s="93"/>
-      <c r="CH30" s="93"/>
-      <c r="CI30" s="93"/>
-      <c r="CJ30" s="93"/>
-      <c r="CK30" s="93"/>
-      <c r="CL30" s="93"/>
-      <c r="CM30" s="93"/>
-      <c r="CN30" s="93"/>
-      <c r="CO30" s="93"/>
-      <c r="CP30" s="93"/>
-      <c r="CQ30" s="93"/>
+      <c r="BC30" s="88"/>
+      <c r="BD30" s="88"/>
+      <c r="BE30" s="88"/>
+      <c r="BF30" s="88"/>
+      <c r="BG30" s="88"/>
+      <c r="BH30" s="88"/>
+      <c r="BI30" s="88"/>
+      <c r="BJ30" s="88"/>
+      <c r="BK30" s="88"/>
+      <c r="BL30" s="88"/>
+      <c r="BM30" s="88"/>
+      <c r="BN30" s="88"/>
+      <c r="BO30" s="88"/>
+      <c r="BP30" s="88"/>
+      <c r="BQ30" s="88"/>
+      <c r="BR30" s="88"/>
+      <c r="BS30" s="88"/>
+      <c r="BT30" s="88"/>
+      <c r="BU30" s="88"/>
+      <c r="BV30" s="88"/>
+      <c r="BW30" s="88"/>
+      <c r="BX30" s="88"/>
+      <c r="BY30" s="88"/>
+      <c r="BZ30" s="88"/>
+      <c r="CA30" s="88"/>
+      <c r="CB30" s="88"/>
+      <c r="CC30" s="88"/>
+      <c r="CD30" s="88"/>
+      <c r="CE30" s="88"/>
+      <c r="CF30" s="88"/>
+      <c r="CG30" s="88"/>
+      <c r="CH30" s="88"/>
+      <c r="CI30" s="88"/>
+      <c r="CJ30" s="88"/>
+      <c r="CK30" s="88"/>
+      <c r="CL30" s="88"/>
+      <c r="CM30" s="88"/>
+      <c r="CN30" s="88"/>
+      <c r="CO30" s="88"/>
+      <c r="CP30" s="88"/>
+      <c r="CQ30" s="88"/>
     </row>
     <row r="31" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
@@ -18137,47 +18139,47 @@
       <c r="AZ31" s="11"/>
       <c r="BA31" s="84"/>
       <c r="BB31" s="84"/>
-      <c r="BC31" s="93"/>
-      <c r="BD31" s="93"/>
-      <c r="BE31" s="93"/>
-      <c r="BF31" s="93"/>
-      <c r="BG31" s="93"/>
-      <c r="BH31" s="93"/>
-      <c r="BI31" s="93"/>
-      <c r="BJ31" s="93"/>
-      <c r="BK31" s="93"/>
-      <c r="BL31" s="93"/>
-      <c r="BM31" s="93"/>
-      <c r="BN31" s="93"/>
-      <c r="BO31" s="93"/>
-      <c r="BP31" s="93"/>
-      <c r="BQ31" s="93"/>
-      <c r="BR31" s="93"/>
-      <c r="BS31" s="93"/>
-      <c r="BT31" s="93"/>
-      <c r="BU31" s="93"/>
-      <c r="BV31" s="93"/>
-      <c r="BW31" s="93"/>
-      <c r="BX31" s="93"/>
-      <c r="BY31" s="93"/>
-      <c r="BZ31" s="93"/>
-      <c r="CA31" s="93"/>
-      <c r="CB31" s="93"/>
-      <c r="CC31" s="93"/>
-      <c r="CD31" s="93"/>
-      <c r="CE31" s="93"/>
-      <c r="CF31" s="93"/>
-      <c r="CG31" s="93"/>
-      <c r="CH31" s="93"/>
-      <c r="CI31" s="93"/>
-      <c r="CJ31" s="93"/>
-      <c r="CK31" s="93"/>
-      <c r="CL31" s="93"/>
-      <c r="CM31" s="93"/>
-      <c r="CN31" s="93"/>
-      <c r="CO31" s="93"/>
-      <c r="CP31" s="93"/>
-      <c r="CQ31" s="93"/>
+      <c r="BC31" s="88"/>
+      <c r="BD31" s="88"/>
+      <c r="BE31" s="88"/>
+      <c r="BF31" s="88"/>
+      <c r="BG31" s="88"/>
+      <c r="BH31" s="88"/>
+      <c r="BI31" s="88"/>
+      <c r="BJ31" s="88"/>
+      <c r="BK31" s="88"/>
+      <c r="BL31" s="88"/>
+      <c r="BM31" s="88"/>
+      <c r="BN31" s="88"/>
+      <c r="BO31" s="88"/>
+      <c r="BP31" s="88"/>
+      <c r="BQ31" s="88"/>
+      <c r="BR31" s="88"/>
+      <c r="BS31" s="88"/>
+      <c r="BT31" s="88"/>
+      <c r="BU31" s="88"/>
+      <c r="BV31" s="88"/>
+      <c r="BW31" s="88"/>
+      <c r="BX31" s="88"/>
+      <c r="BY31" s="88"/>
+      <c r="BZ31" s="88"/>
+      <c r="CA31" s="88"/>
+      <c r="CB31" s="88"/>
+      <c r="CC31" s="88"/>
+      <c r="CD31" s="88"/>
+      <c r="CE31" s="88"/>
+      <c r="CF31" s="88"/>
+      <c r="CG31" s="88"/>
+      <c r="CH31" s="88"/>
+      <c r="CI31" s="88"/>
+      <c r="CJ31" s="88"/>
+      <c r="CK31" s="88"/>
+      <c r="CL31" s="88"/>
+      <c r="CM31" s="88"/>
+      <c r="CN31" s="88"/>
+      <c r="CO31" s="88"/>
+      <c r="CP31" s="88"/>
+      <c r="CQ31" s="88"/>
     </row>
     <row r="32" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
@@ -18234,47 +18236,47 @@
       <c r="AZ32" s="11"/>
       <c r="BA32" s="84"/>
       <c r="BB32" s="84"/>
-      <c r="BC32" s="93"/>
-      <c r="BD32" s="93"/>
-      <c r="BE32" s="93"/>
-      <c r="BF32" s="93"/>
-      <c r="BG32" s="93"/>
-      <c r="BH32" s="93"/>
-      <c r="BI32" s="93"/>
-      <c r="BJ32" s="93"/>
-      <c r="BK32" s="93"/>
-      <c r="BL32" s="93"/>
-      <c r="BM32" s="93"/>
-      <c r="BN32" s="93"/>
-      <c r="BO32" s="93"/>
-      <c r="BP32" s="93"/>
-      <c r="BQ32" s="93"/>
-      <c r="BR32" s="93"/>
-      <c r="BS32" s="93"/>
-      <c r="BT32" s="93"/>
-      <c r="BU32" s="93"/>
-      <c r="BV32" s="93"/>
-      <c r="BW32" s="93"/>
-      <c r="BX32" s="93"/>
-      <c r="BY32" s="93"/>
-      <c r="BZ32" s="93"/>
-      <c r="CA32" s="93"/>
-      <c r="CB32" s="93"/>
-      <c r="CC32" s="93"/>
-      <c r="CD32" s="93"/>
-      <c r="CE32" s="93"/>
-      <c r="CF32" s="93"/>
-      <c r="CG32" s="93"/>
-      <c r="CH32" s="93"/>
-      <c r="CI32" s="93"/>
-      <c r="CJ32" s="93"/>
-      <c r="CK32" s="93"/>
-      <c r="CL32" s="93"/>
-      <c r="CM32" s="93"/>
-      <c r="CN32" s="93"/>
-      <c r="CO32" s="93"/>
-      <c r="CP32" s="93"/>
-      <c r="CQ32" s="93"/>
+      <c r="BC32" s="88"/>
+      <c r="BD32" s="88"/>
+      <c r="BE32" s="88"/>
+      <c r="BF32" s="88"/>
+      <c r="BG32" s="88"/>
+      <c r="BH32" s="88"/>
+      <c r="BI32" s="88"/>
+      <c r="BJ32" s="88"/>
+      <c r="BK32" s="88"/>
+      <c r="BL32" s="88"/>
+      <c r="BM32" s="88"/>
+      <c r="BN32" s="88"/>
+      <c r="BO32" s="88"/>
+      <c r="BP32" s="88"/>
+      <c r="BQ32" s="88"/>
+      <c r="BR32" s="88"/>
+      <c r="BS32" s="88"/>
+      <c r="BT32" s="88"/>
+      <c r="BU32" s="88"/>
+      <c r="BV32" s="88"/>
+      <c r="BW32" s="88"/>
+      <c r="BX32" s="88"/>
+      <c r="BY32" s="88"/>
+      <c r="BZ32" s="88"/>
+      <c r="CA32" s="88"/>
+      <c r="CB32" s="88"/>
+      <c r="CC32" s="88"/>
+      <c r="CD32" s="88"/>
+      <c r="CE32" s="88"/>
+      <c r="CF32" s="88"/>
+      <c r="CG32" s="88"/>
+      <c r="CH32" s="88"/>
+      <c r="CI32" s="88"/>
+      <c r="CJ32" s="88"/>
+      <c r="CK32" s="88"/>
+      <c r="CL32" s="88"/>
+      <c r="CM32" s="88"/>
+      <c r="CN32" s="88"/>
+      <c r="CO32" s="88"/>
+      <c r="CP32" s="88"/>
+      <c r="CQ32" s="88"/>
     </row>
     <row r="33" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
@@ -18331,47 +18333,47 @@
       <c r="AZ33" s="11"/>
       <c r="BA33" s="84"/>
       <c r="BB33" s="84"/>
-      <c r="BC33" s="93"/>
-      <c r="BD33" s="93"/>
-      <c r="BE33" s="93"/>
-      <c r="BF33" s="93"/>
-      <c r="BG33" s="93"/>
-      <c r="BH33" s="93"/>
-      <c r="BI33" s="93"/>
-      <c r="BJ33" s="93"/>
-      <c r="BK33" s="93"/>
-      <c r="BL33" s="93"/>
-      <c r="BM33" s="93"/>
-      <c r="BN33" s="93"/>
-      <c r="BO33" s="93"/>
-      <c r="BP33" s="93"/>
-      <c r="BQ33" s="93"/>
-      <c r="BR33" s="93"/>
-      <c r="BS33" s="93"/>
-      <c r="BT33" s="93"/>
-      <c r="BU33" s="93"/>
-      <c r="BV33" s="93"/>
-      <c r="BW33" s="93"/>
-      <c r="BX33" s="93"/>
-      <c r="BY33" s="93"/>
-      <c r="BZ33" s="93"/>
-      <c r="CA33" s="93"/>
-      <c r="CB33" s="93"/>
-      <c r="CC33" s="93"/>
-      <c r="CD33" s="93"/>
-      <c r="CE33" s="93"/>
-      <c r="CF33" s="93"/>
-      <c r="CG33" s="93"/>
-      <c r="CH33" s="93"/>
-      <c r="CI33" s="93"/>
-      <c r="CJ33" s="93"/>
-      <c r="CK33" s="93"/>
-      <c r="CL33" s="93"/>
-      <c r="CM33" s="93"/>
-      <c r="CN33" s="93"/>
-      <c r="CO33" s="93"/>
-      <c r="CP33" s="93"/>
-      <c r="CQ33" s="93"/>
+      <c r="BC33" s="88"/>
+      <c r="BD33" s="88"/>
+      <c r="BE33" s="88"/>
+      <c r="BF33" s="88"/>
+      <c r="BG33" s="88"/>
+      <c r="BH33" s="88"/>
+      <c r="BI33" s="88"/>
+      <c r="BJ33" s="88"/>
+      <c r="BK33" s="88"/>
+      <c r="BL33" s="88"/>
+      <c r="BM33" s="88"/>
+      <c r="BN33" s="88"/>
+      <c r="BO33" s="88"/>
+      <c r="BP33" s="88"/>
+      <c r="BQ33" s="88"/>
+      <c r="BR33" s="88"/>
+      <c r="BS33" s="88"/>
+      <c r="BT33" s="88"/>
+      <c r="BU33" s="88"/>
+      <c r="BV33" s="88"/>
+      <c r="BW33" s="88"/>
+      <c r="BX33" s="88"/>
+      <c r="BY33" s="88"/>
+      <c r="BZ33" s="88"/>
+      <c r="CA33" s="88"/>
+      <c r="CB33" s="88"/>
+      <c r="CC33" s="88"/>
+      <c r="CD33" s="88"/>
+      <c r="CE33" s="88"/>
+      <c r="CF33" s="88"/>
+      <c r="CG33" s="88"/>
+      <c r="CH33" s="88"/>
+      <c r="CI33" s="88"/>
+      <c r="CJ33" s="88"/>
+      <c r="CK33" s="88"/>
+      <c r="CL33" s="88"/>
+      <c r="CM33" s="88"/>
+      <c r="CN33" s="88"/>
+      <c r="CO33" s="88"/>
+      <c r="CP33" s="88"/>
+      <c r="CQ33" s="88"/>
     </row>
     <row r="34" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
@@ -18428,47 +18430,47 @@
       <c r="AZ34" s="11"/>
       <c r="BA34" s="84"/>
       <c r="BB34" s="84"/>
-      <c r="BC34" s="93"/>
-      <c r="BD34" s="93"/>
-      <c r="BE34" s="93"/>
-      <c r="BF34" s="93"/>
-      <c r="BG34" s="93"/>
-      <c r="BH34" s="93"/>
-      <c r="BI34" s="93"/>
-      <c r="BJ34" s="93"/>
-      <c r="BK34" s="93"/>
-      <c r="BL34" s="93"/>
-      <c r="BM34" s="93"/>
-      <c r="BN34" s="93"/>
-      <c r="BO34" s="93"/>
-      <c r="BP34" s="93"/>
-      <c r="BQ34" s="93"/>
-      <c r="BR34" s="93"/>
-      <c r="BS34" s="93"/>
-      <c r="BT34" s="93"/>
-      <c r="BU34" s="93"/>
-      <c r="BV34" s="93"/>
-      <c r="BW34" s="93"/>
-      <c r="BX34" s="93"/>
-      <c r="BY34" s="93"/>
-      <c r="BZ34" s="93"/>
-      <c r="CA34" s="93"/>
-      <c r="CB34" s="93"/>
-      <c r="CC34" s="93"/>
-      <c r="CD34" s="93"/>
-      <c r="CE34" s="93"/>
-      <c r="CF34" s="93"/>
-      <c r="CG34" s="93"/>
-      <c r="CH34" s="93"/>
-      <c r="CI34" s="93"/>
-      <c r="CJ34" s="93"/>
-      <c r="CK34" s="93"/>
-      <c r="CL34" s="93"/>
-      <c r="CM34" s="93"/>
-      <c r="CN34" s="93"/>
-      <c r="CO34" s="93"/>
-      <c r="CP34" s="93"/>
-      <c r="CQ34" s="93"/>
+      <c r="BC34" s="88"/>
+      <c r="BD34" s="88"/>
+      <c r="BE34" s="88"/>
+      <c r="BF34" s="88"/>
+      <c r="BG34" s="88"/>
+      <c r="BH34" s="88"/>
+      <c r="BI34" s="88"/>
+      <c r="BJ34" s="88"/>
+      <c r="BK34" s="88"/>
+      <c r="BL34" s="88"/>
+      <c r="BM34" s="88"/>
+      <c r="BN34" s="88"/>
+      <c r="BO34" s="88"/>
+      <c r="BP34" s="88"/>
+      <c r="BQ34" s="88"/>
+      <c r="BR34" s="88"/>
+      <c r="BS34" s="88"/>
+      <c r="BT34" s="88"/>
+      <c r="BU34" s="88"/>
+      <c r="BV34" s="88"/>
+      <c r="BW34" s="88"/>
+      <c r="BX34" s="88"/>
+      <c r="BY34" s="88"/>
+      <c r="BZ34" s="88"/>
+      <c r="CA34" s="88"/>
+      <c r="CB34" s="88"/>
+      <c r="CC34" s="88"/>
+      <c r="CD34" s="88"/>
+      <c r="CE34" s="88"/>
+      <c r="CF34" s="88"/>
+      <c r="CG34" s="88"/>
+      <c r="CH34" s="88"/>
+      <c r="CI34" s="88"/>
+      <c r="CJ34" s="88"/>
+      <c r="CK34" s="88"/>
+      <c r="CL34" s="88"/>
+      <c r="CM34" s="88"/>
+      <c r="CN34" s="88"/>
+      <c r="CO34" s="88"/>
+      <c r="CP34" s="88"/>
+      <c r="CQ34" s="88"/>
     </row>
     <row r="35" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A35" s="9"/>
@@ -18525,47 +18527,47 @@
       <c r="AZ35" s="11"/>
       <c r="BA35" s="84"/>
       <c r="BB35" s="84"/>
-      <c r="BC35" s="93"/>
-      <c r="BD35" s="93"/>
-      <c r="BE35" s="93"/>
-      <c r="BF35" s="93"/>
-      <c r="BG35" s="93"/>
-      <c r="BH35" s="93"/>
-      <c r="BI35" s="93"/>
-      <c r="BJ35" s="93"/>
-      <c r="BK35" s="93"/>
-      <c r="BL35" s="93"/>
-      <c r="BM35" s="93"/>
-      <c r="BN35" s="93"/>
-      <c r="BO35" s="93"/>
-      <c r="BP35" s="93"/>
-      <c r="BQ35" s="93"/>
-      <c r="BR35" s="93"/>
-      <c r="BS35" s="93"/>
-      <c r="BT35" s="93"/>
-      <c r="BU35" s="93"/>
-      <c r="BV35" s="93"/>
-      <c r="BW35" s="93"/>
-      <c r="BX35" s="93"/>
-      <c r="BY35" s="93"/>
-      <c r="BZ35" s="93"/>
-      <c r="CA35" s="93"/>
-      <c r="CB35" s="93"/>
-      <c r="CC35" s="93"/>
-      <c r="CD35" s="93"/>
-      <c r="CE35" s="93"/>
-      <c r="CF35" s="93"/>
-      <c r="CG35" s="93"/>
-      <c r="CH35" s="93"/>
-      <c r="CI35" s="93"/>
-      <c r="CJ35" s="93"/>
-      <c r="CK35" s="93"/>
-      <c r="CL35" s="93"/>
-      <c r="CM35" s="93"/>
-      <c r="CN35" s="93"/>
-      <c r="CO35" s="93"/>
-      <c r="CP35" s="93"/>
-      <c r="CQ35" s="93"/>
+      <c r="BC35" s="88"/>
+      <c r="BD35" s="88"/>
+      <c r="BE35" s="88"/>
+      <c r="BF35" s="88"/>
+      <c r="BG35" s="88"/>
+      <c r="BH35" s="88"/>
+      <c r="BI35" s="88"/>
+      <c r="BJ35" s="88"/>
+      <c r="BK35" s="88"/>
+      <c r="BL35" s="88"/>
+      <c r="BM35" s="88"/>
+      <c r="BN35" s="88"/>
+      <c r="BO35" s="88"/>
+      <c r="BP35" s="88"/>
+      <c r="BQ35" s="88"/>
+      <c r="BR35" s="88"/>
+      <c r="BS35" s="88"/>
+      <c r="BT35" s="88"/>
+      <c r="BU35" s="88"/>
+      <c r="BV35" s="88"/>
+      <c r="BW35" s="88"/>
+      <c r="BX35" s="88"/>
+      <c r="BY35" s="88"/>
+      <c r="BZ35" s="88"/>
+      <c r="CA35" s="88"/>
+      <c r="CB35" s="88"/>
+      <c r="CC35" s="88"/>
+      <c r="CD35" s="88"/>
+      <c r="CE35" s="88"/>
+      <c r="CF35" s="88"/>
+      <c r="CG35" s="88"/>
+      <c r="CH35" s="88"/>
+      <c r="CI35" s="88"/>
+      <c r="CJ35" s="88"/>
+      <c r="CK35" s="88"/>
+      <c r="CL35" s="88"/>
+      <c r="CM35" s="88"/>
+      <c r="CN35" s="88"/>
+      <c r="CO35" s="88"/>
+      <c r="CP35" s="88"/>
+      <c r="CQ35" s="88"/>
     </row>
     <row r="36" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
@@ -18622,47 +18624,47 @@
       <c r="AZ36" s="11"/>
       <c r="BA36" s="84"/>
       <c r="BB36" s="84"/>
-      <c r="BC36" s="93"/>
-      <c r="BD36" s="93"/>
-      <c r="BE36" s="93"/>
-      <c r="BF36" s="93"/>
-      <c r="BG36" s="93"/>
-      <c r="BH36" s="93"/>
-      <c r="BI36" s="93"/>
-      <c r="BJ36" s="93"/>
-      <c r="BK36" s="93"/>
-      <c r="BL36" s="93"/>
-      <c r="BM36" s="93"/>
-      <c r="BN36" s="93"/>
-      <c r="BO36" s="93"/>
-      <c r="BP36" s="93"/>
-      <c r="BQ36" s="93"/>
-      <c r="BR36" s="93"/>
-      <c r="BS36" s="93"/>
-      <c r="BT36" s="93"/>
-      <c r="BU36" s="93"/>
-      <c r="BV36" s="93"/>
-      <c r="BW36" s="93"/>
-      <c r="BX36" s="93"/>
-      <c r="BY36" s="93"/>
-      <c r="BZ36" s="93"/>
-      <c r="CA36" s="93"/>
-      <c r="CB36" s="93"/>
-      <c r="CC36" s="93"/>
-      <c r="CD36" s="93"/>
-      <c r="CE36" s="93"/>
-      <c r="CF36" s="93"/>
-      <c r="CG36" s="93"/>
-      <c r="CH36" s="93"/>
-      <c r="CI36" s="93"/>
-      <c r="CJ36" s="93"/>
-      <c r="CK36" s="93"/>
-      <c r="CL36" s="93"/>
-      <c r="CM36" s="93"/>
-      <c r="CN36" s="93"/>
-      <c r="CO36" s="93"/>
-      <c r="CP36" s="93"/>
-      <c r="CQ36" s="93"/>
+      <c r="BC36" s="88"/>
+      <c r="BD36" s="88"/>
+      <c r="BE36" s="88"/>
+      <c r="BF36" s="88"/>
+      <c r="BG36" s="88"/>
+      <c r="BH36" s="88"/>
+      <c r="BI36" s="88"/>
+      <c r="BJ36" s="88"/>
+      <c r="BK36" s="88"/>
+      <c r="BL36" s="88"/>
+      <c r="BM36" s="88"/>
+      <c r="BN36" s="88"/>
+      <c r="BO36" s="88"/>
+      <c r="BP36" s="88"/>
+      <c r="BQ36" s="88"/>
+      <c r="BR36" s="88"/>
+      <c r="BS36" s="88"/>
+      <c r="BT36" s="88"/>
+      <c r="BU36" s="88"/>
+      <c r="BV36" s="88"/>
+      <c r="BW36" s="88"/>
+      <c r="BX36" s="88"/>
+      <c r="BY36" s="88"/>
+      <c r="BZ36" s="88"/>
+      <c r="CA36" s="88"/>
+      <c r="CB36" s="88"/>
+      <c r="CC36" s="88"/>
+      <c r="CD36" s="88"/>
+      <c r="CE36" s="88"/>
+      <c r="CF36" s="88"/>
+      <c r="CG36" s="88"/>
+      <c r="CH36" s="88"/>
+      <c r="CI36" s="88"/>
+      <c r="CJ36" s="88"/>
+      <c r="CK36" s="88"/>
+      <c r="CL36" s="88"/>
+      <c r="CM36" s="88"/>
+      <c r="CN36" s="88"/>
+      <c r="CO36" s="88"/>
+      <c r="CP36" s="88"/>
+      <c r="CQ36" s="88"/>
     </row>
     <row r="37" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
@@ -18719,47 +18721,47 @@
       <c r="AZ37" s="11"/>
       <c r="BA37" s="84"/>
       <c r="BB37" s="84"/>
-      <c r="BC37" s="93"/>
-      <c r="BD37" s="93"/>
-      <c r="BE37" s="93"/>
-      <c r="BF37" s="93"/>
-      <c r="BG37" s="93"/>
-      <c r="BH37" s="93"/>
-      <c r="BI37" s="93"/>
-      <c r="BJ37" s="93"/>
-      <c r="BK37" s="93"/>
-      <c r="BL37" s="93"/>
-      <c r="BM37" s="93"/>
-      <c r="BN37" s="93"/>
-      <c r="BO37" s="93"/>
-      <c r="BP37" s="93"/>
-      <c r="BQ37" s="93"/>
-      <c r="BR37" s="93"/>
-      <c r="BS37" s="93"/>
-      <c r="BT37" s="93"/>
-      <c r="BU37" s="93"/>
-      <c r="BV37" s="93"/>
-      <c r="BW37" s="93"/>
-      <c r="BX37" s="93"/>
-      <c r="BY37" s="93"/>
-      <c r="BZ37" s="93"/>
-      <c r="CA37" s="93"/>
-      <c r="CB37" s="93"/>
-      <c r="CC37" s="93"/>
-      <c r="CD37" s="93"/>
-      <c r="CE37" s="93"/>
-      <c r="CF37" s="93"/>
-      <c r="CG37" s="93"/>
-      <c r="CH37" s="93"/>
-      <c r="CI37" s="93"/>
-      <c r="CJ37" s="93"/>
-      <c r="CK37" s="93"/>
-      <c r="CL37" s="93"/>
-      <c r="CM37" s="93"/>
-      <c r="CN37" s="93"/>
-      <c r="CO37" s="93"/>
-      <c r="CP37" s="93"/>
-      <c r="CQ37" s="93"/>
+      <c r="BC37" s="88"/>
+      <c r="BD37" s="88"/>
+      <c r="BE37" s="88"/>
+      <c r="BF37" s="88"/>
+      <c r="BG37" s="88"/>
+      <c r="BH37" s="88"/>
+      <c r="BI37" s="88"/>
+      <c r="BJ37" s="88"/>
+      <c r="BK37" s="88"/>
+      <c r="BL37" s="88"/>
+      <c r="BM37" s="88"/>
+      <c r="BN37" s="88"/>
+      <c r="BO37" s="88"/>
+      <c r="BP37" s="88"/>
+      <c r="BQ37" s="88"/>
+      <c r="BR37" s="88"/>
+      <c r="BS37" s="88"/>
+      <c r="BT37" s="88"/>
+      <c r="BU37" s="88"/>
+      <c r="BV37" s="88"/>
+      <c r="BW37" s="88"/>
+      <c r="BX37" s="88"/>
+      <c r="BY37" s="88"/>
+      <c r="BZ37" s="88"/>
+      <c r="CA37" s="88"/>
+      <c r="CB37" s="88"/>
+      <c r="CC37" s="88"/>
+      <c r="CD37" s="88"/>
+      <c r="CE37" s="88"/>
+      <c r="CF37" s="88"/>
+      <c r="CG37" s="88"/>
+      <c r="CH37" s="88"/>
+      <c r="CI37" s="88"/>
+      <c r="CJ37" s="88"/>
+      <c r="CK37" s="88"/>
+      <c r="CL37" s="88"/>
+      <c r="CM37" s="88"/>
+      <c r="CN37" s="88"/>
+      <c r="CO37" s="88"/>
+      <c r="CP37" s="88"/>
+      <c r="CQ37" s="88"/>
     </row>
     <row r="38" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
@@ -18816,47 +18818,47 @@
       <c r="AZ38" s="11"/>
       <c r="BA38" s="84"/>
       <c r="BB38" s="84"/>
-      <c r="BC38" s="93"/>
-      <c r="BD38" s="93"/>
-      <c r="BE38" s="93"/>
-      <c r="BF38" s="93"/>
-      <c r="BG38" s="93"/>
-      <c r="BH38" s="93"/>
-      <c r="BI38" s="93"/>
-      <c r="BJ38" s="93"/>
-      <c r="BK38" s="93"/>
-      <c r="BL38" s="93"/>
-      <c r="BM38" s="93"/>
-      <c r="BN38" s="93"/>
-      <c r="BO38" s="93"/>
-      <c r="BP38" s="93"/>
-      <c r="BQ38" s="93"/>
-      <c r="BR38" s="93"/>
-      <c r="BS38" s="93"/>
-      <c r="BT38" s="93"/>
-      <c r="BU38" s="93"/>
-      <c r="BV38" s="93"/>
-      <c r="BW38" s="93"/>
-      <c r="BX38" s="93"/>
-      <c r="BY38" s="93"/>
-      <c r="BZ38" s="93"/>
-      <c r="CA38" s="93"/>
-      <c r="CB38" s="93"/>
-      <c r="CC38" s="93"/>
-      <c r="CD38" s="93"/>
-      <c r="CE38" s="93"/>
-      <c r="CF38" s="93"/>
-      <c r="CG38" s="93"/>
-      <c r="CH38" s="93"/>
-      <c r="CI38" s="93"/>
-      <c r="CJ38" s="93"/>
-      <c r="CK38" s="93"/>
-      <c r="CL38" s="93"/>
-      <c r="CM38" s="93"/>
-      <c r="CN38" s="93"/>
-      <c r="CO38" s="93"/>
-      <c r="CP38" s="93"/>
-      <c r="CQ38" s="93"/>
+      <c r="BC38" s="88"/>
+      <c r="BD38" s="88"/>
+      <c r="BE38" s="88"/>
+      <c r="BF38" s="88"/>
+      <c r="BG38" s="88"/>
+      <c r="BH38" s="88"/>
+      <c r="BI38" s="88"/>
+      <c r="BJ38" s="88"/>
+      <c r="BK38" s="88"/>
+      <c r="BL38" s="88"/>
+      <c r="BM38" s="88"/>
+      <c r="BN38" s="88"/>
+      <c r="BO38" s="88"/>
+      <c r="BP38" s="88"/>
+      <c r="BQ38" s="88"/>
+      <c r="BR38" s="88"/>
+      <c r="BS38" s="88"/>
+      <c r="BT38" s="88"/>
+      <c r="BU38" s="88"/>
+      <c r="BV38" s="88"/>
+      <c r="BW38" s="88"/>
+      <c r="BX38" s="88"/>
+      <c r="BY38" s="88"/>
+      <c r="BZ38" s="88"/>
+      <c r="CA38" s="88"/>
+      <c r="CB38" s="88"/>
+      <c r="CC38" s="88"/>
+      <c r="CD38" s="88"/>
+      <c r="CE38" s="88"/>
+      <c r="CF38" s="88"/>
+      <c r="CG38" s="88"/>
+      <c r="CH38" s="88"/>
+      <c r="CI38" s="88"/>
+      <c r="CJ38" s="88"/>
+      <c r="CK38" s="88"/>
+      <c r="CL38" s="88"/>
+      <c r="CM38" s="88"/>
+      <c r="CN38" s="88"/>
+      <c r="CO38" s="88"/>
+      <c r="CP38" s="88"/>
+      <c r="CQ38" s="88"/>
     </row>
     <row r="39" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
@@ -18913,47 +18915,47 @@
       <c r="AZ39" s="11"/>
       <c r="BA39" s="84"/>
       <c r="BB39" s="84"/>
-      <c r="BC39" s="93"/>
-      <c r="BD39" s="93"/>
-      <c r="BE39" s="93"/>
-      <c r="BF39" s="93"/>
-      <c r="BG39" s="93"/>
-      <c r="BH39" s="93"/>
-      <c r="BI39" s="93"/>
-      <c r="BJ39" s="93"/>
-      <c r="BK39" s="93"/>
-      <c r="BL39" s="93"/>
-      <c r="BM39" s="93"/>
-      <c r="BN39" s="93"/>
-      <c r="BO39" s="93"/>
-      <c r="BP39" s="93"/>
-      <c r="BQ39" s="93"/>
-      <c r="BR39" s="93"/>
-      <c r="BS39" s="93"/>
-      <c r="BT39" s="93"/>
-      <c r="BU39" s="93"/>
-      <c r="BV39" s="93"/>
-      <c r="BW39" s="93"/>
-      <c r="BX39" s="93"/>
-      <c r="BY39" s="93"/>
-      <c r="BZ39" s="93"/>
-      <c r="CA39" s="93"/>
-      <c r="CB39" s="93"/>
-      <c r="CC39" s="93"/>
-      <c r="CD39" s="93"/>
-      <c r="CE39" s="93"/>
-      <c r="CF39" s="93"/>
-      <c r="CG39" s="93"/>
-      <c r="CH39" s="93"/>
-      <c r="CI39" s="93"/>
-      <c r="CJ39" s="93"/>
-      <c r="CK39" s="93"/>
-      <c r="CL39" s="93"/>
-      <c r="CM39" s="93"/>
-      <c r="CN39" s="93"/>
-      <c r="CO39" s="93"/>
-      <c r="CP39" s="93"/>
-      <c r="CQ39" s="93"/>
+      <c r="BC39" s="88"/>
+      <c r="BD39" s="88"/>
+      <c r="BE39" s="88"/>
+      <c r="BF39" s="88"/>
+      <c r="BG39" s="88"/>
+      <c r="BH39" s="88"/>
+      <c r="BI39" s="88"/>
+      <c r="BJ39" s="88"/>
+      <c r="BK39" s="88"/>
+      <c r="BL39" s="88"/>
+      <c r="BM39" s="88"/>
+      <c r="BN39" s="88"/>
+      <c r="BO39" s="88"/>
+      <c r="BP39" s="88"/>
+      <c r="BQ39" s="88"/>
+      <c r="BR39" s="88"/>
+      <c r="BS39" s="88"/>
+      <c r="BT39" s="88"/>
+      <c r="BU39" s="88"/>
+      <c r="BV39" s="88"/>
+      <c r="BW39" s="88"/>
+      <c r="BX39" s="88"/>
+      <c r="BY39" s="88"/>
+      <c r="BZ39" s="88"/>
+      <c r="CA39" s="88"/>
+      <c r="CB39" s="88"/>
+      <c r="CC39" s="88"/>
+      <c r="CD39" s="88"/>
+      <c r="CE39" s="88"/>
+      <c r="CF39" s="88"/>
+      <c r="CG39" s="88"/>
+      <c r="CH39" s="88"/>
+      <c r="CI39" s="88"/>
+      <c r="CJ39" s="88"/>
+      <c r="CK39" s="88"/>
+      <c r="CL39" s="88"/>
+      <c r="CM39" s="88"/>
+      <c r="CN39" s="88"/>
+      <c r="CO39" s="88"/>
+      <c r="CP39" s="88"/>
+      <c r="CQ39" s="88"/>
     </row>
     <row r="40" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
@@ -19010,47 +19012,47 @@
       <c r="AZ40" s="11"/>
       <c r="BA40" s="84"/>
       <c r="BB40" s="84"/>
-      <c r="BC40" s="93"/>
-      <c r="BD40" s="93"/>
-      <c r="BE40" s="93"/>
-      <c r="BF40" s="93"/>
-      <c r="BG40" s="93"/>
-      <c r="BH40" s="93"/>
-      <c r="BI40" s="93"/>
-      <c r="BJ40" s="93"/>
-      <c r="BK40" s="93"/>
-      <c r="BL40" s="93"/>
-      <c r="BM40" s="93"/>
-      <c r="BN40" s="93"/>
-      <c r="BO40" s="93"/>
-      <c r="BP40" s="93"/>
-      <c r="BQ40" s="93"/>
-      <c r="BR40" s="93"/>
-      <c r="BS40" s="93"/>
-      <c r="BT40" s="93"/>
-      <c r="BU40" s="93"/>
-      <c r="BV40" s="93"/>
-      <c r="BW40" s="93"/>
-      <c r="BX40" s="93"/>
-      <c r="BY40" s="93"/>
-      <c r="BZ40" s="93"/>
-      <c r="CA40" s="93"/>
-      <c r="CB40" s="93"/>
-      <c r="CC40" s="93"/>
-      <c r="CD40" s="93"/>
-      <c r="CE40" s="93"/>
-      <c r="CF40" s="93"/>
-      <c r="CG40" s="93"/>
-      <c r="CH40" s="93"/>
-      <c r="CI40" s="93"/>
-      <c r="CJ40" s="93"/>
-      <c r="CK40" s="93"/>
-      <c r="CL40" s="93"/>
-      <c r="CM40" s="93"/>
-      <c r="CN40" s="93"/>
-      <c r="CO40" s="93"/>
-      <c r="CP40" s="93"/>
-      <c r="CQ40" s="93"/>
+      <c r="BC40" s="88"/>
+      <c r="BD40" s="88"/>
+      <c r="BE40" s="88"/>
+      <c r="BF40" s="88"/>
+      <c r="BG40" s="88"/>
+      <c r="BH40" s="88"/>
+      <c r="BI40" s="88"/>
+      <c r="BJ40" s="88"/>
+      <c r="BK40" s="88"/>
+      <c r="BL40" s="88"/>
+      <c r="BM40" s="88"/>
+      <c r="BN40" s="88"/>
+      <c r="BO40" s="88"/>
+      <c r="BP40" s="88"/>
+      <c r="BQ40" s="88"/>
+      <c r="BR40" s="88"/>
+      <c r="BS40" s="88"/>
+      <c r="BT40" s="88"/>
+      <c r="BU40" s="88"/>
+      <c r="BV40" s="88"/>
+      <c r="BW40" s="88"/>
+      <c r="BX40" s="88"/>
+      <c r="BY40" s="88"/>
+      <c r="BZ40" s="88"/>
+      <c r="CA40" s="88"/>
+      <c r="CB40" s="88"/>
+      <c r="CC40" s="88"/>
+      <c r="CD40" s="88"/>
+      <c r="CE40" s="88"/>
+      <c r="CF40" s="88"/>
+      <c r="CG40" s="88"/>
+      <c r="CH40" s="88"/>
+      <c r="CI40" s="88"/>
+      <c r="CJ40" s="88"/>
+      <c r="CK40" s="88"/>
+      <c r="CL40" s="88"/>
+      <c r="CM40" s="88"/>
+      <c r="CN40" s="88"/>
+      <c r="CO40" s="88"/>
+      <c r="CP40" s="88"/>
+      <c r="CQ40" s="88"/>
     </row>
     <row r="41" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A41" s="9"/>
@@ -19107,47 +19109,47 @@
       <c r="AZ41" s="11"/>
       <c r="BA41" s="84"/>
       <c r="BB41" s="84"/>
-      <c r="BC41" s="93"/>
-      <c r="BD41" s="93"/>
-      <c r="BE41" s="93"/>
-      <c r="BF41" s="93"/>
-      <c r="BG41" s="93"/>
-      <c r="BH41" s="93"/>
-      <c r="BI41" s="93"/>
-      <c r="BJ41" s="93"/>
-      <c r="BK41" s="93"/>
-      <c r="BL41" s="93"/>
-      <c r="BM41" s="93"/>
-      <c r="BN41" s="93"/>
-      <c r="BO41" s="93"/>
-      <c r="BP41" s="93"/>
-      <c r="BQ41" s="93"/>
-      <c r="BR41" s="93"/>
-      <c r="BS41" s="93"/>
-      <c r="BT41" s="93"/>
-      <c r="BU41" s="93"/>
-      <c r="BV41" s="93"/>
-      <c r="BW41" s="93"/>
-      <c r="BX41" s="93"/>
-      <c r="BY41" s="93"/>
-      <c r="BZ41" s="93"/>
-      <c r="CA41" s="93"/>
-      <c r="CB41" s="93"/>
-      <c r="CC41" s="93"/>
-      <c r="CD41" s="93"/>
-      <c r="CE41" s="93"/>
-      <c r="CF41" s="93"/>
-      <c r="CG41" s="93"/>
-      <c r="CH41" s="93"/>
-      <c r="CI41" s="93"/>
-      <c r="CJ41" s="93"/>
-      <c r="CK41" s="93"/>
-      <c r="CL41" s="93"/>
-      <c r="CM41" s="93"/>
-      <c r="CN41" s="93"/>
-      <c r="CO41" s="93"/>
-      <c r="CP41" s="93"/>
-      <c r="CQ41" s="93"/>
+      <c r="BC41" s="88"/>
+      <c r="BD41" s="88"/>
+      <c r="BE41" s="88"/>
+      <c r="BF41" s="88"/>
+      <c r="BG41" s="88"/>
+      <c r="BH41" s="88"/>
+      <c r="BI41" s="88"/>
+      <c r="BJ41" s="88"/>
+      <c r="BK41" s="88"/>
+      <c r="BL41" s="88"/>
+      <c r="BM41" s="88"/>
+      <c r="BN41" s="88"/>
+      <c r="BO41" s="88"/>
+      <c r="BP41" s="88"/>
+      <c r="BQ41" s="88"/>
+      <c r="BR41" s="88"/>
+      <c r="BS41" s="88"/>
+      <c r="BT41" s="88"/>
+      <c r="BU41" s="88"/>
+      <c r="BV41" s="88"/>
+      <c r="BW41" s="88"/>
+      <c r="BX41" s="88"/>
+      <c r="BY41" s="88"/>
+      <c r="BZ41" s="88"/>
+      <c r="CA41" s="88"/>
+      <c r="CB41" s="88"/>
+      <c r="CC41" s="88"/>
+      <c r="CD41" s="88"/>
+      <c r="CE41" s="88"/>
+      <c r="CF41" s="88"/>
+      <c r="CG41" s="88"/>
+      <c r="CH41" s="88"/>
+      <c r="CI41" s="88"/>
+      <c r="CJ41" s="88"/>
+      <c r="CK41" s="88"/>
+      <c r="CL41" s="88"/>
+      <c r="CM41" s="88"/>
+      <c r="CN41" s="88"/>
+      <c r="CO41" s="88"/>
+      <c r="CP41" s="88"/>
+      <c r="CQ41" s="88"/>
     </row>
     <row r="42" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A42" s="9"/>
@@ -19204,47 +19206,47 @@
       <c r="AZ42" s="11"/>
       <c r="BA42" s="84"/>
       <c r="BB42" s="84"/>
-      <c r="BC42" s="93"/>
-      <c r="BD42" s="93"/>
-      <c r="BE42" s="93"/>
-      <c r="BF42" s="93"/>
-      <c r="BG42" s="93"/>
-      <c r="BH42" s="93"/>
-      <c r="BI42" s="93"/>
-      <c r="BJ42" s="93"/>
-      <c r="BK42" s="93"/>
-      <c r="BL42" s="93"/>
-      <c r="BM42" s="93"/>
-      <c r="BN42" s="93"/>
-      <c r="BO42" s="93"/>
-      <c r="BP42" s="93"/>
-      <c r="BQ42" s="93"/>
-      <c r="BR42" s="93"/>
-      <c r="BS42" s="93"/>
-      <c r="BT42" s="93"/>
-      <c r="BU42" s="93"/>
-      <c r="BV42" s="93"/>
-      <c r="BW42" s="93"/>
-      <c r="BX42" s="93"/>
-      <c r="BY42" s="93"/>
-      <c r="BZ42" s="93"/>
-      <c r="CA42" s="93"/>
-      <c r="CB42" s="93"/>
-      <c r="CC42" s="93"/>
-      <c r="CD42" s="93"/>
-      <c r="CE42" s="93"/>
-      <c r="CF42" s="93"/>
-      <c r="CG42" s="93"/>
-      <c r="CH42" s="93"/>
-      <c r="CI42" s="93"/>
-      <c r="CJ42" s="93"/>
-      <c r="CK42" s="93"/>
-      <c r="CL42" s="93"/>
-      <c r="CM42" s="93"/>
-      <c r="CN42" s="93"/>
-      <c r="CO42" s="93"/>
-      <c r="CP42" s="93"/>
-      <c r="CQ42" s="93"/>
+      <c r="BC42" s="88"/>
+      <c r="BD42" s="88"/>
+      <c r="BE42" s="88"/>
+      <c r="BF42" s="88"/>
+      <c r="BG42" s="88"/>
+      <c r="BH42" s="88"/>
+      <c r="BI42" s="88"/>
+      <c r="BJ42" s="88"/>
+      <c r="BK42" s="88"/>
+      <c r="BL42" s="88"/>
+      <c r="BM42" s="88"/>
+      <c r="BN42" s="88"/>
+      <c r="BO42" s="88"/>
+      <c r="BP42" s="88"/>
+      <c r="BQ42" s="88"/>
+      <c r="BR42" s="88"/>
+      <c r="BS42" s="88"/>
+      <c r="BT42" s="88"/>
+      <c r="BU42" s="88"/>
+      <c r="BV42" s="88"/>
+      <c r="BW42" s="88"/>
+      <c r="BX42" s="88"/>
+      <c r="BY42" s="88"/>
+      <c r="BZ42" s="88"/>
+      <c r="CA42" s="88"/>
+      <c r="CB42" s="88"/>
+      <c r="CC42" s="88"/>
+      <c r="CD42" s="88"/>
+      <c r="CE42" s="88"/>
+      <c r="CF42" s="88"/>
+      <c r="CG42" s="88"/>
+      <c r="CH42" s="88"/>
+      <c r="CI42" s="88"/>
+      <c r="CJ42" s="88"/>
+      <c r="CK42" s="88"/>
+      <c r="CL42" s="88"/>
+      <c r="CM42" s="88"/>
+      <c r="CN42" s="88"/>
+      <c r="CO42" s="88"/>
+      <c r="CP42" s="88"/>
+      <c r="CQ42" s="88"/>
     </row>
     <row r="43" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A43" s="9"/>
@@ -19301,47 +19303,47 @@
       <c r="AZ43" s="11"/>
       <c r="BA43" s="84"/>
       <c r="BB43" s="84"/>
-      <c r="BC43" s="93"/>
-      <c r="BD43" s="93"/>
-      <c r="BE43" s="93"/>
-      <c r="BF43" s="93"/>
-      <c r="BG43" s="93"/>
-      <c r="BH43" s="93"/>
-      <c r="BI43" s="93"/>
-      <c r="BJ43" s="93"/>
-      <c r="BK43" s="93"/>
-      <c r="BL43" s="93"/>
-      <c r="BM43" s="93"/>
-      <c r="BN43" s="93"/>
-      <c r="BO43" s="93"/>
-      <c r="BP43" s="93"/>
-      <c r="BQ43" s="93"/>
-      <c r="BR43" s="93"/>
-      <c r="BS43" s="93"/>
-      <c r="BT43" s="93"/>
-      <c r="BU43" s="93"/>
-      <c r="BV43" s="93"/>
-      <c r="BW43" s="93"/>
-      <c r="BX43" s="93"/>
-      <c r="BY43" s="93"/>
-      <c r="BZ43" s="93"/>
-      <c r="CA43" s="93"/>
-      <c r="CB43" s="93"/>
-      <c r="CC43" s="93"/>
-      <c r="CD43" s="93"/>
-      <c r="CE43" s="93"/>
-      <c r="CF43" s="93"/>
-      <c r="CG43" s="93"/>
-      <c r="CH43" s="93"/>
-      <c r="CI43" s="93"/>
-      <c r="CJ43" s="93"/>
-      <c r="CK43" s="93"/>
-      <c r="CL43" s="93"/>
-      <c r="CM43" s="93"/>
-      <c r="CN43" s="93"/>
-      <c r="CO43" s="93"/>
-      <c r="CP43" s="93"/>
-      <c r="CQ43" s="93"/>
+      <c r="BC43" s="88"/>
+      <c r="BD43" s="88"/>
+      <c r="BE43" s="88"/>
+      <c r="BF43" s="88"/>
+      <c r="BG43" s="88"/>
+      <c r="BH43" s="88"/>
+      <c r="BI43" s="88"/>
+      <c r="BJ43" s="88"/>
+      <c r="BK43" s="88"/>
+      <c r="BL43" s="88"/>
+      <c r="BM43" s="88"/>
+      <c r="BN43" s="88"/>
+      <c r="BO43" s="88"/>
+      <c r="BP43" s="88"/>
+      <c r="BQ43" s="88"/>
+      <c r="BR43" s="88"/>
+      <c r="BS43" s="88"/>
+      <c r="BT43" s="88"/>
+      <c r="BU43" s="88"/>
+      <c r="BV43" s="88"/>
+      <c r="BW43" s="88"/>
+      <c r="BX43" s="88"/>
+      <c r="BY43" s="88"/>
+      <c r="BZ43" s="88"/>
+      <c r="CA43" s="88"/>
+      <c r="CB43" s="88"/>
+      <c r="CC43" s="88"/>
+      <c r="CD43" s="88"/>
+      <c r="CE43" s="88"/>
+      <c r="CF43" s="88"/>
+      <c r="CG43" s="88"/>
+      <c r="CH43" s="88"/>
+      <c r="CI43" s="88"/>
+      <c r="CJ43" s="88"/>
+      <c r="CK43" s="88"/>
+      <c r="CL43" s="88"/>
+      <c r="CM43" s="88"/>
+      <c r="CN43" s="88"/>
+      <c r="CO43" s="88"/>
+      <c r="CP43" s="88"/>
+      <c r="CQ43" s="88"/>
     </row>
     <row r="44" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A44" s="9"/>
@@ -19398,47 +19400,47 @@
       <c r="AZ44" s="11"/>
       <c r="BA44" s="84"/>
       <c r="BB44" s="84"/>
-      <c r="BC44" s="93"/>
-      <c r="BD44" s="93"/>
-      <c r="BE44" s="93"/>
-      <c r="BF44" s="93"/>
-      <c r="BG44" s="93"/>
-      <c r="BH44" s="93"/>
-      <c r="BI44" s="93"/>
-      <c r="BJ44" s="93"/>
-      <c r="BK44" s="93"/>
-      <c r="BL44" s="93"/>
-      <c r="BM44" s="93"/>
-      <c r="BN44" s="93"/>
-      <c r="BO44" s="93"/>
-      <c r="BP44" s="93"/>
-      <c r="BQ44" s="93"/>
-      <c r="BR44" s="93"/>
-      <c r="BS44" s="93"/>
-      <c r="BT44" s="93"/>
-      <c r="BU44" s="93"/>
-      <c r="BV44" s="93"/>
-      <c r="BW44" s="93"/>
-      <c r="BX44" s="93"/>
-      <c r="BY44" s="93"/>
-      <c r="BZ44" s="93"/>
-      <c r="CA44" s="93"/>
-      <c r="CB44" s="93"/>
-      <c r="CC44" s="93"/>
-      <c r="CD44" s="93"/>
-      <c r="CE44" s="93"/>
-      <c r="CF44" s="93"/>
-      <c r="CG44" s="93"/>
-      <c r="CH44" s="93"/>
-      <c r="CI44" s="93"/>
-      <c r="CJ44" s="93"/>
-      <c r="CK44" s="93"/>
-      <c r="CL44" s="93"/>
-      <c r="CM44" s="93"/>
-      <c r="CN44" s="93"/>
-      <c r="CO44" s="93"/>
-      <c r="CP44" s="93"/>
-      <c r="CQ44" s="93"/>
+      <c r="BC44" s="88"/>
+      <c r="BD44" s="88"/>
+      <c r="BE44" s="88"/>
+      <c r="BF44" s="88"/>
+      <c r="BG44" s="88"/>
+      <c r="BH44" s="88"/>
+      <c r="BI44" s="88"/>
+      <c r="BJ44" s="88"/>
+      <c r="BK44" s="88"/>
+      <c r="BL44" s="88"/>
+      <c r="BM44" s="88"/>
+      <c r="BN44" s="88"/>
+      <c r="BO44" s="88"/>
+      <c r="BP44" s="88"/>
+      <c r="BQ44" s="88"/>
+      <c r="BR44" s="88"/>
+      <c r="BS44" s="88"/>
+      <c r="BT44" s="88"/>
+      <c r="BU44" s="88"/>
+      <c r="BV44" s="88"/>
+      <c r="BW44" s="88"/>
+      <c r="BX44" s="88"/>
+      <c r="BY44" s="88"/>
+      <c r="BZ44" s="88"/>
+      <c r="CA44" s="88"/>
+      <c r="CB44" s="88"/>
+      <c r="CC44" s="88"/>
+      <c r="CD44" s="88"/>
+      <c r="CE44" s="88"/>
+      <c r="CF44" s="88"/>
+      <c r="CG44" s="88"/>
+      <c r="CH44" s="88"/>
+      <c r="CI44" s="88"/>
+      <c r="CJ44" s="88"/>
+      <c r="CK44" s="88"/>
+      <c r="CL44" s="88"/>
+      <c r="CM44" s="88"/>
+      <c r="CN44" s="88"/>
+      <c r="CO44" s="88"/>
+      <c r="CP44" s="88"/>
+      <c r="CQ44" s="88"/>
     </row>
     <row r="45" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A45" s="9"/>
@@ -20315,7 +20317,7 @@
     </row>
     <row r="54" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A54" s="84"/>
-      <c r="B54" s="99"/>
+      <c r="B54" s="91"/>
       <c r="C54" s="84"/>
       <c r="D54" s="84"/>
       <c r="E54" s="84"/>
@@ -20334,13 +20336,13 @@
       <c r="R54" s="84"/>
       <c r="S54" s="84"/>
       <c r="T54" s="84"/>
-      <c r="U54" s="100" t="s">
+      <c r="U54" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="V54" s="100"/>
-      <c r="W54" s="100"/>
-      <c r="X54" s="100"/>
-      <c r="Y54" s="100"/>
+      <c r="V54" s="102"/>
+      <c r="W54" s="102"/>
+      <c r="X54" s="102"/>
+      <c r="Y54" s="102"/>
       <c r="Z54" s="101">
         <f>SUM(Z7:AA52)</f>
         <v>0</v>
@@ -20466,25 +20468,25 @@
       <c r="AT55" s="4"/>
       <c r="AU55" s="4"/>
       <c r="AV55" s="4"/>
-      <c r="AW55" s="102"/>
-      <c r="AX55" s="103"/>
-      <c r="AY55" s="103"/>
-      <c r="AZ55" s="103"/>
-      <c r="BA55" s="103"/>
-      <c r="BB55" s="103"/>
-      <c r="BC55" s="103"/>
-      <c r="BD55" s="103"/>
-      <c r="BE55" s="103"/>
-      <c r="BF55" s="103"/>
-      <c r="BG55" s="103"/>
-      <c r="BH55" s="103"/>
-      <c r="BI55" s="103"/>
-      <c r="BJ55" s="103"/>
-      <c r="BK55" s="103"/>
-      <c r="BL55" s="103"/>
-      <c r="BM55" s="103"/>
-      <c r="BN55" s="103"/>
-      <c r="BO55" s="103"/>
+      <c r="AW55" s="92"/>
+      <c r="AX55" s="100"/>
+      <c r="AY55" s="100"/>
+      <c r="AZ55" s="100"/>
+      <c r="BA55" s="100"/>
+      <c r="BB55" s="100"/>
+      <c r="BC55" s="100"/>
+      <c r="BD55" s="100"/>
+      <c r="BE55" s="100"/>
+      <c r="BF55" s="100"/>
+      <c r="BG55" s="100"/>
+      <c r="BH55" s="100"/>
+      <c r="BI55" s="100"/>
+      <c r="BJ55" s="100"/>
+      <c r="BK55" s="100"/>
+      <c r="BL55" s="100"/>
+      <c r="BM55" s="100"/>
+      <c r="BN55" s="100"/>
+      <c r="BO55" s="100"/>
       <c r="BP55" s="84"/>
       <c r="BQ55" s="84"/>
       <c r="BR55" s="84"/>
@@ -20516,7 +20518,7 @@
     </row>
     <row r="56" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A56" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B56" s="39" t="s">
         <v>16</v>
@@ -20542,43 +20544,43 @@
       <c r="S56" s="40"/>
       <c r="T56" s="40"/>
       <c r="U56" s="41"/>
-      <c r="V56" s="38" t="s">
+      <c r="V56" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="W56" s="38"/>
-      <c r="X56" s="38" t="s">
+      <c r="W56" s="41"/>
+      <c r="X56" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="38" t="s">
-        <v>45</v>
+      <c r="Y56" s="41"/>
+      <c r="Z56" s="39" t="s">
+        <v>40</v>
       </c>
-      <c r="AA56" s="38"/>
-      <c r="AB56" s="38"/>
-      <c r="AC56" s="38"/>
-      <c r="AD56" s="38"/>
-      <c r="AE56" s="38"/>
-      <c r="AF56" s="38"/>
-      <c r="AG56" s="38" t="s">
-        <v>46</v>
+      <c r="AA56" s="40"/>
+      <c r="AB56" s="40"/>
+      <c r="AC56" s="40"/>
+      <c r="AD56" s="40"/>
+      <c r="AE56" s="40"/>
+      <c r="AF56" s="41"/>
+      <c r="AG56" s="39" t="s">
+        <v>41</v>
       </c>
-      <c r="AH56" s="38"/>
-      <c r="AI56" s="38"/>
-      <c r="AJ56" s="38"/>
-      <c r="AK56" s="38"/>
-      <c r="AL56" s="38"/>
-      <c r="AM56" s="38"/>
-      <c r="AN56" s="38"/>
-      <c r="AO56" s="38" t="s">
-        <v>47</v>
+      <c r="AH56" s="40"/>
+      <c r="AI56" s="40"/>
+      <c r="AJ56" s="40"/>
+      <c r="AK56" s="40"/>
+      <c r="AL56" s="40"/>
+      <c r="AM56" s="40"/>
+      <c r="AN56" s="41"/>
+      <c r="AO56" s="39" t="s">
+        <v>42</v>
       </c>
-      <c r="AP56" s="38"/>
-      <c r="AQ56" s="38"/>
-      <c r="AR56" s="38"/>
-      <c r="AS56" s="38"/>
-      <c r="AT56" s="38"/>
-      <c r="AU56" s="38"/>
-      <c r="AV56" s="38"/>
+      <c r="AP56" s="40"/>
+      <c r="AQ56" s="40"/>
+      <c r="AR56" s="40"/>
+      <c r="AS56" s="40"/>
+      <c r="AT56" s="40"/>
+      <c r="AU56" s="40"/>
+      <c r="AV56" s="41"/>
       <c r="AW56" s="39" t="s">
         <v>1</v>
       </c>
@@ -20655,56 +20657,56 @@
       <c r="S57" s="35"/>
       <c r="T57" s="35"/>
       <c r="U57" s="36"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="30"/>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="30" t="s">
+      <c r="V57" s="31"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="36"/>
+      <c r="Z57" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AA57" s="30"/>
-      <c r="AB57" s="30"/>
-      <c r="AC57" s="30"/>
-      <c r="AD57" s="30"/>
-      <c r="AE57" s="30"/>
-      <c r="AF57" s="30"/>
-      <c r="AG57" s="30"/>
-      <c r="AH57" s="30"/>
-      <c r="AI57" s="30"/>
-      <c r="AJ57" s="30"/>
-      <c r="AK57" s="30"/>
-      <c r="AL57" s="30"/>
-      <c r="AM57" s="30"/>
-      <c r="AN57" s="30"/>
-      <c r="AO57" s="30"/>
-      <c r="AP57" s="30"/>
-      <c r="AQ57" s="30"/>
-      <c r="AR57" s="30"/>
-      <c r="AS57" s="30"/>
-      <c r="AT57" s="30"/>
-      <c r="AU57" s="30"/>
-      <c r="AV57" s="30"/>
-      <c r="AW57" s="104" t="s">
-        <v>34</v>
+      <c r="AA57" s="35"/>
+      <c r="AB57" s="35"/>
+      <c r="AC57" s="35"/>
+      <c r="AD57" s="35"/>
+      <c r="AE57" s="35"/>
+      <c r="AF57" s="36"/>
+      <c r="AG57" s="34"/>
+      <c r="AH57" s="35"/>
+      <c r="AI57" s="35"/>
+      <c r="AJ57" s="35"/>
+      <c r="AK57" s="35"/>
+      <c r="AL57" s="35"/>
+      <c r="AM57" s="35"/>
+      <c r="AN57" s="36"/>
+      <c r="AO57" s="34"/>
+      <c r="AP57" s="35"/>
+      <c r="AQ57" s="35"/>
+      <c r="AR57" s="35"/>
+      <c r="AS57" s="35"/>
+      <c r="AT57" s="35"/>
+      <c r="AU57" s="35"/>
+      <c r="AV57" s="36"/>
+      <c r="AW57" s="93" t="s">
+        <v>47</v>
       </c>
-      <c r="AX57" s="105"/>
-      <c r="AY57" s="105"/>
-      <c r="AZ57" s="105"/>
-      <c r="BA57" s="105"/>
-      <c r="BB57" s="105"/>
-      <c r="BC57" s="105"/>
-      <c r="BD57" s="105"/>
-      <c r="BE57" s="105"/>
-      <c r="BF57" s="105"/>
-      <c r="BG57" s="105"/>
-      <c r="BH57" s="105"/>
-      <c r="BI57" s="105"/>
-      <c r="BJ57" s="105"/>
-      <c r="BK57" s="105"/>
-      <c r="BL57" s="105"/>
-      <c r="BM57" s="105"/>
-      <c r="BN57" s="105"/>
-      <c r="BO57" s="106"/>
+      <c r="AX57" s="94"/>
+      <c r="AY57" s="94"/>
+      <c r="AZ57" s="94"/>
+      <c r="BA57" s="94"/>
+      <c r="BB57" s="94"/>
+      <c r="BC57" s="94"/>
+      <c r="BD57" s="94"/>
+      <c r="BE57" s="94"/>
+      <c r="BF57" s="94"/>
+      <c r="BG57" s="94"/>
+      <c r="BH57" s="94"/>
+      <c r="BI57" s="94"/>
+      <c r="BJ57" s="94"/>
+      <c r="BK57" s="94"/>
+      <c r="BL57" s="94"/>
+      <c r="BM57" s="94"/>
+      <c r="BN57" s="94"/>
+      <c r="BO57" s="95"/>
       <c r="BP57" s="84"/>
       <c r="BQ57" s="84"/>
       <c r="BR57" s="84"/>
@@ -20739,7 +20741,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
@@ -20760,56 +20762,54 @@
       <c r="S58" s="35"/>
       <c r="T58" s="35"/>
       <c r="U58" s="36"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="30"/>
-      <c r="Y58" s="30"/>
-      <c r="Z58" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA58" s="30"/>
-      <c r="AB58" s="30"/>
-      <c r="AC58" s="30"/>
-      <c r="AD58" s="30"/>
-      <c r="AE58" s="30"/>
-      <c r="AF58" s="30"/>
-      <c r="AG58" s="30"/>
-      <c r="AH58" s="30"/>
-      <c r="AI58" s="30"/>
-      <c r="AJ58" s="30"/>
-      <c r="AK58" s="30"/>
-      <c r="AL58" s="30"/>
-      <c r="AM58" s="30"/>
-      <c r="AN58" s="30"/>
-      <c r="AO58" s="30"/>
-      <c r="AP58" s="30"/>
-      <c r="AQ58" s="30"/>
-      <c r="AR58" s="30"/>
-      <c r="AS58" s="30"/>
-      <c r="AT58" s="30"/>
-      <c r="AU58" s="30"/>
-      <c r="AV58" s="30"/>
-      <c r="AW58" s="107" t="s">
+      <c r="V58" s="31"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="36"/>
+      <c r="Z58" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AX58" s="107"/>
-      <c r="AY58" s="107"/>
-      <c r="AZ58" s="107"/>
-      <c r="BA58" s="107"/>
-      <c r="BB58" s="107"/>
-      <c r="BC58" s="107"/>
-      <c r="BD58" s="107"/>
-      <c r="BE58" s="107"/>
-      <c r="BF58" s="107"/>
-      <c r="BG58" s="107"/>
-      <c r="BH58" s="107"/>
-      <c r="BI58" s="107"/>
-      <c r="BJ58" s="107"/>
-      <c r="BK58" s="107"/>
-      <c r="BL58" s="107"/>
-      <c r="BM58" s="107"/>
-      <c r="BN58" s="107"/>
-      <c r="BO58" s="107"/>
+      <c r="AA58" s="35"/>
+      <c r="AB58" s="35"/>
+      <c r="AC58" s="35"/>
+      <c r="AD58" s="35"/>
+      <c r="AE58" s="35"/>
+      <c r="AF58" s="36"/>
+      <c r="AG58" s="34"/>
+      <c r="AH58" s="35"/>
+      <c r="AI58" s="35"/>
+      <c r="AJ58" s="35"/>
+      <c r="AK58" s="35"/>
+      <c r="AL58" s="35"/>
+      <c r="AM58" s="35"/>
+      <c r="AN58" s="36"/>
+      <c r="AO58" s="34"/>
+      <c r="AP58" s="35"/>
+      <c r="AQ58" s="35"/>
+      <c r="AR58" s="35"/>
+      <c r="AS58" s="35"/>
+      <c r="AT58" s="35"/>
+      <c r="AU58" s="35"/>
+      <c r="AV58" s="36"/>
+      <c r="AW58" s="96"/>
+      <c r="AX58" s="96"/>
+      <c r="AY58" s="96"/>
+      <c r="AZ58" s="96"/>
+      <c r="BA58" s="96"/>
+      <c r="BB58" s="96"/>
+      <c r="BC58" s="96"/>
+      <c r="BD58" s="96"/>
+      <c r="BE58" s="96"/>
+      <c r="BF58" s="96"/>
+      <c r="BG58" s="96"/>
+      <c r="BH58" s="96"/>
+      <c r="BI58" s="96"/>
+      <c r="BJ58" s="96"/>
+      <c r="BK58" s="96"/>
+      <c r="BL58" s="96"/>
+      <c r="BM58" s="96"/>
+      <c r="BN58" s="96"/>
+      <c r="BO58" s="96"/>
       <c r="BP58" s="84"/>
       <c r="BQ58" s="84"/>
       <c r="BR58" s="84"/>
@@ -20844,7 +20844,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
@@ -20865,27 +20865,27 @@
       <c r="S59" s="35"/>
       <c r="T59" s="35"/>
       <c r="U59" s="36"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="30"/>
-      <c r="Y59" s="30"/>
-      <c r="Z59" s="30" t="s">
-        <v>48</v>
+      <c r="V59" s="31"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="36"/>
+      <c r="Z59" s="34" t="s">
+        <v>43</v>
       </c>
-      <c r="AA59" s="30"/>
-      <c r="AB59" s="30"/>
-      <c r="AC59" s="30"/>
-      <c r="AD59" s="30"/>
-      <c r="AE59" s="30"/>
-      <c r="AF59" s="30"/>
-      <c r="AG59" s="30"/>
-      <c r="AH59" s="30"/>
-      <c r="AI59" s="30"/>
-      <c r="AJ59" s="30"/>
-      <c r="AK59" s="30"/>
-      <c r="AL59" s="30"/>
-      <c r="AM59" s="30"/>
-      <c r="AN59" s="30"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="35"/>
+      <c r="AD59" s="35"/>
+      <c r="AE59" s="35"/>
+      <c r="AF59" s="36"/>
+      <c r="AG59" s="34"/>
+      <c r="AH59" s="35"/>
+      <c r="AI59" s="35"/>
+      <c r="AJ59" s="35"/>
+      <c r="AK59" s="35"/>
+      <c r="AL59" s="35"/>
+      <c r="AM59" s="35"/>
+      <c r="AN59" s="36"/>
       <c r="AO59" s="34"/>
       <c r="AP59" s="35"/>
       <c r="AQ59" s="35"/>
@@ -20894,27 +20894,25 @@
       <c r="AT59" s="35"/>
       <c r="AU59" s="35"/>
       <c r="AV59" s="36"/>
-      <c r="AW59" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX59" s="105"/>
-      <c r="AY59" s="105"/>
-      <c r="AZ59" s="105"/>
-      <c r="BA59" s="105"/>
-      <c r="BB59" s="105"/>
-      <c r="BC59" s="105"/>
-      <c r="BD59" s="105"/>
-      <c r="BE59" s="105"/>
-      <c r="BF59" s="105"/>
-      <c r="BG59" s="105"/>
-      <c r="BH59" s="105"/>
-      <c r="BI59" s="105"/>
-      <c r="BJ59" s="105"/>
-      <c r="BK59" s="105"/>
-      <c r="BL59" s="105"/>
-      <c r="BM59" s="105"/>
-      <c r="BN59" s="105"/>
-      <c r="BO59" s="106"/>
+      <c r="AW59" s="93"/>
+      <c r="AX59" s="94"/>
+      <c r="AY59" s="94"/>
+      <c r="AZ59" s="94"/>
+      <c r="BA59" s="94"/>
+      <c r="BB59" s="94"/>
+      <c r="BC59" s="94"/>
+      <c r="BD59" s="94"/>
+      <c r="BE59" s="94"/>
+      <c r="BF59" s="94"/>
+      <c r="BG59" s="94"/>
+      <c r="BH59" s="94"/>
+      <c r="BI59" s="94"/>
+      <c r="BJ59" s="94"/>
+      <c r="BK59" s="94"/>
+      <c r="BL59" s="94"/>
+      <c r="BM59" s="94"/>
+      <c r="BN59" s="94"/>
+      <c r="BO59" s="95"/>
       <c r="BP59" s="84"/>
       <c r="BQ59" s="84"/>
       <c r="BR59" s="84"/>
@@ -20949,7 +20947,7 @@
         <v>4</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
@@ -20970,27 +20968,27 @@
       <c r="S60" s="35"/>
       <c r="T60" s="35"/>
       <c r="U60" s="36"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="30"/>
-      <c r="Y60" s="30"/>
-      <c r="Z60" s="30" t="s">
-        <v>49</v>
+      <c r="V60" s="31"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="36"/>
+      <c r="Z60" s="34" t="s">
+        <v>44</v>
       </c>
-      <c r="AA60" s="30"/>
-      <c r="AB60" s="30"/>
-      <c r="AC60" s="30"/>
-      <c r="AD60" s="30"/>
-      <c r="AE60" s="30"/>
-      <c r="AF60" s="30"/>
-      <c r="AG60" s="30"/>
-      <c r="AH60" s="30"/>
-      <c r="AI60" s="30"/>
-      <c r="AJ60" s="30"/>
-      <c r="AK60" s="30"/>
-      <c r="AL60" s="30"/>
-      <c r="AM60" s="30"/>
-      <c r="AN60" s="30"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
+      <c r="AC60" s="35"/>
+      <c r="AD60" s="35"/>
+      <c r="AE60" s="35"/>
+      <c r="AF60" s="36"/>
+      <c r="AG60" s="34"/>
+      <c r="AH60" s="35"/>
+      <c r="AI60" s="35"/>
+      <c r="AJ60" s="35"/>
+      <c r="AK60" s="35"/>
+      <c r="AL60" s="35"/>
+      <c r="AM60" s="35"/>
+      <c r="AN60" s="36"/>
       <c r="AO60" s="34"/>
       <c r="AP60" s="35"/>
       <c r="AQ60" s="35"/>
@@ -20998,28 +20996,26 @@
       <c r="AS60" s="35"/>
       <c r="AT60" s="35"/>
       <c r="AU60" s="35"/>
-      <c r="AV60" s="35"/>
-      <c r="AW60" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="AX60" s="109"/>
-      <c r="AY60" s="109"/>
-      <c r="AZ60" s="109"/>
-      <c r="BA60" s="109"/>
-      <c r="BB60" s="109"/>
-      <c r="BC60" s="109"/>
-      <c r="BD60" s="109"/>
-      <c r="BE60" s="109"/>
-      <c r="BF60" s="109"/>
-      <c r="BG60" s="109"/>
-      <c r="BH60" s="109"/>
-      <c r="BI60" s="109"/>
-      <c r="BJ60" s="109"/>
-      <c r="BK60" s="109"/>
-      <c r="BL60" s="109"/>
-      <c r="BM60" s="109"/>
-      <c r="BN60" s="109"/>
-      <c r="BO60" s="110"/>
+      <c r="AV60" s="36"/>
+      <c r="AW60" s="97"/>
+      <c r="AX60" s="98"/>
+      <c r="AY60" s="98"/>
+      <c r="AZ60" s="98"/>
+      <c r="BA60" s="98"/>
+      <c r="BB60" s="98"/>
+      <c r="BC60" s="98"/>
+      <c r="BD60" s="98"/>
+      <c r="BE60" s="98"/>
+      <c r="BF60" s="98"/>
+      <c r="BG60" s="98"/>
+      <c r="BH60" s="98"/>
+      <c r="BI60" s="98"/>
+      <c r="BJ60" s="98"/>
+      <c r="BK60" s="98"/>
+      <c r="BL60" s="98"/>
+      <c r="BM60" s="98"/>
+      <c r="BN60" s="98"/>
+      <c r="BO60" s="99"/>
       <c r="BP60" s="84"/>
       <c r="BQ60" s="84"/>
       <c r="BR60" s="84"/>
@@ -21054,7 +21050,7 @@
         <v>5</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
@@ -21075,27 +21071,27 @@
       <c r="S61" s="35"/>
       <c r="T61" s="35"/>
       <c r="U61" s="36"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="30"/>
-      <c r="Y61" s="30"/>
-      <c r="Z61" s="30" t="s">
-        <v>50</v>
+      <c r="V61" s="31"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="34"/>
+      <c r="Y61" s="36"/>
+      <c r="Z61" s="34" t="s">
+        <v>45</v>
       </c>
-      <c r="AA61" s="30"/>
-      <c r="AB61" s="30"/>
-      <c r="AC61" s="30"/>
-      <c r="AD61" s="30"/>
-      <c r="AE61" s="30"/>
-      <c r="AF61" s="30"/>
-      <c r="AG61" s="30"/>
-      <c r="AH61" s="30"/>
-      <c r="AI61" s="30"/>
-      <c r="AJ61" s="30"/>
-      <c r="AK61" s="30"/>
-      <c r="AL61" s="30"/>
-      <c r="AM61" s="30"/>
-      <c r="AN61" s="30"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61" s="35"/>
+      <c r="AD61" s="35"/>
+      <c r="AE61" s="35"/>
+      <c r="AF61" s="36"/>
+      <c r="AG61" s="34"/>
+      <c r="AH61" s="35"/>
+      <c r="AI61" s="35"/>
+      <c r="AJ61" s="35"/>
+      <c r="AK61" s="35"/>
+      <c r="AL61" s="35"/>
+      <c r="AM61" s="35"/>
+      <c r="AN61" s="36"/>
       <c r="AO61" s="34"/>
       <c r="AP61" s="35"/>
       <c r="AQ61" s="35"/>
@@ -21103,28 +21099,26 @@
       <c r="AS61" s="35"/>
       <c r="AT61" s="35"/>
       <c r="AU61" s="35"/>
-      <c r="AV61" s="35"/>
-      <c r="AW61" s="107" t="s">
-        <v>43</v>
-      </c>
-      <c r="AX61" s="107"/>
-      <c r="AY61" s="107"/>
-      <c r="AZ61" s="107"/>
-      <c r="BA61" s="107"/>
-      <c r="BB61" s="107"/>
-      <c r="BC61" s="107"/>
-      <c r="BD61" s="107"/>
-      <c r="BE61" s="107"/>
-      <c r="BF61" s="107"/>
-      <c r="BG61" s="107"/>
-      <c r="BH61" s="107"/>
-      <c r="BI61" s="107"/>
-      <c r="BJ61" s="107"/>
-      <c r="BK61" s="107"/>
-      <c r="BL61" s="107"/>
-      <c r="BM61" s="107"/>
-      <c r="BN61" s="107"/>
-      <c r="BO61" s="107"/>
+      <c r="AV61" s="36"/>
+      <c r="AW61" s="96"/>
+      <c r="AX61" s="96"/>
+      <c r="AY61" s="96"/>
+      <c r="AZ61" s="96"/>
+      <c r="BA61" s="96"/>
+      <c r="BB61" s="96"/>
+      <c r="BC61" s="96"/>
+      <c r="BD61" s="96"/>
+      <c r="BE61" s="96"/>
+      <c r="BF61" s="96"/>
+      <c r="BG61" s="96"/>
+      <c r="BH61" s="96"/>
+      <c r="BI61" s="96"/>
+      <c r="BJ61" s="96"/>
+      <c r="BK61" s="96"/>
+      <c r="BL61" s="96"/>
+      <c r="BM61" s="96"/>
+      <c r="BN61" s="96"/>
+      <c r="BO61" s="96"/>
       <c r="BP61" s="84"/>
       <c r="BQ61" s="84"/>
       <c r="BR61" s="84"/>
@@ -21178,25 +21172,25 @@
       <c r="S62" s="35"/>
       <c r="T62" s="35"/>
       <c r="U62" s="36"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="30"/>
-      <c r="Y62" s="30"/>
-      <c r="Z62" s="30"/>
-      <c r="AA62" s="30"/>
-      <c r="AB62" s="30"/>
-      <c r="AC62" s="30"/>
-      <c r="AD62" s="30"/>
-      <c r="AE62" s="30"/>
-      <c r="AF62" s="30"/>
-      <c r="AG62" s="30"/>
-      <c r="AH62" s="30"/>
-      <c r="AI62" s="30"/>
-      <c r="AJ62" s="30"/>
-      <c r="AK62" s="30"/>
-      <c r="AL62" s="30"/>
-      <c r="AM62" s="30"/>
-      <c r="AN62" s="30"/>
+      <c r="V62" s="31"/>
+      <c r="W62" s="33"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="36"/>
+      <c r="Z62" s="34"/>
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
+      <c r="AC62" s="35"/>
+      <c r="AD62" s="35"/>
+      <c r="AE62" s="35"/>
+      <c r="AF62" s="36"/>
+      <c r="AG62" s="34"/>
+      <c r="AH62" s="35"/>
+      <c r="AI62" s="35"/>
+      <c r="AJ62" s="35"/>
+      <c r="AK62" s="35"/>
+      <c r="AL62" s="35"/>
+      <c r="AM62" s="35"/>
+      <c r="AN62" s="36"/>
       <c r="AO62" s="34"/>
       <c r="AP62" s="35"/>
       <c r="AQ62" s="35"/>
@@ -21204,7 +21198,7 @@
       <c r="AS62" s="35"/>
       <c r="AT62" s="35"/>
       <c r="AU62" s="35"/>
-      <c r="AV62" s="35"/>
+      <c r="AV62" s="36"/>
       <c r="AW62" s="37"/>
       <c r="AX62" s="37"/>
       <c r="AY62" s="37"/>
@@ -21277,25 +21271,25 @@
       <c r="S63" s="35"/>
       <c r="T63" s="35"/>
       <c r="U63" s="36"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
-      <c r="X63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="30"/>
-      <c r="AA63" s="30"/>
-      <c r="AB63" s="30"/>
-      <c r="AC63" s="30"/>
-      <c r="AD63" s="30"/>
-      <c r="AE63" s="30"/>
-      <c r="AF63" s="30"/>
-      <c r="AG63" s="30"/>
-      <c r="AH63" s="30"/>
-      <c r="AI63" s="30"/>
-      <c r="AJ63" s="30"/>
-      <c r="AK63" s="30"/>
-      <c r="AL63" s="30"/>
-      <c r="AM63" s="30"/>
-      <c r="AN63" s="30"/>
+      <c r="V63" s="31"/>
+      <c r="W63" s="33"/>
+      <c r="X63" s="34"/>
+      <c r="Y63" s="36"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
+      <c r="AC63" s="35"/>
+      <c r="AD63" s="35"/>
+      <c r="AE63" s="35"/>
+      <c r="AF63" s="36"/>
+      <c r="AG63" s="34"/>
+      <c r="AH63" s="35"/>
+      <c r="AI63" s="35"/>
+      <c r="AJ63" s="35"/>
+      <c r="AK63" s="35"/>
+      <c r="AL63" s="35"/>
+      <c r="AM63" s="35"/>
+      <c r="AN63" s="36"/>
       <c r="AO63" s="34"/>
       <c r="AP63" s="35"/>
       <c r="AQ63" s="35"/>
@@ -21303,7 +21297,7 @@
       <c r="AS63" s="35"/>
       <c r="AT63" s="35"/>
       <c r="AU63" s="35"/>
-      <c r="AV63" s="35"/>
+      <c r="AV63" s="36"/>
       <c r="AW63" s="37"/>
       <c r="AX63" s="37"/>
       <c r="AY63" s="37"/>
@@ -21376,25 +21370,25 @@
       <c r="S64" s="35"/>
       <c r="T64" s="35"/>
       <c r="U64" s="36"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="30"/>
-      <c r="Y64" s="30"/>
-      <c r="Z64" s="30"/>
-      <c r="AA64" s="30"/>
-      <c r="AB64" s="30"/>
-      <c r="AC64" s="30"/>
-      <c r="AD64" s="30"/>
-      <c r="AE64" s="30"/>
-      <c r="AF64" s="30"/>
-      <c r="AG64" s="30"/>
-      <c r="AH64" s="30"/>
-      <c r="AI64" s="30"/>
-      <c r="AJ64" s="30"/>
-      <c r="AK64" s="30"/>
-      <c r="AL64" s="30"/>
-      <c r="AM64" s="30"/>
-      <c r="AN64" s="30"/>
+      <c r="V64" s="31"/>
+      <c r="W64" s="33"/>
+      <c r="X64" s="34"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
+      <c r="AC64" s="35"/>
+      <c r="AD64" s="35"/>
+      <c r="AE64" s="35"/>
+      <c r="AF64" s="36"/>
+      <c r="AG64" s="34"/>
+      <c r="AH64" s="35"/>
+      <c r="AI64" s="35"/>
+      <c r="AJ64" s="35"/>
+      <c r="AK64" s="35"/>
+      <c r="AL64" s="35"/>
+      <c r="AM64" s="35"/>
+      <c r="AN64" s="36"/>
       <c r="AO64" s="34"/>
       <c r="AP64" s="35"/>
       <c r="AQ64" s="35"/>
@@ -21402,7 +21396,7 @@
       <c r="AS64" s="35"/>
       <c r="AT64" s="35"/>
       <c r="AU64" s="35"/>
-      <c r="AV64" s="35"/>
+      <c r="AV64" s="36"/>
       <c r="AW64" s="37"/>
       <c r="AX64" s="37"/>
       <c r="AY64" s="37"/>
@@ -21475,25 +21469,25 @@
       <c r="S65" s="35"/>
       <c r="T65" s="35"/>
       <c r="U65" s="36"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="30"/>
-      <c r="Y65" s="30"/>
-      <c r="Z65" s="30"/>
-      <c r="AA65" s="30"/>
-      <c r="AB65" s="30"/>
-      <c r="AC65" s="30"/>
-      <c r="AD65" s="30"/>
-      <c r="AE65" s="30"/>
-      <c r="AF65" s="30"/>
-      <c r="AG65" s="30"/>
-      <c r="AH65" s="30"/>
-      <c r="AI65" s="30"/>
-      <c r="AJ65" s="30"/>
-      <c r="AK65" s="30"/>
-      <c r="AL65" s="30"/>
-      <c r="AM65" s="30"/>
-      <c r="AN65" s="30"/>
+      <c r="V65" s="31"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="34"/>
+      <c r="Y65" s="36"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="35"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="35"/>
+      <c r="AF65" s="36"/>
+      <c r="AG65" s="34"/>
+      <c r="AH65" s="35"/>
+      <c r="AI65" s="35"/>
+      <c r="AJ65" s="35"/>
+      <c r="AK65" s="35"/>
+      <c r="AL65" s="35"/>
+      <c r="AM65" s="35"/>
+      <c r="AN65" s="36"/>
       <c r="AO65" s="34"/>
       <c r="AP65" s="35"/>
       <c r="AQ65" s="35"/>
@@ -21501,7 +21495,7 @@
       <c r="AS65" s="35"/>
       <c r="AT65" s="35"/>
       <c r="AU65" s="35"/>
-      <c r="AV65" s="35"/>
+      <c r="AV65" s="36"/>
       <c r="AW65" s="37"/>
       <c r="AX65" s="37"/>
       <c r="AY65" s="37"/>
@@ -21574,25 +21568,25 @@
       <c r="S66" s="35"/>
       <c r="T66" s="35"/>
       <c r="U66" s="36"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="30"/>
-      <c r="Y66" s="30"/>
-      <c r="Z66" s="30"/>
-      <c r="AA66" s="30"/>
-      <c r="AB66" s="30"/>
-      <c r="AC66" s="30"/>
-      <c r="AD66" s="30"/>
-      <c r="AE66" s="30"/>
-      <c r="AF66" s="30"/>
-      <c r="AG66" s="30"/>
-      <c r="AH66" s="30"/>
-      <c r="AI66" s="30"/>
-      <c r="AJ66" s="30"/>
-      <c r="AK66" s="30"/>
-      <c r="AL66" s="30"/>
-      <c r="AM66" s="30"/>
-      <c r="AN66" s="30"/>
+      <c r="V66" s="31"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="36"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
+      <c r="AC66" s="35"/>
+      <c r="AD66" s="35"/>
+      <c r="AE66" s="35"/>
+      <c r="AF66" s="36"/>
+      <c r="AG66" s="34"/>
+      <c r="AH66" s="35"/>
+      <c r="AI66" s="35"/>
+      <c r="AJ66" s="35"/>
+      <c r="AK66" s="35"/>
+      <c r="AL66" s="35"/>
+      <c r="AM66" s="35"/>
+      <c r="AN66" s="36"/>
       <c r="AO66" s="34"/>
       <c r="AP66" s="35"/>
       <c r="AQ66" s="35"/>
@@ -21600,7 +21594,7 @@
       <c r="AS66" s="35"/>
       <c r="AT66" s="35"/>
       <c r="AU66" s="35"/>
-      <c r="AV66" s="35"/>
+      <c r="AV66" s="36"/>
       <c r="AW66" s="37"/>
       <c r="AX66" s="37"/>
       <c r="AY66" s="37"/>
@@ -21673,25 +21667,25 @@
       <c r="S67" s="35"/>
       <c r="T67" s="35"/>
       <c r="U67" s="36"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="30"/>
-      <c r="Y67" s="30"/>
-      <c r="Z67" s="30"/>
-      <c r="AA67" s="30"/>
-      <c r="AB67" s="30"/>
-      <c r="AC67" s="30"/>
-      <c r="AD67" s="30"/>
-      <c r="AE67" s="30"/>
-      <c r="AF67" s="30"/>
-      <c r="AG67" s="30"/>
-      <c r="AH67" s="30"/>
-      <c r="AI67" s="30"/>
-      <c r="AJ67" s="30"/>
-      <c r="AK67" s="30"/>
-      <c r="AL67" s="30"/>
-      <c r="AM67" s="30"/>
-      <c r="AN67" s="30"/>
+      <c r="V67" s="31"/>
+      <c r="W67" s="33"/>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="36"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35"/>
+      <c r="AD67" s="35"/>
+      <c r="AE67" s="35"/>
+      <c r="AF67" s="36"/>
+      <c r="AG67" s="34"/>
+      <c r="AH67" s="35"/>
+      <c r="AI67" s="35"/>
+      <c r="AJ67" s="35"/>
+      <c r="AK67" s="35"/>
+      <c r="AL67" s="35"/>
+      <c r="AM67" s="35"/>
+      <c r="AN67" s="36"/>
       <c r="AO67" s="34"/>
       <c r="AP67" s="35"/>
       <c r="AQ67" s="35"/>
@@ -21699,7 +21693,7 @@
       <c r="AS67" s="35"/>
       <c r="AT67" s="35"/>
       <c r="AU67" s="35"/>
-      <c r="AV67" s="35"/>
+      <c r="AV67" s="36"/>
       <c r="AW67" s="37"/>
       <c r="AX67" s="37"/>
       <c r="AY67" s="37"/>
@@ -21772,33 +21766,33 @@
       <c r="S68" s="35"/>
       <c r="T68" s="35"/>
       <c r="U68" s="36"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="30"/>
-      <c r="Y68" s="30"/>
-      <c r="Z68" s="30"/>
-      <c r="AA68" s="30"/>
-      <c r="AB68" s="30"/>
-      <c r="AC68" s="30"/>
-      <c r="AD68" s="30"/>
-      <c r="AE68" s="30"/>
-      <c r="AF68" s="30"/>
-      <c r="AG68" s="30"/>
-      <c r="AH68" s="30"/>
-      <c r="AI68" s="30"/>
-      <c r="AJ68" s="30"/>
-      <c r="AK68" s="30"/>
-      <c r="AL68" s="30"/>
-      <c r="AM68" s="30"/>
-      <c r="AN68" s="30"/>
-      <c r="AO68" s="30"/>
-      <c r="AP68" s="30"/>
-      <c r="AQ68" s="30"/>
-      <c r="AR68" s="30"/>
-      <c r="AS68" s="30"/>
-      <c r="AT68" s="30"/>
-      <c r="AU68" s="30"/>
-      <c r="AV68" s="34"/>
+      <c r="V68" s="31"/>
+      <c r="W68" s="33"/>
+      <c r="X68" s="34"/>
+      <c r="Y68" s="36"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+      <c r="AC68" s="35"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
+      <c r="AF68" s="36"/>
+      <c r="AG68" s="34"/>
+      <c r="AH68" s="35"/>
+      <c r="AI68" s="35"/>
+      <c r="AJ68" s="35"/>
+      <c r="AK68" s="35"/>
+      <c r="AL68" s="35"/>
+      <c r="AM68" s="35"/>
+      <c r="AN68" s="36"/>
+      <c r="AO68" s="34"/>
+      <c r="AP68" s="35"/>
+      <c r="AQ68" s="35"/>
+      <c r="AR68" s="35"/>
+      <c r="AS68" s="35"/>
+      <c r="AT68" s="35"/>
+      <c r="AU68" s="35"/>
+      <c r="AV68" s="36"/>
       <c r="AW68" s="37"/>
       <c r="AX68" s="37"/>
       <c r="AY68" s="37"/>
@@ -21871,52 +21865,52 @@
       <c r="S69" s="35"/>
       <c r="T69" s="35"/>
       <c r="U69" s="36"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="30"/>
-      <c r="Y69" s="30"/>
-      <c r="Z69" s="30"/>
-      <c r="AA69" s="30"/>
-      <c r="AB69" s="30"/>
-      <c r="AC69" s="30"/>
-      <c r="AD69" s="30"/>
-      <c r="AE69" s="30"/>
-      <c r="AF69" s="30"/>
-      <c r="AG69" s="30"/>
-      <c r="AH69" s="30"/>
-      <c r="AI69" s="30"/>
-      <c r="AJ69" s="30"/>
-      <c r="AK69" s="30"/>
-      <c r="AL69" s="30"/>
-      <c r="AM69" s="30"/>
-      <c r="AN69" s="30"/>
-      <c r="AO69" s="30"/>
-      <c r="AP69" s="30"/>
-      <c r="AQ69" s="30"/>
-      <c r="AR69" s="30"/>
-      <c r="AS69" s="30"/>
-      <c r="AT69" s="30"/>
-      <c r="AU69" s="30"/>
-      <c r="AV69" s="34"/>
-      <c r="AW69" s="37"/>
-      <c r="AX69" s="37"/>
-      <c r="AY69" s="37"/>
-      <c r="AZ69" s="37"/>
-      <c r="BA69" s="37"/>
-      <c r="BB69" s="37"/>
-      <c r="BC69" s="37"/>
-      <c r="BD69" s="37"/>
-      <c r="BE69" s="37"/>
-      <c r="BF69" s="37"/>
-      <c r="BG69" s="37"/>
-      <c r="BH69" s="37"/>
-      <c r="BI69" s="37"/>
-      <c r="BJ69" s="37"/>
-      <c r="BK69" s="37"/>
-      <c r="BL69" s="37"/>
-      <c r="BM69" s="37"/>
-      <c r="BN69" s="37"/>
-      <c r="BO69" s="37"/>
+      <c r="V69" s="31"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="34"/>
+      <c r="Y69" s="36"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="35"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="35"/>
+      <c r="AF69" s="36"/>
+      <c r="AG69" s="34"/>
+      <c r="AH69" s="35"/>
+      <c r="AI69" s="35"/>
+      <c r="AJ69" s="35"/>
+      <c r="AK69" s="35"/>
+      <c r="AL69" s="35"/>
+      <c r="AM69" s="35"/>
+      <c r="AN69" s="36"/>
+      <c r="AO69" s="34"/>
+      <c r="AP69" s="35"/>
+      <c r="AQ69" s="35"/>
+      <c r="AR69" s="35"/>
+      <c r="AS69" s="35"/>
+      <c r="AT69" s="35"/>
+      <c r="AU69" s="35"/>
+      <c r="AV69" s="36"/>
+      <c r="AW69" s="31"/>
+      <c r="AX69" s="32"/>
+      <c r="AY69" s="32"/>
+      <c r="AZ69" s="32"/>
+      <c r="BA69" s="32"/>
+      <c r="BB69" s="32"/>
+      <c r="BC69" s="32"/>
+      <c r="BD69" s="32"/>
+      <c r="BE69" s="32"/>
+      <c r="BF69" s="32"/>
+      <c r="BG69" s="32"/>
+      <c r="BH69" s="32"/>
+      <c r="BI69" s="32"/>
+      <c r="BJ69" s="32"/>
+      <c r="BK69" s="32"/>
+      <c r="BL69" s="32"/>
+      <c r="BM69" s="32"/>
+      <c r="BN69" s="32"/>
+      <c r="BO69" s="33"/>
       <c r="BP69" s="84"/>
       <c r="BQ69" s="84"/>
       <c r="BR69" s="84"/>
@@ -21970,52 +21964,52 @@
       <c r="S70" s="35"/>
       <c r="T70" s="35"/>
       <c r="U70" s="36"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="30"/>
-      <c r="Y70" s="30"/>
-      <c r="Z70" s="30"/>
-      <c r="AA70" s="30"/>
-      <c r="AB70" s="30"/>
-      <c r="AC70" s="30"/>
-      <c r="AD70" s="30"/>
-      <c r="AE70" s="30"/>
-      <c r="AF70" s="30"/>
-      <c r="AG70" s="30"/>
-      <c r="AH70" s="30"/>
-      <c r="AI70" s="30"/>
-      <c r="AJ70" s="30"/>
-      <c r="AK70" s="30"/>
-      <c r="AL70" s="30"/>
-      <c r="AM70" s="30"/>
-      <c r="AN70" s="30"/>
-      <c r="AO70" s="30"/>
-      <c r="AP70" s="30"/>
-      <c r="AQ70" s="30"/>
-      <c r="AR70" s="30"/>
-      <c r="AS70" s="30"/>
-      <c r="AT70" s="30"/>
-      <c r="AU70" s="30"/>
-      <c r="AV70" s="34"/>
-      <c r="AW70" s="37"/>
-      <c r="AX70" s="37"/>
-      <c r="AY70" s="37"/>
-      <c r="AZ70" s="37"/>
-      <c r="BA70" s="37"/>
-      <c r="BB70" s="37"/>
-      <c r="BC70" s="37"/>
-      <c r="BD70" s="37"/>
-      <c r="BE70" s="37"/>
-      <c r="BF70" s="37"/>
-      <c r="BG70" s="37"/>
-      <c r="BH70" s="37"/>
-      <c r="BI70" s="37"/>
-      <c r="BJ70" s="37"/>
-      <c r="BK70" s="37"/>
-      <c r="BL70" s="37"/>
-      <c r="BM70" s="37"/>
-      <c r="BN70" s="37"/>
-      <c r="BO70" s="37"/>
+      <c r="V70" s="31"/>
+      <c r="W70" s="33"/>
+      <c r="X70" s="34"/>
+      <c r="Y70" s="36"/>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="35"/>
+      <c r="AB70" s="35"/>
+      <c r="AC70" s="35"/>
+      <c r="AD70" s="35"/>
+      <c r="AE70" s="35"/>
+      <c r="AF70" s="36"/>
+      <c r="AG70" s="34"/>
+      <c r="AH70" s="35"/>
+      <c r="AI70" s="35"/>
+      <c r="AJ70" s="35"/>
+      <c r="AK70" s="35"/>
+      <c r="AL70" s="35"/>
+      <c r="AM70" s="35"/>
+      <c r="AN70" s="36"/>
+      <c r="AO70" s="34"/>
+      <c r="AP70" s="35"/>
+      <c r="AQ70" s="35"/>
+      <c r="AR70" s="35"/>
+      <c r="AS70" s="35"/>
+      <c r="AT70" s="35"/>
+      <c r="AU70" s="35"/>
+      <c r="AV70" s="36"/>
+      <c r="AW70" s="31"/>
+      <c r="AX70" s="32"/>
+      <c r="AY70" s="32"/>
+      <c r="AZ70" s="32"/>
+      <c r="BA70" s="32"/>
+      <c r="BB70" s="32"/>
+      <c r="BC70" s="32"/>
+      <c r="BD70" s="32"/>
+      <c r="BE70" s="32"/>
+      <c r="BF70" s="32"/>
+      <c r="BG70" s="32"/>
+      <c r="BH70" s="32"/>
+      <c r="BI70" s="32"/>
+      <c r="BJ70" s="32"/>
+      <c r="BK70" s="32"/>
+      <c r="BL70" s="32"/>
+      <c r="BM70" s="32"/>
+      <c r="BN70" s="32"/>
+      <c r="BO70" s="33"/>
       <c r="BP70" s="84"/>
       <c r="BQ70" s="84"/>
       <c r="BR70" s="84"/>
@@ -22069,52 +22063,52 @@
       <c r="S71" s="35"/>
       <c r="T71" s="35"/>
       <c r="U71" s="36"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="30"/>
-      <c r="Y71" s="30"/>
-      <c r="Z71" s="30"/>
-      <c r="AA71" s="30"/>
-      <c r="AB71" s="30"/>
-      <c r="AC71" s="30"/>
-      <c r="AD71" s="30"/>
-      <c r="AE71" s="30"/>
-      <c r="AF71" s="30"/>
-      <c r="AG71" s="30"/>
-      <c r="AH71" s="30"/>
-      <c r="AI71" s="30"/>
-      <c r="AJ71" s="30"/>
-      <c r="AK71" s="30"/>
-      <c r="AL71" s="30"/>
-      <c r="AM71" s="30"/>
-      <c r="AN71" s="30"/>
-      <c r="AO71" s="30"/>
-      <c r="AP71" s="30"/>
-      <c r="AQ71" s="30"/>
-      <c r="AR71" s="30"/>
-      <c r="AS71" s="30"/>
-      <c r="AT71" s="30"/>
-      <c r="AU71" s="30"/>
-      <c r="AV71" s="34"/>
-      <c r="AW71" s="37"/>
-      <c r="AX71" s="37"/>
-      <c r="AY71" s="37"/>
-      <c r="AZ71" s="37"/>
-      <c r="BA71" s="37"/>
-      <c r="BB71" s="37"/>
-      <c r="BC71" s="37"/>
-      <c r="BD71" s="37"/>
-      <c r="BE71" s="37"/>
-      <c r="BF71" s="37"/>
-      <c r="BG71" s="37"/>
-      <c r="BH71" s="37"/>
-      <c r="BI71" s="37"/>
-      <c r="BJ71" s="37"/>
-      <c r="BK71" s="37"/>
-      <c r="BL71" s="37"/>
-      <c r="BM71" s="37"/>
-      <c r="BN71" s="37"/>
-      <c r="BO71" s="37"/>
+      <c r="V71" s="31"/>
+      <c r="W71" s="33"/>
+      <c r="X71" s="34"/>
+      <c r="Y71" s="36"/>
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="35"/>
+      <c r="AB71" s="35"/>
+      <c r="AC71" s="35"/>
+      <c r="AD71" s="35"/>
+      <c r="AE71" s="35"/>
+      <c r="AF71" s="36"/>
+      <c r="AG71" s="34"/>
+      <c r="AH71" s="35"/>
+      <c r="AI71" s="35"/>
+      <c r="AJ71" s="35"/>
+      <c r="AK71" s="35"/>
+      <c r="AL71" s="35"/>
+      <c r="AM71" s="35"/>
+      <c r="AN71" s="36"/>
+      <c r="AO71" s="34"/>
+      <c r="AP71" s="35"/>
+      <c r="AQ71" s="35"/>
+      <c r="AR71" s="35"/>
+      <c r="AS71" s="35"/>
+      <c r="AT71" s="35"/>
+      <c r="AU71" s="35"/>
+      <c r="AV71" s="36"/>
+      <c r="AW71" s="31"/>
+      <c r="AX71" s="32"/>
+      <c r="AY71" s="32"/>
+      <c r="AZ71" s="32"/>
+      <c r="BA71" s="32"/>
+      <c r="BB71" s="32"/>
+      <c r="BC71" s="32"/>
+      <c r="BD71" s="32"/>
+      <c r="BE71" s="32"/>
+      <c r="BF71" s="32"/>
+      <c r="BG71" s="32"/>
+      <c r="BH71" s="32"/>
+      <c r="BI71" s="32"/>
+      <c r="BJ71" s="32"/>
+      <c r="BK71" s="32"/>
+      <c r="BL71" s="32"/>
+      <c r="BM71" s="32"/>
+      <c r="BN71" s="32"/>
+      <c r="BO71" s="33"/>
       <c r="BP71" s="84"/>
       <c r="BQ71" s="84"/>
       <c r="BR71" s="84"/>
@@ -22168,52 +22162,52 @@
       <c r="S72" s="35"/>
       <c r="T72" s="35"/>
       <c r="U72" s="36"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="30"/>
-      <c r="Y72" s="30"/>
-      <c r="Z72" s="30"/>
-      <c r="AA72" s="30"/>
-      <c r="AB72" s="30"/>
-      <c r="AC72" s="30"/>
-      <c r="AD72" s="30"/>
-      <c r="AE72" s="30"/>
-      <c r="AF72" s="30"/>
-      <c r="AG72" s="30"/>
-      <c r="AH72" s="30"/>
-      <c r="AI72" s="30"/>
-      <c r="AJ72" s="30"/>
-      <c r="AK72" s="30"/>
-      <c r="AL72" s="30"/>
-      <c r="AM72" s="30"/>
-      <c r="AN72" s="30"/>
-      <c r="AO72" s="30"/>
-      <c r="AP72" s="30"/>
-      <c r="AQ72" s="30"/>
-      <c r="AR72" s="30"/>
-      <c r="AS72" s="30"/>
-      <c r="AT72" s="30"/>
-      <c r="AU72" s="30"/>
-      <c r="AV72" s="34"/>
-      <c r="AW72" s="37"/>
-      <c r="AX72" s="37"/>
-      <c r="AY72" s="37"/>
-      <c r="AZ72" s="37"/>
-      <c r="BA72" s="37"/>
-      <c r="BB72" s="37"/>
-      <c r="BC72" s="37"/>
-      <c r="BD72" s="37"/>
-      <c r="BE72" s="37"/>
-      <c r="BF72" s="37"/>
-      <c r="BG72" s="37"/>
-      <c r="BH72" s="37"/>
-      <c r="BI72" s="37"/>
-      <c r="BJ72" s="37"/>
-      <c r="BK72" s="37"/>
-      <c r="BL72" s="37"/>
-      <c r="BM72" s="37"/>
-      <c r="BN72" s="37"/>
-      <c r="BO72" s="37"/>
+      <c r="V72" s="31"/>
+      <c r="W72" s="33"/>
+      <c r="X72" s="34"/>
+      <c r="Y72" s="36"/>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="35"/>
+      <c r="AB72" s="35"/>
+      <c r="AC72" s="35"/>
+      <c r="AD72" s="35"/>
+      <c r="AE72" s="35"/>
+      <c r="AF72" s="36"/>
+      <c r="AG72" s="34"/>
+      <c r="AH72" s="35"/>
+      <c r="AI72" s="35"/>
+      <c r="AJ72" s="35"/>
+      <c r="AK72" s="35"/>
+      <c r="AL72" s="35"/>
+      <c r="AM72" s="35"/>
+      <c r="AN72" s="36"/>
+      <c r="AO72" s="34"/>
+      <c r="AP72" s="35"/>
+      <c r="AQ72" s="35"/>
+      <c r="AR72" s="35"/>
+      <c r="AS72" s="35"/>
+      <c r="AT72" s="35"/>
+      <c r="AU72" s="35"/>
+      <c r="AV72" s="36"/>
+      <c r="AW72" s="31"/>
+      <c r="AX72" s="32"/>
+      <c r="AY72" s="32"/>
+      <c r="AZ72" s="32"/>
+      <c r="BA72" s="32"/>
+      <c r="BB72" s="32"/>
+      <c r="BC72" s="32"/>
+      <c r="BD72" s="32"/>
+      <c r="BE72" s="32"/>
+      <c r="BF72" s="32"/>
+      <c r="BG72" s="32"/>
+      <c r="BH72" s="32"/>
+      <c r="BI72" s="32"/>
+      <c r="BJ72" s="32"/>
+      <c r="BK72" s="32"/>
+      <c r="BL72" s="32"/>
+      <c r="BM72" s="32"/>
+      <c r="BN72" s="32"/>
+      <c r="BO72" s="33"/>
       <c r="BP72" s="84"/>
       <c r="BQ72" s="84"/>
       <c r="BR72" s="84"/>
@@ -22267,52 +22261,52 @@
       <c r="S73" s="35"/>
       <c r="T73" s="35"/>
       <c r="U73" s="36"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="30"/>
-      <c r="Y73" s="30"/>
-      <c r="Z73" s="30"/>
-      <c r="AA73" s="30"/>
-      <c r="AB73" s="30"/>
-      <c r="AC73" s="30"/>
-      <c r="AD73" s="30"/>
-      <c r="AE73" s="30"/>
-      <c r="AF73" s="30"/>
-      <c r="AG73" s="30"/>
-      <c r="AH73" s="30"/>
-      <c r="AI73" s="30"/>
-      <c r="AJ73" s="30"/>
-      <c r="AK73" s="30"/>
-      <c r="AL73" s="30"/>
-      <c r="AM73" s="30"/>
-      <c r="AN73" s="30"/>
-      <c r="AO73" s="30"/>
-      <c r="AP73" s="30"/>
-      <c r="AQ73" s="30"/>
-      <c r="AR73" s="30"/>
-      <c r="AS73" s="30"/>
-      <c r="AT73" s="30"/>
-      <c r="AU73" s="30"/>
-      <c r="AV73" s="34"/>
-      <c r="AW73" s="37"/>
-      <c r="AX73" s="37"/>
-      <c r="AY73" s="37"/>
-      <c r="AZ73" s="37"/>
-      <c r="BA73" s="37"/>
-      <c r="BB73" s="37"/>
-      <c r="BC73" s="37"/>
-      <c r="BD73" s="37"/>
-      <c r="BE73" s="37"/>
-      <c r="BF73" s="37"/>
-      <c r="BG73" s="37"/>
-      <c r="BH73" s="37"/>
-      <c r="BI73" s="37"/>
-      <c r="BJ73" s="37"/>
-      <c r="BK73" s="37"/>
-      <c r="BL73" s="37"/>
-      <c r="BM73" s="37"/>
-      <c r="BN73" s="37"/>
-      <c r="BO73" s="37"/>
+      <c r="V73" s="31"/>
+      <c r="W73" s="33"/>
+      <c r="X73" s="34"/>
+      <c r="Y73" s="36"/>
+      <c r="Z73" s="34"/>
+      <c r="AA73" s="35"/>
+      <c r="AB73" s="35"/>
+      <c r="AC73" s="35"/>
+      <c r="AD73" s="35"/>
+      <c r="AE73" s="35"/>
+      <c r="AF73" s="36"/>
+      <c r="AG73" s="34"/>
+      <c r="AH73" s="35"/>
+      <c r="AI73" s="35"/>
+      <c r="AJ73" s="35"/>
+      <c r="AK73" s="35"/>
+      <c r="AL73" s="35"/>
+      <c r="AM73" s="35"/>
+      <c r="AN73" s="36"/>
+      <c r="AO73" s="34"/>
+      <c r="AP73" s="35"/>
+      <c r="AQ73" s="35"/>
+      <c r="AR73" s="35"/>
+      <c r="AS73" s="35"/>
+      <c r="AT73" s="35"/>
+      <c r="AU73" s="35"/>
+      <c r="AV73" s="36"/>
+      <c r="AW73" s="31"/>
+      <c r="AX73" s="32"/>
+      <c r="AY73" s="32"/>
+      <c r="AZ73" s="32"/>
+      <c r="BA73" s="32"/>
+      <c r="BB73" s="32"/>
+      <c r="BC73" s="32"/>
+      <c r="BD73" s="32"/>
+      <c r="BE73" s="32"/>
+      <c r="BF73" s="32"/>
+      <c r="BG73" s="32"/>
+      <c r="BH73" s="32"/>
+      <c r="BI73" s="32"/>
+      <c r="BJ73" s="32"/>
+      <c r="BK73" s="32"/>
+      <c r="BL73" s="32"/>
+      <c r="BM73" s="32"/>
+      <c r="BN73" s="32"/>
+      <c r="BO73" s="33"/>
       <c r="BP73" s="84"/>
       <c r="BQ73" s="84"/>
       <c r="BR73" s="84"/>
@@ -22366,52 +22360,52 @@
       <c r="S74" s="35"/>
       <c r="T74" s="35"/>
       <c r="U74" s="36"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="30"/>
-      <c r="Y74" s="30"/>
-      <c r="Z74" s="30"/>
-      <c r="AA74" s="30"/>
-      <c r="AB74" s="30"/>
-      <c r="AC74" s="30"/>
-      <c r="AD74" s="30"/>
-      <c r="AE74" s="30"/>
-      <c r="AF74" s="30"/>
-      <c r="AG74" s="30"/>
-      <c r="AH74" s="30"/>
-      <c r="AI74" s="30"/>
-      <c r="AJ74" s="30"/>
-      <c r="AK74" s="30"/>
-      <c r="AL74" s="30"/>
-      <c r="AM74" s="30"/>
-      <c r="AN74" s="30"/>
-      <c r="AO74" s="30"/>
-      <c r="AP74" s="30"/>
-      <c r="AQ74" s="30"/>
-      <c r="AR74" s="30"/>
-      <c r="AS74" s="30"/>
-      <c r="AT74" s="30"/>
-      <c r="AU74" s="30"/>
-      <c r="AV74" s="34"/>
-      <c r="AW74" s="37"/>
-      <c r="AX74" s="37"/>
-      <c r="AY74" s="37"/>
-      <c r="AZ74" s="37"/>
-      <c r="BA74" s="37"/>
-      <c r="BB74" s="37"/>
-      <c r="BC74" s="37"/>
-      <c r="BD74" s="37"/>
-      <c r="BE74" s="37"/>
-      <c r="BF74" s="37"/>
-      <c r="BG74" s="37"/>
-      <c r="BH74" s="37"/>
-      <c r="BI74" s="37"/>
-      <c r="BJ74" s="37"/>
-      <c r="BK74" s="37"/>
-      <c r="BL74" s="37"/>
-      <c r="BM74" s="37"/>
-      <c r="BN74" s="37"/>
-      <c r="BO74" s="37"/>
+      <c r="V74" s="31"/>
+      <c r="W74" s="33"/>
+      <c r="X74" s="34"/>
+      <c r="Y74" s="36"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="35"/>
+      <c r="AB74" s="35"/>
+      <c r="AC74" s="35"/>
+      <c r="AD74" s="35"/>
+      <c r="AE74" s="35"/>
+      <c r="AF74" s="36"/>
+      <c r="AG74" s="34"/>
+      <c r="AH74" s="35"/>
+      <c r="AI74" s="35"/>
+      <c r="AJ74" s="35"/>
+      <c r="AK74" s="35"/>
+      <c r="AL74" s="35"/>
+      <c r="AM74" s="35"/>
+      <c r="AN74" s="36"/>
+      <c r="AO74" s="34"/>
+      <c r="AP74" s="35"/>
+      <c r="AQ74" s="35"/>
+      <c r="AR74" s="35"/>
+      <c r="AS74" s="35"/>
+      <c r="AT74" s="35"/>
+      <c r="AU74" s="35"/>
+      <c r="AV74" s="36"/>
+      <c r="AW74" s="31"/>
+      <c r="AX74" s="32"/>
+      <c r="AY74" s="32"/>
+      <c r="AZ74" s="32"/>
+      <c r="BA74" s="32"/>
+      <c r="BB74" s="32"/>
+      <c r="BC74" s="32"/>
+      <c r="BD74" s="32"/>
+      <c r="BE74" s="32"/>
+      <c r="BF74" s="32"/>
+      <c r="BG74" s="32"/>
+      <c r="BH74" s="32"/>
+      <c r="BI74" s="32"/>
+      <c r="BJ74" s="32"/>
+      <c r="BK74" s="32"/>
+      <c r="BL74" s="32"/>
+      <c r="BM74" s="32"/>
+      <c r="BN74" s="32"/>
+      <c r="BO74" s="33"/>
       <c r="BP74" s="84"/>
       <c r="BQ74" s="84"/>
       <c r="BR74" s="84"/>
@@ -22465,52 +22459,52 @@
       <c r="S75" s="35"/>
       <c r="T75" s="35"/>
       <c r="U75" s="36"/>
-      <c r="V75" s="37"/>
-      <c r="W75" s="37"/>
-      <c r="X75" s="30"/>
-      <c r="Y75" s="30"/>
-      <c r="Z75" s="30"/>
-      <c r="AA75" s="30"/>
-      <c r="AB75" s="30"/>
-      <c r="AC75" s="30"/>
-      <c r="AD75" s="30"/>
-      <c r="AE75" s="30"/>
-      <c r="AF75" s="30"/>
-      <c r="AG75" s="30"/>
-      <c r="AH75" s="30"/>
-      <c r="AI75" s="30"/>
-      <c r="AJ75" s="30"/>
-      <c r="AK75" s="30"/>
-      <c r="AL75" s="30"/>
-      <c r="AM75" s="30"/>
-      <c r="AN75" s="30"/>
-      <c r="AO75" s="30"/>
-      <c r="AP75" s="30"/>
-      <c r="AQ75" s="30"/>
-      <c r="AR75" s="30"/>
-      <c r="AS75" s="30"/>
-      <c r="AT75" s="30"/>
-      <c r="AU75" s="30"/>
-      <c r="AV75" s="34"/>
-      <c r="AW75" s="37"/>
-      <c r="AX75" s="37"/>
-      <c r="AY75" s="37"/>
-      <c r="AZ75" s="37"/>
-      <c r="BA75" s="37"/>
-      <c r="BB75" s="37"/>
-      <c r="BC75" s="37"/>
-      <c r="BD75" s="37"/>
-      <c r="BE75" s="37"/>
-      <c r="BF75" s="37"/>
-      <c r="BG75" s="37"/>
-      <c r="BH75" s="37"/>
-      <c r="BI75" s="37"/>
-      <c r="BJ75" s="37"/>
-      <c r="BK75" s="37"/>
-      <c r="BL75" s="37"/>
-      <c r="BM75" s="37"/>
-      <c r="BN75" s="37"/>
-      <c r="BO75" s="37"/>
+      <c r="V75" s="31"/>
+      <c r="W75" s="33"/>
+      <c r="X75" s="34"/>
+      <c r="Y75" s="36"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="35"/>
+      <c r="AB75" s="35"/>
+      <c r="AC75" s="35"/>
+      <c r="AD75" s="35"/>
+      <c r="AE75" s="35"/>
+      <c r="AF75" s="36"/>
+      <c r="AG75" s="34"/>
+      <c r="AH75" s="35"/>
+      <c r="AI75" s="35"/>
+      <c r="AJ75" s="35"/>
+      <c r="AK75" s="35"/>
+      <c r="AL75" s="35"/>
+      <c r="AM75" s="35"/>
+      <c r="AN75" s="36"/>
+      <c r="AO75" s="34"/>
+      <c r="AP75" s="35"/>
+      <c r="AQ75" s="35"/>
+      <c r="AR75" s="35"/>
+      <c r="AS75" s="35"/>
+      <c r="AT75" s="35"/>
+      <c r="AU75" s="35"/>
+      <c r="AV75" s="36"/>
+      <c r="AW75" s="31"/>
+      <c r="AX75" s="32"/>
+      <c r="AY75" s="32"/>
+      <c r="AZ75" s="32"/>
+      <c r="BA75" s="32"/>
+      <c r="BB75" s="32"/>
+      <c r="BC75" s="32"/>
+      <c r="BD75" s="32"/>
+      <c r="BE75" s="32"/>
+      <c r="BF75" s="32"/>
+      <c r="BG75" s="32"/>
+      <c r="BH75" s="32"/>
+      <c r="BI75" s="32"/>
+      <c r="BJ75" s="32"/>
+      <c r="BK75" s="32"/>
+      <c r="BL75" s="32"/>
+      <c r="BM75" s="32"/>
+      <c r="BN75" s="32"/>
+      <c r="BO75" s="33"/>
       <c r="BP75" s="84"/>
       <c r="BQ75" s="84"/>
       <c r="BR75" s="84"/>
@@ -22564,52 +22558,52 @@
       <c r="S76" s="35"/>
       <c r="T76" s="35"/>
       <c r="U76" s="36"/>
-      <c r="V76" s="37"/>
-      <c r="W76" s="37"/>
-      <c r="X76" s="30"/>
-      <c r="Y76" s="30"/>
-      <c r="Z76" s="30"/>
-      <c r="AA76" s="30"/>
-      <c r="AB76" s="30"/>
-      <c r="AC76" s="30"/>
-      <c r="AD76" s="30"/>
-      <c r="AE76" s="30"/>
-      <c r="AF76" s="30"/>
-      <c r="AG76" s="30"/>
-      <c r="AH76" s="30"/>
-      <c r="AI76" s="30"/>
-      <c r="AJ76" s="30"/>
-      <c r="AK76" s="30"/>
-      <c r="AL76" s="30"/>
-      <c r="AM76" s="30"/>
-      <c r="AN76" s="30"/>
-      <c r="AO76" s="30"/>
-      <c r="AP76" s="30"/>
-      <c r="AQ76" s="30"/>
-      <c r="AR76" s="30"/>
-      <c r="AS76" s="30"/>
-      <c r="AT76" s="30"/>
-      <c r="AU76" s="30"/>
-      <c r="AV76" s="34"/>
-      <c r="AW76" s="37"/>
-      <c r="AX76" s="37"/>
-      <c r="AY76" s="37"/>
-      <c r="AZ76" s="37"/>
-      <c r="BA76" s="37"/>
-      <c r="BB76" s="37"/>
-      <c r="BC76" s="37"/>
-      <c r="BD76" s="37"/>
-      <c r="BE76" s="37"/>
-      <c r="BF76" s="37"/>
-      <c r="BG76" s="37"/>
-      <c r="BH76" s="37"/>
-      <c r="BI76" s="37"/>
-      <c r="BJ76" s="37"/>
-      <c r="BK76" s="37"/>
-      <c r="BL76" s="37"/>
-      <c r="BM76" s="37"/>
-      <c r="BN76" s="37"/>
-      <c r="BO76" s="37"/>
+      <c r="V76" s="31"/>
+      <c r="W76" s="33"/>
+      <c r="X76" s="34"/>
+      <c r="Y76" s="36"/>
+      <c r="Z76" s="34"/>
+      <c r="AA76" s="35"/>
+      <c r="AB76" s="35"/>
+      <c r="AC76" s="35"/>
+      <c r="AD76" s="35"/>
+      <c r="AE76" s="35"/>
+      <c r="AF76" s="36"/>
+      <c r="AG76" s="34"/>
+      <c r="AH76" s="35"/>
+      <c r="AI76" s="35"/>
+      <c r="AJ76" s="35"/>
+      <c r="AK76" s="35"/>
+      <c r="AL76" s="35"/>
+      <c r="AM76" s="35"/>
+      <c r="AN76" s="36"/>
+      <c r="AO76" s="34"/>
+      <c r="AP76" s="35"/>
+      <c r="AQ76" s="35"/>
+      <c r="AR76" s="35"/>
+      <c r="AS76" s="35"/>
+      <c r="AT76" s="35"/>
+      <c r="AU76" s="35"/>
+      <c r="AV76" s="36"/>
+      <c r="AW76" s="31"/>
+      <c r="AX76" s="32"/>
+      <c r="AY76" s="32"/>
+      <c r="AZ76" s="32"/>
+      <c r="BA76" s="32"/>
+      <c r="BB76" s="32"/>
+      <c r="BC76" s="32"/>
+      <c r="BD76" s="32"/>
+      <c r="BE76" s="32"/>
+      <c r="BF76" s="32"/>
+      <c r="BG76" s="32"/>
+      <c r="BH76" s="32"/>
+      <c r="BI76" s="32"/>
+      <c r="BJ76" s="32"/>
+      <c r="BK76" s="32"/>
+      <c r="BL76" s="32"/>
+      <c r="BM76" s="32"/>
+      <c r="BN76" s="32"/>
+      <c r="BO76" s="33"/>
       <c r="BP76" s="84"/>
       <c r="BQ76" s="84"/>
       <c r="BR76" s="84"/>
@@ -22663,52 +22657,52 @@
       <c r="S77" s="35"/>
       <c r="T77" s="35"/>
       <c r="U77" s="36"/>
-      <c r="V77" s="37"/>
-      <c r="W77" s="37"/>
-      <c r="X77" s="30"/>
-      <c r="Y77" s="30"/>
-      <c r="Z77" s="30"/>
-      <c r="AA77" s="30"/>
-      <c r="AB77" s="30"/>
-      <c r="AC77" s="30"/>
-      <c r="AD77" s="30"/>
-      <c r="AE77" s="30"/>
-      <c r="AF77" s="30"/>
-      <c r="AG77" s="30"/>
-      <c r="AH77" s="30"/>
-      <c r="AI77" s="30"/>
-      <c r="AJ77" s="30"/>
-      <c r="AK77" s="30"/>
-      <c r="AL77" s="30"/>
-      <c r="AM77" s="30"/>
-      <c r="AN77" s="30"/>
-      <c r="AO77" s="30"/>
-      <c r="AP77" s="30"/>
-      <c r="AQ77" s="30"/>
-      <c r="AR77" s="30"/>
-      <c r="AS77" s="30"/>
-      <c r="AT77" s="30"/>
-      <c r="AU77" s="30"/>
-      <c r="AV77" s="34"/>
-      <c r="AW77" s="37"/>
-      <c r="AX77" s="37"/>
-      <c r="AY77" s="37"/>
-      <c r="AZ77" s="37"/>
-      <c r="BA77" s="37"/>
-      <c r="BB77" s="37"/>
-      <c r="BC77" s="37"/>
-      <c r="BD77" s="37"/>
-      <c r="BE77" s="37"/>
-      <c r="BF77" s="37"/>
-      <c r="BG77" s="37"/>
-      <c r="BH77" s="37"/>
-      <c r="BI77" s="37"/>
-      <c r="BJ77" s="37"/>
-      <c r="BK77" s="37"/>
-      <c r="BL77" s="37"/>
-      <c r="BM77" s="37"/>
-      <c r="BN77" s="37"/>
-      <c r="BO77" s="37"/>
+      <c r="V77" s="31"/>
+      <c r="W77" s="33"/>
+      <c r="X77" s="34"/>
+      <c r="Y77" s="36"/>
+      <c r="Z77" s="34"/>
+      <c r="AA77" s="35"/>
+      <c r="AB77" s="35"/>
+      <c r="AC77" s="35"/>
+      <c r="AD77" s="35"/>
+      <c r="AE77" s="35"/>
+      <c r="AF77" s="36"/>
+      <c r="AG77" s="34"/>
+      <c r="AH77" s="35"/>
+      <c r="AI77" s="35"/>
+      <c r="AJ77" s="35"/>
+      <c r="AK77" s="35"/>
+      <c r="AL77" s="35"/>
+      <c r="AM77" s="35"/>
+      <c r="AN77" s="36"/>
+      <c r="AO77" s="34"/>
+      <c r="AP77" s="35"/>
+      <c r="AQ77" s="35"/>
+      <c r="AR77" s="35"/>
+      <c r="AS77" s="35"/>
+      <c r="AT77" s="35"/>
+      <c r="AU77" s="35"/>
+      <c r="AV77" s="36"/>
+      <c r="AW77" s="31"/>
+      <c r="AX77" s="32"/>
+      <c r="AY77" s="32"/>
+      <c r="AZ77" s="32"/>
+      <c r="BA77" s="32"/>
+      <c r="BB77" s="32"/>
+      <c r="BC77" s="32"/>
+      <c r="BD77" s="32"/>
+      <c r="BE77" s="32"/>
+      <c r="BF77" s="32"/>
+      <c r="BG77" s="32"/>
+      <c r="BH77" s="32"/>
+      <c r="BI77" s="32"/>
+      <c r="BJ77" s="32"/>
+      <c r="BK77" s="32"/>
+      <c r="BL77" s="32"/>
+      <c r="BM77" s="32"/>
+      <c r="BN77" s="32"/>
+      <c r="BO77" s="33"/>
       <c r="BP77" s="84"/>
       <c r="BQ77" s="84"/>
       <c r="BR77" s="84"/>
@@ -23175,7 +23169,7 @@
     </row>
     <row r="83" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -23273,58 +23267,60 @@
       <c r="CQ83" s="84"/>
     </row>
     <row r="84" spans="1:95" x14ac:dyDescent="0.15">
-      <c r="A84" s="6"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="7"/>
-      <c r="X84" s="7"/>
-      <c r="Y84" s="7"/>
-      <c r="Z84" s="7"/>
-      <c r="AA84" s="7"/>
-      <c r="AB84" s="7"/>
-      <c r="AC84" s="7"/>
-      <c r="AD84" s="7"/>
-      <c r="AE84" s="7"/>
-      <c r="AF84" s="7"/>
-      <c r="AG84" s="7"/>
-      <c r="AH84" s="7"/>
-      <c r="AI84" s="7"/>
-      <c r="AJ84" s="7"/>
-      <c r="AK84" s="7"/>
-      <c r="AL84" s="7"/>
-      <c r="AM84" s="7"/>
-      <c r="AN84" s="7"/>
-      <c r="AO84" s="7"/>
-      <c r="AP84" s="7"/>
-      <c r="AQ84" s="7"/>
-      <c r="AR84" s="7"/>
-      <c r="AS84" s="7"/>
-      <c r="AT84" s="7"/>
-      <c r="AU84" s="7"/>
-      <c r="AV84" s="7"/>
-      <c r="AW84" s="7"/>
-      <c r="AX84" s="7"/>
-      <c r="AY84" s="7"/>
-      <c r="AZ84" s="8"/>
+      <c r="A84" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="98"/>
+      <c r="C84" s="98"/>
+      <c r="D84" s="98"/>
+      <c r="E84" s="98"/>
+      <c r="F84" s="98"/>
+      <c r="G84" s="98"/>
+      <c r="H84" s="98"/>
+      <c r="I84" s="98"/>
+      <c r="J84" s="98"/>
+      <c r="K84" s="98"/>
+      <c r="L84" s="98"/>
+      <c r="M84" s="98"/>
+      <c r="N84" s="98"/>
+      <c r="O84" s="98"/>
+      <c r="P84" s="98"/>
+      <c r="Q84" s="98"/>
+      <c r="R84" s="98"/>
+      <c r="S84" s="98"/>
+      <c r="T84" s="98"/>
+      <c r="U84" s="98"/>
+      <c r="V84" s="98"/>
+      <c r="W84" s="98"/>
+      <c r="X84" s="98"/>
+      <c r="Y84" s="98"/>
+      <c r="Z84" s="98"/>
+      <c r="AA84" s="98"/>
+      <c r="AB84" s="98"/>
+      <c r="AC84" s="98"/>
+      <c r="AD84" s="98"/>
+      <c r="AE84" s="98"/>
+      <c r="AF84" s="98"/>
+      <c r="AG84" s="98"/>
+      <c r="AH84" s="98"/>
+      <c r="AI84" s="98"/>
+      <c r="AJ84" s="98"/>
+      <c r="AK84" s="98"/>
+      <c r="AL84" s="98"/>
+      <c r="AM84" s="98"/>
+      <c r="AN84" s="98"/>
+      <c r="AO84" s="98"/>
+      <c r="AP84" s="98"/>
+      <c r="AQ84" s="98"/>
+      <c r="AR84" s="98"/>
+      <c r="AS84" s="98"/>
+      <c r="AT84" s="98"/>
+      <c r="AU84" s="98"/>
+      <c r="AV84" s="98"/>
+      <c r="AW84" s="98"/>
+      <c r="AX84" s="98"/>
+      <c r="AY84" s="98"/>
+      <c r="AZ84" s="99"/>
       <c r="BA84" s="84"/>
       <c r="BB84" s="84"/>
       <c r="BC84" s="84"/>
@@ -23370,58 +23366,60 @@
       <c r="CQ84" s="84"/>
     </row>
     <row r="85" spans="1:95" x14ac:dyDescent="0.15">
-      <c r="A85" s="9"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="10"/>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="10"/>
-      <c r="W85" s="10"/>
-      <c r="X85" s="10"/>
-      <c r="Y85" s="10"/>
-      <c r="Z85" s="10"/>
-      <c r="AA85" s="10"/>
-      <c r="AB85" s="10"/>
-      <c r="AC85" s="10"/>
-      <c r="AD85" s="10"/>
-      <c r="AE85" s="10"/>
-      <c r="AF85" s="10"/>
-      <c r="AG85" s="10"/>
-      <c r="AH85" s="10"/>
-      <c r="AI85" s="10"/>
-      <c r="AJ85" s="10"/>
-      <c r="AK85" s="10"/>
-      <c r="AL85" s="10"/>
-      <c r="AM85" s="10"/>
-      <c r="AN85" s="10"/>
-      <c r="AO85" s="10"/>
-      <c r="AP85" s="10"/>
-      <c r="AQ85" s="10"/>
-      <c r="AR85" s="10"/>
-      <c r="AS85" s="10"/>
-      <c r="AT85" s="10"/>
-      <c r="AU85" s="10"/>
-      <c r="AV85" s="10"/>
-      <c r="AW85" s="10"/>
-      <c r="AX85" s="10"/>
-      <c r="AY85" s="10"/>
-      <c r="AZ85" s="11"/>
+      <c r="A85" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="98"/>
+      <c r="C85" s="98"/>
+      <c r="D85" s="98"/>
+      <c r="E85" s="98"/>
+      <c r="F85" s="98"/>
+      <c r="G85" s="98"/>
+      <c r="H85" s="98"/>
+      <c r="I85" s="98"/>
+      <c r="J85" s="98"/>
+      <c r="K85" s="98"/>
+      <c r="L85" s="98"/>
+      <c r="M85" s="98"/>
+      <c r="N85" s="98"/>
+      <c r="O85" s="98"/>
+      <c r="P85" s="98"/>
+      <c r="Q85" s="98"/>
+      <c r="R85" s="98"/>
+      <c r="S85" s="98"/>
+      <c r="T85" s="98"/>
+      <c r="U85" s="98"/>
+      <c r="V85" s="98"/>
+      <c r="W85" s="98"/>
+      <c r="X85" s="98"/>
+      <c r="Y85" s="98"/>
+      <c r="Z85" s="98"/>
+      <c r="AA85" s="98"/>
+      <c r="AB85" s="98"/>
+      <c r="AC85" s="98"/>
+      <c r="AD85" s="98"/>
+      <c r="AE85" s="98"/>
+      <c r="AF85" s="98"/>
+      <c r="AG85" s="98"/>
+      <c r="AH85" s="98"/>
+      <c r="AI85" s="98"/>
+      <c r="AJ85" s="98"/>
+      <c r="AK85" s="98"/>
+      <c r="AL85" s="98"/>
+      <c r="AM85" s="98"/>
+      <c r="AN85" s="98"/>
+      <c r="AO85" s="98"/>
+      <c r="AP85" s="98"/>
+      <c r="AQ85" s="98"/>
+      <c r="AR85" s="98"/>
+      <c r="AS85" s="98"/>
+      <c r="AT85" s="98"/>
+      <c r="AU85" s="98"/>
+      <c r="AV85" s="98"/>
+      <c r="AW85" s="98"/>
+      <c r="AX85" s="98"/>
+      <c r="AY85" s="98"/>
+      <c r="AZ85" s="99"/>
       <c r="BA85" s="84"/>
       <c r="BB85" s="84"/>
       <c r="BC85" s="84"/>
@@ -23467,58 +23465,60 @@
       <c r="CQ85" s="84"/>
     </row>
     <row r="86" spans="1:95" x14ac:dyDescent="0.15">
-      <c r="A86" s="9"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="10"/>
-      <c r="R86" s="10"/>
-      <c r="S86" s="10"/>
-      <c r="T86" s="10"/>
-      <c r="U86" s="10"/>
-      <c r="V86" s="10"/>
-      <c r="W86" s="10"/>
-      <c r="X86" s="10"/>
-      <c r="Y86" s="10"/>
-      <c r="Z86" s="10"/>
-      <c r="AA86" s="10"/>
-      <c r="AB86" s="10"/>
-      <c r="AC86" s="10"/>
-      <c r="AD86" s="10"/>
-      <c r="AE86" s="10"/>
-      <c r="AF86" s="10"/>
-      <c r="AG86" s="10"/>
-      <c r="AH86" s="10"/>
-      <c r="AI86" s="10"/>
-      <c r="AJ86" s="10"/>
-      <c r="AK86" s="10"/>
-      <c r="AL86" s="10"/>
-      <c r="AM86" s="10"/>
-      <c r="AN86" s="10"/>
-      <c r="AO86" s="10"/>
-      <c r="AP86" s="10"/>
-      <c r="AQ86" s="10"/>
-      <c r="AR86" s="10"/>
-      <c r="AS86" s="10"/>
-      <c r="AT86" s="10"/>
-      <c r="AU86" s="10"/>
-      <c r="AV86" s="10"/>
-      <c r="AW86" s="10"/>
-      <c r="AX86" s="10"/>
-      <c r="AY86" s="10"/>
-      <c r="AZ86" s="11"/>
+      <c r="A86" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" s="98"/>
+      <c r="C86" s="98"/>
+      <c r="D86" s="98"/>
+      <c r="E86" s="98"/>
+      <c r="F86" s="98"/>
+      <c r="G86" s="98"/>
+      <c r="H86" s="98"/>
+      <c r="I86" s="98"/>
+      <c r="J86" s="98"/>
+      <c r="K86" s="98"/>
+      <c r="L86" s="98"/>
+      <c r="M86" s="98"/>
+      <c r="N86" s="98"/>
+      <c r="O86" s="98"/>
+      <c r="P86" s="98"/>
+      <c r="Q86" s="98"/>
+      <c r="R86" s="98"/>
+      <c r="S86" s="98"/>
+      <c r="T86" s="98"/>
+      <c r="U86" s="98"/>
+      <c r="V86" s="98"/>
+      <c r="W86" s="98"/>
+      <c r="X86" s="98"/>
+      <c r="Y86" s="98"/>
+      <c r="Z86" s="98"/>
+      <c r="AA86" s="98"/>
+      <c r="AB86" s="98"/>
+      <c r="AC86" s="98"/>
+      <c r="AD86" s="98"/>
+      <c r="AE86" s="98"/>
+      <c r="AF86" s="98"/>
+      <c r="AG86" s="98"/>
+      <c r="AH86" s="98"/>
+      <c r="AI86" s="98"/>
+      <c r="AJ86" s="98"/>
+      <c r="AK86" s="98"/>
+      <c r="AL86" s="98"/>
+      <c r="AM86" s="98"/>
+      <c r="AN86" s="98"/>
+      <c r="AO86" s="98"/>
+      <c r="AP86" s="98"/>
+      <c r="AQ86" s="98"/>
+      <c r="AR86" s="98"/>
+      <c r="AS86" s="98"/>
+      <c r="AT86" s="98"/>
+      <c r="AU86" s="98"/>
+      <c r="AV86" s="98"/>
+      <c r="AW86" s="98"/>
+      <c r="AX86" s="98"/>
+      <c r="AY86" s="98"/>
+      <c r="AZ86" s="99"/>
       <c r="BA86" s="84"/>
       <c r="BB86" s="84"/>
       <c r="BC86" s="84"/>
@@ -23564,60 +23564,60 @@
       <c r="CQ86" s="84"/>
     </row>
     <row r="87" spans="1:95" x14ac:dyDescent="0.15">
-      <c r="A87" s="3" t="s">
-        <v>52</v>
+      <c r="A87" s="97" t="s">
+        <v>54</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="4"/>
-      <c r="Y87" s="4"/>
-      <c r="Z87" s="4"/>
-      <c r="AA87" s="4"/>
-      <c r="AB87" s="4"/>
-      <c r="AC87" s="4"/>
-      <c r="AD87" s="4"/>
-      <c r="AE87" s="4"/>
-      <c r="AF87" s="4"/>
-      <c r="AG87" s="4"/>
-      <c r="AH87" s="4"/>
-      <c r="AI87" s="4"/>
-      <c r="AJ87" s="4"/>
-      <c r="AK87" s="4"/>
-      <c r="AL87" s="4"/>
-      <c r="AM87" s="4"/>
-      <c r="AN87" s="4"/>
-      <c r="AO87" s="4"/>
-      <c r="AP87" s="4"/>
-      <c r="AQ87" s="4"/>
-      <c r="AR87" s="4"/>
-      <c r="AS87" s="4"/>
-      <c r="AT87" s="4"/>
-      <c r="AU87" s="4"/>
-      <c r="AV87" s="4"/>
-      <c r="AW87" s="4"/>
-      <c r="AX87" s="4"/>
-      <c r="AY87" s="4"/>
-      <c r="AZ87" s="5"/>
+      <c r="B87" s="98"/>
+      <c r="C87" s="98"/>
+      <c r="D87" s="98"/>
+      <c r="E87" s="98"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="98"/>
+      <c r="H87" s="98"/>
+      <c r="I87" s="98"/>
+      <c r="J87" s="98"/>
+      <c r="K87" s="98"/>
+      <c r="L87" s="98"/>
+      <c r="M87" s="98"/>
+      <c r="N87" s="98"/>
+      <c r="O87" s="98"/>
+      <c r="P87" s="98"/>
+      <c r="Q87" s="98"/>
+      <c r="R87" s="98"/>
+      <c r="S87" s="98"/>
+      <c r="T87" s="98"/>
+      <c r="U87" s="98"/>
+      <c r="V87" s="98"/>
+      <c r="W87" s="98"/>
+      <c r="X87" s="98"/>
+      <c r="Y87" s="98"/>
+      <c r="Z87" s="98"/>
+      <c r="AA87" s="98"/>
+      <c r="AB87" s="98"/>
+      <c r="AC87" s="98"/>
+      <c r="AD87" s="98"/>
+      <c r="AE87" s="98"/>
+      <c r="AF87" s="98"/>
+      <c r="AG87" s="98"/>
+      <c r="AH87" s="98"/>
+      <c r="AI87" s="98"/>
+      <c r="AJ87" s="98"/>
+      <c r="AK87" s="98"/>
+      <c r="AL87" s="98"/>
+      <c r="AM87" s="98"/>
+      <c r="AN87" s="98"/>
+      <c r="AO87" s="98"/>
+      <c r="AP87" s="98"/>
+      <c r="AQ87" s="98"/>
+      <c r="AR87" s="98"/>
+      <c r="AS87" s="98"/>
+      <c r="AT87" s="98"/>
+      <c r="AU87" s="98"/>
+      <c r="AV87" s="98"/>
+      <c r="AW87" s="98"/>
+      <c r="AX87" s="98"/>
+      <c r="AY87" s="98"/>
+      <c r="AZ87" s="99"/>
       <c r="BA87" s="84"/>
       <c r="BB87" s="84"/>
       <c r="BC87" s="84"/>
@@ -23663,58 +23663,60 @@
       <c r="CQ87" s="84"/>
     </row>
     <row r="88" spans="1:95" x14ac:dyDescent="0.15">
-      <c r="A88" s="6"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="7"/>
-      <c r="W88" s="7"/>
-      <c r="X88" s="7"/>
-      <c r="Y88" s="7"/>
-      <c r="Z88" s="7"/>
-      <c r="AA88" s="7"/>
-      <c r="AB88" s="7"/>
-      <c r="AC88" s="7"/>
-      <c r="AD88" s="7"/>
-      <c r="AE88" s="7"/>
-      <c r="AF88" s="7"/>
-      <c r="AG88" s="7"/>
-      <c r="AH88" s="7"/>
-      <c r="AI88" s="7"/>
-      <c r="AJ88" s="7"/>
-      <c r="AK88" s="7"/>
-      <c r="AL88" s="7"/>
-      <c r="AM88" s="7"/>
-      <c r="AN88" s="7"/>
-      <c r="AO88" s="7"/>
-      <c r="AP88" s="7"/>
-      <c r="AQ88" s="7"/>
-      <c r="AR88" s="7"/>
-      <c r="AS88" s="7"/>
-      <c r="AT88" s="7"/>
-      <c r="AU88" s="7"/>
-      <c r="AV88" s="7"/>
-      <c r="AW88" s="7"/>
-      <c r="AX88" s="7"/>
-      <c r="AY88" s="7"/>
-      <c r="AZ88" s="8"/>
+      <c r="A88" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" s="98"/>
+      <c r="C88" s="98"/>
+      <c r="D88" s="98"/>
+      <c r="E88" s="98"/>
+      <c r="F88" s="98"/>
+      <c r="G88" s="98"/>
+      <c r="H88" s="98"/>
+      <c r="I88" s="98"/>
+      <c r="J88" s="98"/>
+      <c r="K88" s="98"/>
+      <c r="L88" s="98"/>
+      <c r="M88" s="98"/>
+      <c r="N88" s="98"/>
+      <c r="O88" s="98"/>
+      <c r="P88" s="98"/>
+      <c r="Q88" s="98"/>
+      <c r="R88" s="98"/>
+      <c r="S88" s="98"/>
+      <c r="T88" s="98"/>
+      <c r="U88" s="98"/>
+      <c r="V88" s="98"/>
+      <c r="W88" s="98"/>
+      <c r="X88" s="98"/>
+      <c r="Y88" s="98"/>
+      <c r="Z88" s="98"/>
+      <c r="AA88" s="98"/>
+      <c r="AB88" s="98"/>
+      <c r="AC88" s="98"/>
+      <c r="AD88" s="98"/>
+      <c r="AE88" s="98"/>
+      <c r="AF88" s="98"/>
+      <c r="AG88" s="98"/>
+      <c r="AH88" s="98"/>
+      <c r="AI88" s="98"/>
+      <c r="AJ88" s="98"/>
+      <c r="AK88" s="98"/>
+      <c r="AL88" s="98"/>
+      <c r="AM88" s="98"/>
+      <c r="AN88" s="98"/>
+      <c r="AO88" s="98"/>
+      <c r="AP88" s="98"/>
+      <c r="AQ88" s="98"/>
+      <c r="AR88" s="98"/>
+      <c r="AS88" s="98"/>
+      <c r="AT88" s="98"/>
+      <c r="AU88" s="98"/>
+      <c r="AV88" s="98"/>
+      <c r="AW88" s="98"/>
+      <c r="AX88" s="98"/>
+      <c r="AY88" s="98"/>
+      <c r="AZ88" s="99"/>
       <c r="BA88" s="84"/>
       <c r="BB88" s="84"/>
       <c r="BC88" s="84"/>
@@ -23760,58 +23762,60 @@
       <c r="CQ88" s="84"/>
     </row>
     <row r="89" spans="1:95" x14ac:dyDescent="0.15">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="10"/>
-      <c r="R89" s="10"/>
-      <c r="S89" s="10"/>
-      <c r="T89" s="10"/>
-      <c r="U89" s="10"/>
-      <c r="V89" s="10"/>
-      <c r="W89" s="10"/>
-      <c r="X89" s="10"/>
-      <c r="Y89" s="10"/>
-      <c r="Z89" s="10"/>
-      <c r="AA89" s="10"/>
-      <c r="AB89" s="10"/>
-      <c r="AC89" s="10"/>
-      <c r="AD89" s="10"/>
-      <c r="AE89" s="10"/>
-      <c r="AF89" s="10"/>
-      <c r="AG89" s="10"/>
-      <c r="AH89" s="10"/>
-      <c r="AI89" s="10"/>
-      <c r="AJ89" s="10"/>
-      <c r="AK89" s="10"/>
-      <c r="AL89" s="10"/>
-      <c r="AM89" s="10"/>
-      <c r="AN89" s="10"/>
-      <c r="AO89" s="10"/>
-      <c r="AP89" s="10"/>
-      <c r="AQ89" s="10"/>
-      <c r="AR89" s="10"/>
-      <c r="AS89" s="10"/>
-      <c r="AT89" s="10"/>
-      <c r="AU89" s="10"/>
-      <c r="AV89" s="10"/>
-      <c r="AW89" s="10"/>
-      <c r="AX89" s="10"/>
-      <c r="AY89" s="10"/>
-      <c r="AZ89" s="11"/>
+      <c r="A89" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89" s="98"/>
+      <c r="C89" s="98"/>
+      <c r="D89" s="98"/>
+      <c r="E89" s="98"/>
+      <c r="F89" s="98"/>
+      <c r="G89" s="98"/>
+      <c r="H89" s="98"/>
+      <c r="I89" s="98"/>
+      <c r="J89" s="98"/>
+      <c r="K89" s="98"/>
+      <c r="L89" s="98"/>
+      <c r="M89" s="98"/>
+      <c r="N89" s="98"/>
+      <c r="O89" s="98"/>
+      <c r="P89" s="98"/>
+      <c r="Q89" s="98"/>
+      <c r="R89" s="98"/>
+      <c r="S89" s="98"/>
+      <c r="T89" s="98"/>
+      <c r="U89" s="98"/>
+      <c r="V89" s="98"/>
+      <c r="W89" s="98"/>
+      <c r="X89" s="98"/>
+      <c r="Y89" s="98"/>
+      <c r="Z89" s="98"/>
+      <c r="AA89" s="98"/>
+      <c r="AB89" s="98"/>
+      <c r="AC89" s="98"/>
+      <c r="AD89" s="98"/>
+      <c r="AE89" s="98"/>
+      <c r="AF89" s="98"/>
+      <c r="AG89" s="98"/>
+      <c r="AH89" s="98"/>
+      <c r="AI89" s="98"/>
+      <c r="AJ89" s="98"/>
+      <c r="AK89" s="98"/>
+      <c r="AL89" s="98"/>
+      <c r="AM89" s="98"/>
+      <c r="AN89" s="98"/>
+      <c r="AO89" s="98"/>
+      <c r="AP89" s="98"/>
+      <c r="AQ89" s="98"/>
+      <c r="AR89" s="98"/>
+      <c r="AS89" s="98"/>
+      <c r="AT89" s="98"/>
+      <c r="AU89" s="98"/>
+      <c r="AV89" s="98"/>
+      <c r="AW89" s="98"/>
+      <c r="AX89" s="98"/>
+      <c r="AY89" s="98"/>
+      <c r="AZ89" s="99"/>
       <c r="BA89" s="84"/>
       <c r="BB89" s="84"/>
       <c r="BC89" s="84"/>
@@ -23857,58 +23861,60 @@
       <c r="CQ89" s="84"/>
     </row>
     <row r="90" spans="1:95" x14ac:dyDescent="0.15">
-      <c r="A90" s="12"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="13"/>
-      <c r="U90" s="13"/>
-      <c r="V90" s="13"/>
-      <c r="W90" s="13"/>
-      <c r="X90" s="13"/>
-      <c r="Y90" s="13"/>
-      <c r="Z90" s="13"/>
-      <c r="AA90" s="13"/>
-      <c r="AB90" s="13"/>
-      <c r="AC90" s="13"/>
-      <c r="AD90" s="13"/>
-      <c r="AE90" s="13"/>
-      <c r="AF90" s="13"/>
-      <c r="AG90" s="13"/>
-      <c r="AH90" s="13"/>
-      <c r="AI90" s="13"/>
-      <c r="AJ90" s="13"/>
-      <c r="AK90" s="13"/>
-      <c r="AL90" s="13"/>
-      <c r="AM90" s="13"/>
-      <c r="AN90" s="13"/>
-      <c r="AO90" s="13"/>
-      <c r="AP90" s="13"/>
-      <c r="AQ90" s="13"/>
-      <c r="AR90" s="13"/>
-      <c r="AS90" s="13"/>
-      <c r="AT90" s="13"/>
-      <c r="AU90" s="13"/>
-      <c r="AV90" s="13"/>
-      <c r="AW90" s="13"/>
-      <c r="AX90" s="13"/>
-      <c r="AY90" s="13"/>
-      <c r="AZ90" s="14"/>
+      <c r="A90" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" s="98"/>
+      <c r="C90" s="98"/>
+      <c r="D90" s="98"/>
+      <c r="E90" s="98"/>
+      <c r="F90" s="98"/>
+      <c r="G90" s="98"/>
+      <c r="H90" s="98"/>
+      <c r="I90" s="98"/>
+      <c r="J90" s="98"/>
+      <c r="K90" s="98"/>
+      <c r="L90" s="98"/>
+      <c r="M90" s="98"/>
+      <c r="N90" s="98"/>
+      <c r="O90" s="98"/>
+      <c r="P90" s="98"/>
+      <c r="Q90" s="98"/>
+      <c r="R90" s="98"/>
+      <c r="S90" s="98"/>
+      <c r="T90" s="98"/>
+      <c r="U90" s="98"/>
+      <c r="V90" s="98"/>
+      <c r="W90" s="98"/>
+      <c r="X90" s="98"/>
+      <c r="Y90" s="98"/>
+      <c r="Z90" s="98"/>
+      <c r="AA90" s="98"/>
+      <c r="AB90" s="98"/>
+      <c r="AC90" s="98"/>
+      <c r="AD90" s="98"/>
+      <c r="AE90" s="98"/>
+      <c r="AF90" s="98"/>
+      <c r="AG90" s="98"/>
+      <c r="AH90" s="98"/>
+      <c r="AI90" s="98"/>
+      <c r="AJ90" s="98"/>
+      <c r="AK90" s="98"/>
+      <c r="AL90" s="98"/>
+      <c r="AM90" s="98"/>
+      <c r="AN90" s="98"/>
+      <c r="AO90" s="98"/>
+      <c r="AP90" s="98"/>
+      <c r="AQ90" s="98"/>
+      <c r="AR90" s="98"/>
+      <c r="AS90" s="98"/>
+      <c r="AT90" s="98"/>
+      <c r="AU90" s="98"/>
+      <c r="AV90" s="98"/>
+      <c r="AW90" s="98"/>
+      <c r="AX90" s="98"/>
+      <c r="AY90" s="98"/>
+      <c r="AZ90" s="99"/>
       <c r="BA90" s="84"/>
       <c r="BB90" s="84"/>
       <c r="BC90" s="84"/>
@@ -23954,58 +23960,58 @@
       <c r="CQ90" s="84"/>
     </row>
     <row r="91" spans="1:95" x14ac:dyDescent="0.15">
-      <c r="A91" s="84"/>
-      <c r="B91" s="84"/>
-      <c r="C91" s="84"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="84"/>
-      <c r="F91" s="84"/>
-      <c r="G91" s="84"/>
-      <c r="H91" s="84"/>
-      <c r="I91" s="84"/>
-      <c r="J91" s="84"/>
-      <c r="K91" s="84"/>
-      <c r="L91" s="84"/>
-      <c r="M91" s="84"/>
-      <c r="N91" s="84"/>
-      <c r="O91" s="84"/>
-      <c r="P91" s="84"/>
-      <c r="Q91" s="84"/>
-      <c r="R91" s="84"/>
-      <c r="S91" s="84"/>
-      <c r="T91" s="84"/>
-      <c r="U91" s="84"/>
-      <c r="V91" s="84"/>
-      <c r="W91" s="84"/>
-      <c r="X91" s="84"/>
-      <c r="Y91" s="84"/>
-      <c r="Z91" s="84"/>
-      <c r="AA91" s="84"/>
-      <c r="AB91" s="84"/>
-      <c r="AC91" s="84"/>
-      <c r="AD91" s="84"/>
-      <c r="AE91" s="84"/>
-      <c r="AF91" s="84"/>
-      <c r="AG91" s="84"/>
-      <c r="AH91" s="84"/>
-      <c r="AI91" s="84"/>
-      <c r="AJ91" s="84"/>
-      <c r="AK91" s="84"/>
-      <c r="AL91" s="84"/>
-      <c r="AM91" s="84"/>
-      <c r="AN91" s="84"/>
-      <c r="AO91" s="84"/>
-      <c r="AP91" s="84"/>
-      <c r="AQ91" s="84"/>
-      <c r="AR91" s="84"/>
-      <c r="AS91" s="84"/>
-      <c r="AT91" s="84"/>
-      <c r="AU91" s="84"/>
-      <c r="AV91" s="84"/>
-      <c r="AW91" s="84"/>
-      <c r="AX91" s="84"/>
-      <c r="AY91" s="84"/>
-      <c r="AZ91" s="84"/>
+      <c r="A91" s="97"/>
+      <c r="B91" s="98"/>
+      <c r="C91" s="98"/>
+      <c r="D91" s="98"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="98"/>
+      <c r="G91" s="98"/>
+      <c r="H91" s="98"/>
+      <c r="I91" s="98"/>
+      <c r="J91" s="98"/>
+      <c r="K91" s="98"/>
+      <c r="L91" s="98"/>
+      <c r="M91" s="98"/>
+      <c r="N91" s="98"/>
+      <c r="O91" s="98"/>
+      <c r="P91" s="98"/>
+      <c r="Q91" s="98"/>
+      <c r="R91" s="98"/>
+      <c r="S91" s="98"/>
+      <c r="T91" s="98"/>
+      <c r="U91" s="98"/>
+      <c r="V91" s="98"/>
+      <c r="W91" s="98"/>
+      <c r="X91" s="98"/>
+      <c r="Y91" s="98"/>
+      <c r="Z91" s="98"/>
+      <c r="AA91" s="98"/>
+      <c r="AB91" s="98"/>
+      <c r="AC91" s="98"/>
+      <c r="AD91" s="98"/>
+      <c r="AE91" s="98"/>
+      <c r="AF91" s="98"/>
+      <c r="AG91" s="98"/>
+      <c r="AH91" s="98"/>
+      <c r="AI91" s="98"/>
+      <c r="AJ91" s="98"/>
+      <c r="AK91" s="98"/>
+      <c r="AL91" s="98"/>
+      <c r="AM91" s="98"/>
+      <c r="AN91" s="98"/>
+      <c r="AO91" s="98"/>
+      <c r="AP91" s="98"/>
+      <c r="AQ91" s="98"/>
+      <c r="AR91" s="98"/>
+      <c r="AS91" s="98"/>
+      <c r="AT91" s="98"/>
+      <c r="AU91" s="98"/>
+      <c r="AV91" s="98"/>
+      <c r="AW91" s="98"/>
+      <c r="AX91" s="98"/>
+      <c r="AY91" s="98"/>
+      <c r="AZ91" s="99"/>
       <c r="BA91" s="84"/>
       <c r="BB91" s="84"/>
       <c r="BC91" s="84"/>
@@ -24051,58 +24057,58 @@
       <c r="CQ91" s="84"/>
     </row>
     <row r="92" spans="1:95" x14ac:dyDescent="0.15">
-      <c r="A92" s="84"/>
-      <c r="B92" s="84"/>
-      <c r="C92" s="84"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="84"/>
-      <c r="G92" s="84"/>
-      <c r="H92" s="84"/>
-      <c r="I92" s="84"/>
-      <c r="J92" s="84"/>
-      <c r="K92" s="84"/>
-      <c r="L92" s="84"/>
-      <c r="M92" s="84"/>
-      <c r="N92" s="84"/>
-      <c r="O92" s="84"/>
-      <c r="P92" s="84"/>
-      <c r="Q92" s="84"/>
-      <c r="R92" s="84"/>
-      <c r="S92" s="84"/>
-      <c r="T92" s="84"/>
-      <c r="U92" s="84"/>
-      <c r="V92" s="84"/>
-      <c r="W92" s="84"/>
-      <c r="X92" s="84"/>
-      <c r="Y92" s="84"/>
-      <c r="Z92" s="84"/>
-      <c r="AA92" s="84"/>
-      <c r="AB92" s="84"/>
-      <c r="AC92" s="84"/>
-      <c r="AD92" s="84"/>
-      <c r="AE92" s="84"/>
-      <c r="AF92" s="84"/>
-      <c r="AG92" s="84"/>
-      <c r="AH92" s="84"/>
-      <c r="AI92" s="84"/>
-      <c r="AJ92" s="84"/>
-      <c r="AK92" s="84"/>
-      <c r="AL92" s="84"/>
-      <c r="AM92" s="84"/>
-      <c r="AN92" s="84"/>
-      <c r="AO92" s="84"/>
-      <c r="AP92" s="84"/>
-      <c r="AQ92" s="84"/>
-      <c r="AR92" s="84"/>
-      <c r="AS92" s="84"/>
-      <c r="AT92" s="84"/>
-      <c r="AU92" s="84"/>
-      <c r="AV92" s="84"/>
-      <c r="AW92" s="84"/>
-      <c r="AX92" s="84"/>
-      <c r="AY92" s="84"/>
-      <c r="AZ92" s="84"/>
+      <c r="A92" s="97"/>
+      <c r="B92" s="98"/>
+      <c r="C92" s="98"/>
+      <c r="D92" s="98"/>
+      <c r="E92" s="98"/>
+      <c r="F92" s="98"/>
+      <c r="G92" s="98"/>
+      <c r="H92" s="98"/>
+      <c r="I92" s="98"/>
+      <c r="J92" s="98"/>
+      <c r="K92" s="98"/>
+      <c r="L92" s="98"/>
+      <c r="M92" s="98"/>
+      <c r="N92" s="98"/>
+      <c r="O92" s="98"/>
+      <c r="P92" s="98"/>
+      <c r="Q92" s="98"/>
+      <c r="R92" s="98"/>
+      <c r="S92" s="98"/>
+      <c r="T92" s="98"/>
+      <c r="U92" s="98"/>
+      <c r="V92" s="98"/>
+      <c r="W92" s="98"/>
+      <c r="X92" s="98"/>
+      <c r="Y92" s="98"/>
+      <c r="Z92" s="98"/>
+      <c r="AA92" s="98"/>
+      <c r="AB92" s="98"/>
+      <c r="AC92" s="98"/>
+      <c r="AD92" s="98"/>
+      <c r="AE92" s="98"/>
+      <c r="AF92" s="98"/>
+      <c r="AG92" s="98"/>
+      <c r="AH92" s="98"/>
+      <c r="AI92" s="98"/>
+      <c r="AJ92" s="98"/>
+      <c r="AK92" s="98"/>
+      <c r="AL92" s="98"/>
+      <c r="AM92" s="98"/>
+      <c r="AN92" s="98"/>
+      <c r="AO92" s="98"/>
+      <c r="AP92" s="98"/>
+      <c r="AQ92" s="98"/>
+      <c r="AR92" s="98"/>
+      <c r="AS92" s="98"/>
+      <c r="AT92" s="98"/>
+      <c r="AU92" s="98"/>
+      <c r="AV92" s="98"/>
+      <c r="AW92" s="98"/>
+      <c r="AX92" s="98"/>
+      <c r="AY92" s="98"/>
+      <c r="AZ92" s="99"/>
       <c r="BA92" s="84"/>
       <c r="BB92" s="84"/>
       <c r="BC92" s="84"/>
@@ -24148,58 +24154,58 @@
       <c r="CQ92" s="84"/>
     </row>
     <row r="93" spans="1:95" x14ac:dyDescent="0.15">
-      <c r="A93" s="84"/>
-      <c r="B93" s="84"/>
-      <c r="C93" s="84"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="84"/>
-      <c r="H93" s="84"/>
-      <c r="I93" s="84"/>
-      <c r="J93" s="84"/>
-      <c r="K93" s="84"/>
-      <c r="L93" s="84"/>
-      <c r="M93" s="84"/>
-      <c r="N93" s="84"/>
-      <c r="O93" s="84"/>
-      <c r="P93" s="84"/>
-      <c r="Q93" s="84"/>
-      <c r="R93" s="84"/>
-      <c r="S93" s="84"/>
-      <c r="T93" s="84"/>
-      <c r="U93" s="84"/>
-      <c r="V93" s="84"/>
-      <c r="W93" s="84"/>
-      <c r="X93" s="84"/>
-      <c r="Y93" s="84"/>
-      <c r="Z93" s="84"/>
-      <c r="AA93" s="84"/>
-      <c r="AB93" s="84"/>
-      <c r="AC93" s="84"/>
-      <c r="AD93" s="84"/>
-      <c r="AE93" s="84"/>
-      <c r="AF93" s="84"/>
-      <c r="AG93" s="84"/>
-      <c r="AH93" s="84"/>
-      <c r="AI93" s="84"/>
-      <c r="AJ93" s="84"/>
-      <c r="AK93" s="84"/>
-      <c r="AL93" s="84"/>
-      <c r="AM93" s="84"/>
-      <c r="AN93" s="84"/>
-      <c r="AO93" s="84"/>
-      <c r="AP93" s="84"/>
-      <c r="AQ93" s="84"/>
-      <c r="AR93" s="84"/>
-      <c r="AS93" s="84"/>
-      <c r="AT93" s="84"/>
-      <c r="AU93" s="84"/>
-      <c r="AV93" s="84"/>
-      <c r="AW93" s="84"/>
-      <c r="AX93" s="84"/>
-      <c r="AY93" s="84"/>
-      <c r="AZ93" s="84"/>
+      <c r="A93" s="97"/>
+      <c r="B93" s="98"/>
+      <c r="C93" s="98"/>
+      <c r="D93" s="98"/>
+      <c r="E93" s="98"/>
+      <c r="F93" s="98"/>
+      <c r="G93" s="98"/>
+      <c r="H93" s="98"/>
+      <c r="I93" s="98"/>
+      <c r="J93" s="98"/>
+      <c r="K93" s="98"/>
+      <c r="L93" s="98"/>
+      <c r="M93" s="98"/>
+      <c r="N93" s="98"/>
+      <c r="O93" s="98"/>
+      <c r="P93" s="98"/>
+      <c r="Q93" s="98"/>
+      <c r="R93" s="98"/>
+      <c r="S93" s="98"/>
+      <c r="T93" s="98"/>
+      <c r="U93" s="98"/>
+      <c r="V93" s="98"/>
+      <c r="W93" s="98"/>
+      <c r="X93" s="98"/>
+      <c r="Y93" s="98"/>
+      <c r="Z93" s="98"/>
+      <c r="AA93" s="98"/>
+      <c r="AB93" s="98"/>
+      <c r="AC93" s="98"/>
+      <c r="AD93" s="98"/>
+      <c r="AE93" s="98"/>
+      <c r="AF93" s="98"/>
+      <c r="AG93" s="98"/>
+      <c r="AH93" s="98"/>
+      <c r="AI93" s="98"/>
+      <c r="AJ93" s="98"/>
+      <c r="AK93" s="98"/>
+      <c r="AL93" s="98"/>
+      <c r="AM93" s="98"/>
+      <c r="AN93" s="98"/>
+      <c r="AO93" s="98"/>
+      <c r="AP93" s="98"/>
+      <c r="AQ93" s="98"/>
+      <c r="AR93" s="98"/>
+      <c r="AS93" s="98"/>
+      <c r="AT93" s="98"/>
+      <c r="AU93" s="98"/>
+      <c r="AV93" s="98"/>
+      <c r="AW93" s="98"/>
+      <c r="AX93" s="98"/>
+      <c r="AY93" s="98"/>
+      <c r="AZ93" s="99"/>
       <c r="BA93" s="84"/>
       <c r="BB93" s="84"/>
       <c r="BC93" s="84"/>
@@ -24245,58 +24251,58 @@
       <c r="CQ93" s="84"/>
     </row>
     <row r="94" spans="1:95" x14ac:dyDescent="0.15">
-      <c r="A94" s="84"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="84"/>
-      <c r="G94" s="84"/>
-      <c r="H94" s="84"/>
-      <c r="I94" s="84"/>
-      <c r="J94" s="84"/>
-      <c r="K94" s="84"/>
-      <c r="L94" s="84"/>
-      <c r="M94" s="84"/>
-      <c r="N94" s="84"/>
-      <c r="O94" s="84"/>
-      <c r="P94" s="84"/>
-      <c r="Q94" s="84"/>
-      <c r="R94" s="84"/>
-      <c r="S94" s="84"/>
-      <c r="T94" s="84"/>
-      <c r="U94" s="84"/>
-      <c r="V94" s="84"/>
-      <c r="W94" s="84"/>
-      <c r="X94" s="84"/>
-      <c r="Y94" s="84"/>
-      <c r="Z94" s="84"/>
-      <c r="AA94" s="84"/>
-      <c r="AB94" s="84"/>
-      <c r="AC94" s="84"/>
-      <c r="AD94" s="84"/>
-      <c r="AE94" s="84"/>
-      <c r="AF94" s="84"/>
-      <c r="AG94" s="84"/>
-      <c r="AH94" s="84"/>
-      <c r="AI94" s="84"/>
-      <c r="AJ94" s="84"/>
-      <c r="AK94" s="84"/>
-      <c r="AL94" s="84"/>
-      <c r="AM94" s="84"/>
-      <c r="AN94" s="84"/>
-      <c r="AO94" s="84"/>
-      <c r="AP94" s="84"/>
-      <c r="AQ94" s="84"/>
-      <c r="AR94" s="84"/>
-      <c r="AS94" s="84"/>
-      <c r="AT94" s="84"/>
-      <c r="AU94" s="84"/>
-      <c r="AV94" s="84"/>
-      <c r="AW94" s="84"/>
-      <c r="AX94" s="84"/>
-      <c r="AY94" s="84"/>
-      <c r="AZ94" s="84"/>
+      <c r="A94" s="97"/>
+      <c r="B94" s="98"/>
+      <c r="C94" s="98"/>
+      <c r="D94" s="98"/>
+      <c r="E94" s="98"/>
+      <c r="F94" s="98"/>
+      <c r="G94" s="98"/>
+      <c r="H94" s="98"/>
+      <c r="I94" s="98"/>
+      <c r="J94" s="98"/>
+      <c r="K94" s="98"/>
+      <c r="L94" s="98"/>
+      <c r="M94" s="98"/>
+      <c r="N94" s="98"/>
+      <c r="O94" s="98"/>
+      <c r="P94" s="98"/>
+      <c r="Q94" s="98"/>
+      <c r="R94" s="98"/>
+      <c r="S94" s="98"/>
+      <c r="T94" s="98"/>
+      <c r="U94" s="98"/>
+      <c r="V94" s="98"/>
+      <c r="W94" s="98"/>
+      <c r="X94" s="98"/>
+      <c r="Y94" s="98"/>
+      <c r="Z94" s="98"/>
+      <c r="AA94" s="98"/>
+      <c r="AB94" s="98"/>
+      <c r="AC94" s="98"/>
+      <c r="AD94" s="98"/>
+      <c r="AE94" s="98"/>
+      <c r="AF94" s="98"/>
+      <c r="AG94" s="98"/>
+      <c r="AH94" s="98"/>
+      <c r="AI94" s="98"/>
+      <c r="AJ94" s="98"/>
+      <c r="AK94" s="98"/>
+      <c r="AL94" s="98"/>
+      <c r="AM94" s="98"/>
+      <c r="AN94" s="98"/>
+      <c r="AO94" s="98"/>
+      <c r="AP94" s="98"/>
+      <c r="AQ94" s="98"/>
+      <c r="AR94" s="98"/>
+      <c r="AS94" s="98"/>
+      <c r="AT94" s="98"/>
+      <c r="AU94" s="98"/>
+      <c r="AV94" s="98"/>
+      <c r="AW94" s="98"/>
+      <c r="AX94" s="98"/>
+      <c r="AY94" s="98"/>
+      <c r="AZ94" s="99"/>
       <c r="BA94" s="84"/>
       <c r="BB94" s="84"/>
       <c r="BC94" s="84"/>
@@ -24342,58 +24348,58 @@
       <c r="CQ94" s="84"/>
     </row>
     <row r="95" spans="1:95" x14ac:dyDescent="0.15">
-      <c r="A95" s="84"/>
-      <c r="B95" s="84"/>
-      <c r="C95" s="84"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="84"/>
-      <c r="F95" s="84"/>
-      <c r="G95" s="84"/>
-      <c r="H95" s="84"/>
-      <c r="I95" s="84"/>
-      <c r="J95" s="84"/>
-      <c r="K95" s="84"/>
-      <c r="L95" s="84"/>
-      <c r="M95" s="84"/>
-      <c r="N95" s="84"/>
-      <c r="O95" s="84"/>
-      <c r="P95" s="84"/>
-      <c r="Q95" s="84"/>
-      <c r="R95" s="84"/>
-      <c r="S95" s="84"/>
-      <c r="T95" s="84"/>
-      <c r="U95" s="84"/>
-      <c r="V95" s="84"/>
-      <c r="W95" s="84"/>
-      <c r="X95" s="84"/>
-      <c r="Y95" s="84"/>
-      <c r="Z95" s="84"/>
-      <c r="AA95" s="84"/>
-      <c r="AB95" s="84"/>
-      <c r="AC95" s="84"/>
-      <c r="AD95" s="84"/>
-      <c r="AE95" s="84"/>
-      <c r="AF95" s="84"/>
-      <c r="AG95" s="84"/>
-      <c r="AH95" s="84"/>
-      <c r="AI95" s="84"/>
-      <c r="AJ95" s="84"/>
-      <c r="AK95" s="84"/>
-      <c r="AL95" s="84"/>
-      <c r="AM95" s="84"/>
-      <c r="AN95" s="84"/>
-      <c r="AO95" s="84"/>
-      <c r="AP95" s="84"/>
-      <c r="AQ95" s="84"/>
-      <c r="AR95" s="84"/>
-      <c r="AS95" s="84"/>
-      <c r="AT95" s="84"/>
-      <c r="AU95" s="84"/>
-      <c r="AV95" s="84"/>
-      <c r="AW95" s="84"/>
-      <c r="AX95" s="84"/>
-      <c r="AY95" s="84"/>
-      <c r="AZ95" s="84"/>
+      <c r="A95" s="97"/>
+      <c r="B95" s="98"/>
+      <c r="C95" s="98"/>
+      <c r="D95" s="98"/>
+      <c r="E95" s="98"/>
+      <c r="F95" s="98"/>
+      <c r="G95" s="98"/>
+      <c r="H95" s="98"/>
+      <c r="I95" s="98"/>
+      <c r="J95" s="98"/>
+      <c r="K95" s="98"/>
+      <c r="L95" s="98"/>
+      <c r="M95" s="98"/>
+      <c r="N95" s="98"/>
+      <c r="O95" s="98"/>
+      <c r="P95" s="98"/>
+      <c r="Q95" s="98"/>
+      <c r="R95" s="98"/>
+      <c r="S95" s="98"/>
+      <c r="T95" s="98"/>
+      <c r="U95" s="98"/>
+      <c r="V95" s="98"/>
+      <c r="W95" s="98"/>
+      <c r="X95" s="98"/>
+      <c r="Y95" s="98"/>
+      <c r="Z95" s="98"/>
+      <c r="AA95" s="98"/>
+      <c r="AB95" s="98"/>
+      <c r="AC95" s="98"/>
+      <c r="AD95" s="98"/>
+      <c r="AE95" s="98"/>
+      <c r="AF95" s="98"/>
+      <c r="AG95" s="98"/>
+      <c r="AH95" s="98"/>
+      <c r="AI95" s="98"/>
+      <c r="AJ95" s="98"/>
+      <c r="AK95" s="98"/>
+      <c r="AL95" s="98"/>
+      <c r="AM95" s="98"/>
+      <c r="AN95" s="98"/>
+      <c r="AO95" s="98"/>
+      <c r="AP95" s="98"/>
+      <c r="AQ95" s="98"/>
+      <c r="AR95" s="98"/>
+      <c r="AS95" s="98"/>
+      <c r="AT95" s="98"/>
+      <c r="AU95" s="98"/>
+      <c r="AV95" s="98"/>
+      <c r="AW95" s="98"/>
+      <c r="AX95" s="98"/>
+      <c r="AY95" s="98"/>
+      <c r="AZ95" s="99"/>
       <c r="BA95" s="84"/>
       <c r="BB95" s="84"/>
       <c r="BC95" s="84"/>
@@ -24439,58 +24445,58 @@
       <c r="CQ95" s="84"/>
     </row>
     <row r="96" spans="1:95" x14ac:dyDescent="0.15">
-      <c r="A96" s="84"/>
-      <c r="B96" s="84"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="84"/>
-      <c r="F96" s="84"/>
-      <c r="G96" s="84"/>
-      <c r="H96" s="84"/>
-      <c r="I96" s="84"/>
-      <c r="J96" s="84"/>
-      <c r="K96" s="84"/>
-      <c r="L96" s="84"/>
-      <c r="M96" s="84"/>
-      <c r="N96" s="84"/>
-      <c r="O96" s="84"/>
-      <c r="P96" s="84"/>
-      <c r="Q96" s="84"/>
-      <c r="R96" s="84"/>
-      <c r="S96" s="84"/>
-      <c r="T96" s="84"/>
-      <c r="U96" s="84"/>
-      <c r="V96" s="84"/>
-      <c r="W96" s="84"/>
-      <c r="X96" s="84"/>
-      <c r="Y96" s="84"/>
-      <c r="Z96" s="84"/>
-      <c r="AA96" s="84"/>
-      <c r="AB96" s="84"/>
-      <c r="AC96" s="84"/>
-      <c r="AD96" s="84"/>
-      <c r="AE96" s="84"/>
-      <c r="AF96" s="84"/>
-      <c r="AG96" s="84"/>
-      <c r="AH96" s="84"/>
-      <c r="AI96" s="84"/>
-      <c r="AJ96" s="84"/>
-      <c r="AK96" s="84"/>
-      <c r="AL96" s="84"/>
-      <c r="AM96" s="84"/>
-      <c r="AN96" s="84"/>
-      <c r="AO96" s="84"/>
-      <c r="AP96" s="84"/>
-      <c r="AQ96" s="84"/>
-      <c r="AR96" s="84"/>
-      <c r="AS96" s="84"/>
-      <c r="AT96" s="84"/>
-      <c r="AU96" s="84"/>
-      <c r="AV96" s="84"/>
-      <c r="AW96" s="84"/>
-      <c r="AX96" s="84"/>
-      <c r="AY96" s="84"/>
-      <c r="AZ96" s="84"/>
+      <c r="A96" s="93"/>
+      <c r="B96" s="94"/>
+      <c r="C96" s="94"/>
+      <c r="D96" s="94"/>
+      <c r="E96" s="94"/>
+      <c r="F96" s="94"/>
+      <c r="G96" s="94"/>
+      <c r="H96" s="94"/>
+      <c r="I96" s="94"/>
+      <c r="J96" s="94"/>
+      <c r="K96" s="94"/>
+      <c r="L96" s="94"/>
+      <c r="M96" s="94"/>
+      <c r="N96" s="94"/>
+      <c r="O96" s="94"/>
+      <c r="P96" s="94"/>
+      <c r="Q96" s="94"/>
+      <c r="R96" s="94"/>
+      <c r="S96" s="94"/>
+      <c r="T96" s="94"/>
+      <c r="U96" s="94"/>
+      <c r="V96" s="94"/>
+      <c r="W96" s="94"/>
+      <c r="X96" s="94"/>
+      <c r="Y96" s="94"/>
+      <c r="Z96" s="94"/>
+      <c r="AA96" s="94"/>
+      <c r="AB96" s="94"/>
+      <c r="AC96" s="94"/>
+      <c r="AD96" s="94"/>
+      <c r="AE96" s="94"/>
+      <c r="AF96" s="94"/>
+      <c r="AG96" s="94"/>
+      <c r="AH96" s="94"/>
+      <c r="AI96" s="94"/>
+      <c r="AJ96" s="94"/>
+      <c r="AK96" s="94"/>
+      <c r="AL96" s="94"/>
+      <c r="AM96" s="94"/>
+      <c r="AN96" s="94"/>
+      <c r="AO96" s="94"/>
+      <c r="AP96" s="94"/>
+      <c r="AQ96" s="94"/>
+      <c r="AR96" s="94"/>
+      <c r="AS96" s="94"/>
+      <c r="AT96" s="94"/>
+      <c r="AU96" s="94"/>
+      <c r="AV96" s="94"/>
+      <c r="AW96" s="94"/>
+      <c r="AX96" s="94"/>
+      <c r="AY96" s="94"/>
+      <c r="AZ96" s="95"/>
       <c r="BA96" s="84"/>
       <c r="BB96" s="84"/>
       <c r="BC96" s="84"/>
@@ -24536,7 +24542,20 @@
       <c r="CQ96" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="195">
+  <mergeCells count="208">
+    <mergeCell ref="A91:AZ91"/>
+    <mergeCell ref="A92:AZ92"/>
+    <mergeCell ref="A93:AZ93"/>
+    <mergeCell ref="A94:AZ94"/>
+    <mergeCell ref="A95:AZ95"/>
+    <mergeCell ref="A96:AZ96"/>
+    <mergeCell ref="A84:AZ84"/>
+    <mergeCell ref="A85:AZ85"/>
+    <mergeCell ref="A86:AZ86"/>
+    <mergeCell ref="A87:AZ87"/>
+    <mergeCell ref="A88:AZ88"/>
+    <mergeCell ref="A89:AZ89"/>
+    <mergeCell ref="A90:AZ90"/>
     <mergeCell ref="R7:AG10"/>
     <mergeCell ref="BD7:BR8"/>
     <mergeCell ref="BW15:BX17"/>

--- a/画面設計書.xlsx
+++ b/画面設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1716" windowWidth="18876" windowHeight="15588" tabRatio="758" activeTab="2"/>
+    <workbookView minimized="1" xWindow="3540" yWindow="1716" windowWidth="18876" windowHeight="15588" tabRatio="758" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面（仮）" sheetId="71" r:id="rId1"/>
@@ -409,13 +409,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>9：：確定ボタンを押すと、注文確定画面にデータが送られ、そこの画面に今、注文されたものが表示される。注文されたということになる。</t>
-    <rPh sb="50" eb="52">
-      <t>チュウモン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2：：画像を押して個数入力できる、画像の数と種類はカテゴリーによる</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -492,6 +485,13 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9：：確定ボタンを押すと、注文確定画面にデータが送られてそこの画面に、今注文されたものが表示される。注文されたということになる。</t>
+    <rPh sb="50" eb="52">
+      <t>チュウモン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -15484,8 +15484,8 @@
   </sheetPr>
   <dimension ref="A1:CQ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59:U59"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:AZ90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
@@ -20703,7 +20703,7 @@
       <c r="J57" s="53"/>
       <c r="K57" s="54"/>
       <c r="L57" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M57" s="53"/>
       <c r="N57" s="53"/>
@@ -20715,13 +20715,13 @@
       <c r="T57" s="53"/>
       <c r="U57" s="54"/>
       <c r="V57" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W57" s="59"/>
       <c r="X57" s="52"/>
       <c r="Y57" s="54"/>
       <c r="Z57" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA57" s="56"/>
       <c r="AB57" s="56"/>
@@ -20822,7 +20822,7 @@
       <c r="T58" s="53"/>
       <c r="U58" s="54"/>
       <c r="V58" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W58" s="59"/>
       <c r="X58" s="52"/>
@@ -20927,7 +20927,7 @@
       <c r="T59" s="53"/>
       <c r="U59" s="54"/>
       <c r="V59" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W59" s="59"/>
       <c r="X59" s="52"/>
@@ -21032,7 +21032,7 @@
       <c r="T60" s="53"/>
       <c r="U60" s="54"/>
       <c r="V60" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W60" s="59"/>
       <c r="X60" s="52"/>
@@ -21137,7 +21137,7 @@
       <c r="T61" s="53"/>
       <c r="U61" s="54"/>
       <c r="V61" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W61" s="59"/>
       <c r="X61" s="52"/>
@@ -21220,7 +21220,7 @@
         <v>6</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="53"/>
       <c r="D62" s="53"/>
@@ -21242,7 +21242,7 @@
       <c r="T62" s="53"/>
       <c r="U62" s="54"/>
       <c r="V62" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W62" s="59"/>
       <c r="X62" s="52"/>
@@ -21325,7 +21325,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
@@ -21347,7 +21347,7 @@
       <c r="T63" s="53"/>
       <c r="U63" s="54"/>
       <c r="V63" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W63" s="59"/>
       <c r="X63" s="52"/>
@@ -21430,7 +21430,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C64" s="53"/>
       <c r="D64" s="53"/>
@@ -21452,7 +21452,7 @@
       <c r="T64" s="53"/>
       <c r="U64" s="54"/>
       <c r="V64" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W64" s="59"/>
       <c r="X64" s="52"/>
@@ -21535,7 +21535,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C65" s="53"/>
       <c r="D65" s="53"/>
@@ -21557,7 +21557,7 @@
       <c r="T65" s="53"/>
       <c r="U65" s="54"/>
       <c r="V65" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W65" s="59"/>
       <c r="X65" s="52"/>
@@ -21640,7 +21640,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C66" s="53"/>
       <c r="D66" s="53"/>
@@ -21652,7 +21652,7 @@
       <c r="J66" s="53"/>
       <c r="K66" s="54"/>
       <c r="L66" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M66" s="53"/>
       <c r="N66" s="53"/>
@@ -21664,13 +21664,13 @@
       <c r="T66" s="53"/>
       <c r="U66" s="54"/>
       <c r="V66" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W66" s="59"/>
       <c r="X66" s="52"/>
       <c r="Y66" s="54"/>
       <c r="Z66" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA66" s="56"/>
       <c r="AB66" s="56"/>
@@ -23367,7 +23367,7 @@
     </row>
     <row r="84" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A84" s="72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B84" s="73"/>
       <c r="C84" s="73"/>
@@ -23565,7 +23565,7 @@
     </row>
     <row r="86" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A86" s="72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B86" s="73"/>
       <c r="C86" s="73"/>
@@ -23664,7 +23664,7 @@
     </row>
     <row r="87" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A87" s="72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B87" s="73"/>
       <c r="C87" s="73"/>
@@ -23961,7 +23961,7 @@
     </row>
     <row r="90" spans="1:95" x14ac:dyDescent="0.15">
       <c r="A90" s="72" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B90" s="73"/>
       <c r="C90" s="73"/>
